--- a/마포구청 개발.디자인 진행 일정 및 내용_20210317_ver1.2.xlsx
+++ b/마포구청 개발.디자인 진행 일정 및 내용_20210317_ver1.2.xlsx
@@ -516,7 +516,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +606,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1059,7 +1077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,21 +1153,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1216,44 +1225,194 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1267,155 +1426,26 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1690,7 +1720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1703,8 +1733,8 @@
   </sheetPr>
   <dimension ref="B2:AG78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16:W16"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
@@ -1741,12 +1771,12 @@
   <sheetData>
     <row r="2" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:33" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1833,10 +1863,10 @@
       </c>
     </row>
     <row r="4" spans="2:33" s="2" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="5">
         <v>44256</v>
       </c>
@@ -1923,45 +1953,45 @@
       </c>
     </row>
     <row r="5" spans="2:33" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="109" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="108" t="s">
+      <c r="P5" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="104"/>
+      <c r="Q5" s="76"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="105" t="s">
+      <c r="T5" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="52" t="s">
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="54"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="110"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
@@ -1969,14 +1999,14 @@
       <c r="AG5" s="10"/>
     </row>
     <row r="6" spans="2:33" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="84"/>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="70"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
         <v>65</v>
@@ -2000,26 +2030,26 @@
       <c r="P6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113"/>
-      <c r="V6" s="114" t="s">
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="W6" s="114" t="s">
+      <c r="W6" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="14"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116"/>
+      <c r="AA6" s="117"/>
       <c r="AB6" s="13"/>
-      <c r="AC6" s="62" t="s">
+      <c r="AC6" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" s="62" t="s">
+      <c r="AD6" s="56" t="s">
         <v>64</v>
       </c>
       <c r="AE6" s="13"/>
@@ -2027,9 +2057,9 @@
       <c r="AG6" s="16"/>
     </row>
     <row r="7" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="84"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71" t="s">
+      <c r="B7" s="70"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -2056,28 +2086,28 @@
       <c r="P7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
       <c r="AB7" s="13"/>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="63"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
       <c r="AG7" s="16"/>
     </row>
     <row r="8" spans="2:33" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="84"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="17" t="s">
         <v>5</v>
       </c>
@@ -2102,28 +2132,28 @@
       <c r="P8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
       <c r="AB8" s="13"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="63"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
       <c r="AE8" s="13"/>
       <c r="AF8" s="13"/>
       <c r="AG8" s="16"/>
     </row>
     <row r="9" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="84"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="72"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="80"/>
       <c r="E9" s="17" t="s">
         <v>6</v>
       </c>
@@ -2148,28 +2178,28 @@
       <c r="P9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="114"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="116"/>
       <c r="AB9" s="13"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="84"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="72"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="17" t="s">
         <v>18</v>
       </c>
@@ -2186,17 +2216,17 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
@@ -2205,9 +2235,9 @@
       <c r="AG10" s="16"/>
     </row>
     <row r="11" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="84"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="72"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="17" t="s">
         <v>7</v>
       </c>
@@ -2222,19 +2252,19 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="114" t="s">
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="W11" s="113"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
@@ -2243,9 +2273,9 @@
       <c r="AG11" s="16"/>
     </row>
     <row r="12" spans="2:33" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="84"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="72"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="17" t="s">
         <v>8</v>
       </c>
@@ -2260,19 +2290,19 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="93" t="s">
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="116"/>
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
@@ -2281,9 +2311,9 @@
       <c r="AG12" s="16"/>
     </row>
     <row r="13" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="84"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="72"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="80"/>
       <c r="E13" s="17" t="s">
         <v>9</v>
       </c>
@@ -2298,17 +2328,17 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
       <c r="AB13" s="13"/>
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
@@ -2317,9 +2347,9 @@
       <c r="AG13" s="16"/>
     </row>
     <row r="14" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="84"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="72"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="17" t="s">
         <v>10</v>
       </c>
@@ -2334,17 +2364,17 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
@@ -2353,9 +2383,9 @@
       <c r="AG14" s="16"/>
     </row>
     <row r="15" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="85"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="19" t="s">
         <v>11</v>
       </c>
@@ -2370,17 +2400,17 @@
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="113"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="114"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="116"/>
+      <c r="AA15" s="116"/>
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="21"/>
@@ -2389,62 +2419,62 @@
       <c r="AG15" s="22"/>
     </row>
     <row r="16" spans="2:33" ht="107.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="109" t="s">
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="59" t="s">
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="115" t="s">
+      <c r="P16" s="90"/>
+      <c r="Q16" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="R16" s="115"/>
-      <c r="S16" s="115"/>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="115"/>
-      <c r="W16" s="115"/>
-      <c r="X16" s="56" t="s">
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="112"/>
-      <c r="AE16" s="59" t="s">
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="68"/>
-    </row>
-    <row r="17" spans="2:33" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="75"/>
-      <c r="C17" s="55" t="s">
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="115"/>
+    </row>
+    <row r="17" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="87"/>
+      <c r="C17" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="70"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="18"/>
       <c r="G17" s="11" t="s">
         <v>65</v>
@@ -2470,38 +2500,38 @@
       <c r="P17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="116" t="s">
+      <c r="Q17" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="R17" s="113"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="114" t="s">
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="W17" s="114" t="s">
+      <c r="W17" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="X17" s="14" t="s">
+      <c r="X17" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="14"/>
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="119"/>
+      <c r="AA17" s="117"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="13"/>
       <c r="AD17" s="14"/>
-      <c r="AE17" s="62" t="s">
+      <c r="AE17" s="56" t="s">
         <v>102</v>
       </c>
       <c r="AF17" s="13"/>
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="75"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="17" t="s">
@@ -2530,36 +2560,36 @@
       <c r="P18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="117" t="s">
+      <c r="Q18" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="114"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="25" t="s">
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
+      <c r="Y18" s="119"/>
+      <c r="Z18" s="119"/>
+      <c r="AA18" s="119"/>
       <c r="AB18" s="13"/>
-      <c r="AC18" s="93" t="s">
+      <c r="AC18" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="AD18" s="93" t="s">
+      <c r="AD18" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="AE18" s="63"/>
+      <c r="AE18" s="57"/>
       <c r="AF18" s="13"/>
       <c r="AG18" s="16"/>
     </row>
     <row r="19" spans="2:33" ht="141.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="75"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="72"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="17" t="s">
         <v>5</v>
       </c>
@@ -2586,32 +2616,32 @@
       <c r="P19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="117" t="s">
+      <c r="Q19" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="R19" s="113"/>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="114"/>
-      <c r="X19" s="25" t="s">
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="119"/>
       <c r="AB19" s="13"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="63"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="57"/>
       <c r="AF19" s="13"/>
       <c r="AG19" s="16"/>
     </row>
     <row r="20" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="75"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="72"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="17" t="s">
         <v>6</v>
       </c>
@@ -2638,32 +2668,32 @@
       <c r="P20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Q20" s="117" t="s">
+      <c r="Q20" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="R20" s="113"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="113"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="25" t="s">
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
+      <c r="Y20" s="119"/>
+      <c r="Z20" s="119"/>
+      <c r="AA20" s="119"/>
       <c r="AB20" s="13"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="63"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="57"/>
       <c r="AF20" s="13"/>
       <c r="AG20" s="16"/>
     </row>
     <row r="21" spans="2:33" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="75"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="72"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="17" t="s">
         <v>18</v>
       </c>
@@ -2673,7 +2703,7 @@
       <c r="I21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="25" t="s">
         <v>78</v>
       </c>
       <c r="K21" s="11"/>
@@ -2682,32 +2712,32 @@
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="118" t="s">
+      <c r="Q21" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="27" t="s">
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="27"/>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="119"/>
+      <c r="AA21" s="121"/>
       <c r="AB21" s="13"/>
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
-      <c r="AE21" s="63"/>
+      <c r="AE21" s="57"/>
       <c r="AF21" s="13"/>
       <c r="AG21" s="16"/>
     </row>
     <row r="22" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="75"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="72"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="17" t="s">
         <v>7</v>
       </c>
@@ -2724,36 +2754,36 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="117" t="s">
+      <c r="Q22" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="114" t="s">
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="W22" s="113"/>
-      <c r="X22" s="25" t="s">
+      <c r="W22" s="49"/>
+      <c r="X22" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="93" t="s">
+      <c r="Y22" s="119"/>
+      <c r="Z22" s="119"/>
+      <c r="AA22" s="119"/>
+      <c r="AB22" s="53" t="s">
         <v>118</v>
       </c>
       <c r="AC22" s="13"/>
       <c r="AD22" s="13"/>
-      <c r="AE22" s="63"/>
+      <c r="AE22" s="57"/>
       <c r="AF22" s="13"/>
       <c r="AG22" s="16"/>
     </row>
     <row r="23" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="75"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="72"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="17" t="s">
         <v>8</v>
       </c>
@@ -2770,32 +2800,32 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="117" t="s">
+      <c r="Q23" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="114"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="25" t="s">
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="96"/>
+      <c r="Y23" s="119"/>
+      <c r="Z23" s="119"/>
+      <c r="AA23" s="119"/>
+      <c r="AB23" s="92"/>
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
-      <c r="AE23" s="63"/>
+      <c r="AE23" s="57"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="16"/>
     </row>
     <row r="24" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="75"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="72"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="17" t="s">
         <v>9</v>
       </c>
@@ -2812,32 +2842,32 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="117" t="s">
+      <c r="Q24" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="114"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="25" t="s">
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="96"/>
+      <c r="Y24" s="119"/>
+      <c r="Z24" s="119"/>
+      <c r="AA24" s="119"/>
+      <c r="AB24" s="92"/>
       <c r="AC24" s="13"/>
       <c r="AD24" s="13"/>
-      <c r="AE24" s="63"/>
+      <c r="AE24" s="57"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="16"/>
     </row>
     <row r="25" spans="2:33" ht="127.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="75"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="72"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="17" t="s">
         <v>10</v>
       </c>
@@ -2854,32 +2884,32 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="117" t="s">
+      <c r="Q25" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="R25" s="113"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="114"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="25" t="s">
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="96"/>
+      <c r="Y25" s="119"/>
+      <c r="Z25" s="119"/>
+      <c r="AA25" s="119"/>
+      <c r="AB25" s="92"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
-      <c r="AE25" s="63"/>
+      <c r="AE25" s="57"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="16"/>
     </row>
     <row r="26" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="76"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="73"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="19" t="s">
         <v>11</v>
       </c>
@@ -2887,7 +2917,7 @@
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="28" t="s">
+      <c r="J26" s="26" t="s">
         <v>81</v>
       </c>
       <c r="K26" s="20"/>
@@ -2896,36 +2926,36 @@
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
-      <c r="Q26" s="117" t="s">
+      <c r="Q26" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="R26" s="113"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="114"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="29" t="s">
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="97"/>
+      <c r="Y26" s="119"/>
+      <c r="Z26" s="119"/>
+      <c r="AA26" s="119"/>
+      <c r="AB26" s="93"/>
       <c r="AC26" s="21"/>
       <c r="AD26" s="21"/>
-      <c r="AE26" s="69"/>
+      <c r="AE26" s="58"/>
       <c r="AF26" s="21"/>
       <c r="AG26" s="22"/>
     </row>
     <row r="28" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="3" t="s">
         <v>30</v>
       </c>
@@ -3012,10 +3042,10 @@
       </c>
     </row>
     <row r="30" spans="2:33" s="2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="5">
         <v>44284</v>
       </c>
@@ -3102,30 +3132,30 @@
       </c>
     </row>
     <row r="31" spans="2:33" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="104" t="s">
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104" t="s">
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
-      <c r="Q31" s="30"/>
+      <c r="Q31" s="27"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
@@ -3140,21 +3170,21 @@
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="32"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="29"/>
     </row>
     <row r="32" spans="2:33" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="99"/>
-      <c r="C32" s="62" t="s">
+      <c r="B32" s="95"/>
+      <c r="C32" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="70" t="s">
+      <c r="D32" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="70"/>
+      <c r="E32" s="78"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="56" t="s">
         <v>42</v>
       </c>
       <c r="I32" s="14" t="s">
@@ -3172,7 +3202,7 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="62" t="s">
+      <c r="T32" s="56" t="s">
         <v>52</v>
       </c>
       <c r="U32" s="13"/>
@@ -3190,9 +3220,9 @@
       <c r="AG32" s="16"/>
     </row>
     <row r="33" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="99"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="70" t="s">
+      <c r="B33" s="95"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="78" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="17" t="s">
@@ -3200,8 +3230,8 @@
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="62" t="s">
+      <c r="H33" s="57"/>
+      <c r="I33" s="56" t="s">
         <v>54</v>
       </c>
       <c r="J33" s="13"/>
@@ -3210,13 +3240,13 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
-      <c r="P33" s="55" t="s">
+      <c r="P33" s="77" t="s">
         <v>88</v>
       </c>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="63"/>
+      <c r="T33" s="57"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
@@ -3232,27 +3262,27 @@
       <c r="AG33" s="16"/>
     </row>
     <row r="34" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="99"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="70"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="78"/>
       <c r="E34" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
-      <c r="P34" s="55"/>
+      <c r="P34" s="77"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="63"/>
+      <c r="T34" s="57"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
@@ -3268,27 +3298,27 @@
       <c r="AG34" s="16"/>
     </row>
     <row r="35" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="70"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="78"/>
       <c r="E35" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="55"/>
+      <c r="P35" s="77"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="63"/>
+      <c r="T35" s="57"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
@@ -3304,9 +3334,9 @@
       <c r="AG35" s="16"/>
     </row>
     <row r="36" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="99"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="70"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="17" t="s">
         <v>18</v>
       </c>
@@ -3324,7 +3354,7 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="63"/>
+      <c r="T36" s="57"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
@@ -3340,16 +3370,16 @@
       <c r="AG36" s="16"/>
     </row>
     <row r="37" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="99"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="70"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="62" t="s">
+      <c r="I37" s="56" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="13"/>
@@ -3362,7 +3392,7 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
-      <c r="T37" s="63"/>
+      <c r="T37" s="57"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
       <c r="W37" s="13"/>
@@ -3378,16 +3408,16 @@
       <c r="AG37" s="16"/>
     </row>
     <row r="38" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="99"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="70"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="78"/>
       <c r="E38" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="63"/>
+      <c r="I38" s="57"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -3398,7 +3428,7 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
-      <c r="T38" s="63"/>
+      <c r="T38" s="57"/>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
@@ -3414,16 +3444,16 @@
       <c r="AG38" s="16"/>
     </row>
     <row r="39" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="99"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="70"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="64"/>
+      <c r="I39" s="62"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -3434,7 +3464,7 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="64"/>
+      <c r="T39" s="62"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
@@ -3450,16 +3480,16 @@
       <c r="AG39" s="16"/>
     </row>
     <row r="40" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="99"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="70"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="33"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
@@ -3486,105 +3516,105 @@
       <c r="AG40" s="16"/>
     </row>
     <row r="41" spans="2:33" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="100"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="34" t="s">
+      <c r="B41" s="96"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
-      <c r="AG41" s="37"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="32"/>
+      <c r="AG41" s="34"/>
     </row>
     <row r="42" spans="2:33" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="59" t="s">
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="59" t="s">
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="59" t="s">
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="87"/>
-      <c r="U42" s="87"/>
-      <c r="V42" s="88"/>
+      <c r="Q42" s="99"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="99"/>
+      <c r="T42" s="99"/>
+      <c r="U42" s="99"/>
+      <c r="V42" s="100"/>
       <c r="W42" s="23"/>
       <c r="X42" s="23"/>
       <c r="Y42" s="23"/>
       <c r="Z42" s="23"/>
-      <c r="AA42" s="56" t="s">
+      <c r="AA42" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AB42" s="57"/>
-      <c r="AC42" s="57"/>
-      <c r="AD42" s="57"/>
-      <c r="AE42" s="57"/>
-      <c r="AF42" s="57"/>
-      <c r="AG42" s="58"/>
+      <c r="AB42" s="64"/>
+      <c r="AC42" s="64"/>
+      <c r="AD42" s="64"/>
+      <c r="AE42" s="64"/>
+      <c r="AF42" s="64"/>
+      <c r="AG42" s="111"/>
     </row>
     <row r="43" spans="2:33" ht="135" x14ac:dyDescent="0.3">
-      <c r="B43" s="90"/>
-      <c r="C43" s="62" t="s">
+      <c r="B43" s="102"/>
+      <c r="C43" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="93" t="s">
+      <c r="E43" s="78"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="53" t="s">
         <v>117</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="62" t="s">
+      <c r="J43" s="56" t="s">
         <v>55</v>
       </c>
       <c r="K43" s="13"/>
@@ -3592,31 +3622,31 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
-      <c r="P43" s="62" t="s">
+      <c r="P43" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="Q43" s="62" t="s">
+      <c r="Q43" s="56" t="s">
         <v>58</v>
       </c>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
-      <c r="T43" s="62" t="s">
+      <c r="T43" s="56" t="s">
         <v>57</v>
       </c>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
-      <c r="W43" s="62" t="s">
+      <c r="W43" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="X43" s="62" t="s">
+      <c r="X43" s="56" t="s">
         <v>60</v>
       </c>
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
-      <c r="AA43" s="38"/>
-      <c r="AB43" s="33"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="30"/>
       <c r="AC43" s="13"/>
-      <c r="AD43" s="62" t="s">
+      <c r="AD43" s="56" t="s">
         <v>62</v>
       </c>
       <c r="AE43" s="13"/>
@@ -3624,9 +3654,9 @@
       <c r="AG43" s="16"/>
     </row>
     <row r="44" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="90"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="70" t="s">
+      <c r="B44" s="102"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="78" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="17" t="s">
@@ -3634,111 +3664,111 @@
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="55" t="s">
+      <c r="H44" s="54"/>
+      <c r="I44" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="J44" s="63"/>
+      <c r="J44" s="57"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="63"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
-      <c r="T44" s="63"/>
+      <c r="T44" s="57"/>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
-      <c r="W44" s="63"/>
-      <c r="X44" s="63"/>
+      <c r="W44" s="57"/>
+      <c r="X44" s="57"/>
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
       <c r="AC44" s="13"/>
-      <c r="AD44" s="63"/>
+      <c r="AD44" s="57"/>
       <c r="AE44" s="13"/>
       <c r="AF44" s="13"/>
       <c r="AG44" s="16"/>
     </row>
     <row r="45" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="90"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="70"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="78"/>
       <c r="E45" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="63"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="57"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="63"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
-      <c r="T45" s="63"/>
+      <c r="T45" s="57"/>
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
-      <c r="W45" s="63"/>
-      <c r="X45" s="63"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="57"/>
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="13"/>
-      <c r="AD45" s="63"/>
+      <c r="AD45" s="57"/>
       <c r="AE45" s="13"/>
       <c r="AF45" s="13"/>
       <c r="AG45" s="16"/>
     </row>
     <row r="46" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="90"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="70"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="78"/>
       <c r="E46" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="63"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="57"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
-      <c r="P46" s="63"/>
-      <c r="Q46" s="63"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
-      <c r="T46" s="63"/>
+      <c r="T46" s="57"/>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
-      <c r="W46" s="63"/>
-      <c r="X46" s="63"/>
+      <c r="W46" s="57"/>
+      <c r="X46" s="57"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="13"/>
       <c r="AC46" s="13"/>
-      <c r="AD46" s="63"/>
+      <c r="AD46" s="57"/>
       <c r="AE46" s="13"/>
       <c r="AF46" s="13"/>
       <c r="AG46" s="16"/>
     </row>
     <row r="47" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="90"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="70"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="78"/>
       <c r="E47" s="17" t="s">
         <v>18</v>
       </c>
@@ -3746,221 +3776,221 @@
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="63"/>
+      <c r="J47" s="57"/>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="63"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
-      <c r="T47" s="63"/>
+      <c r="T47" s="57"/>
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
-      <c r="W47" s="63"/>
-      <c r="X47" s="63"/>
+      <c r="W47" s="57"/>
+      <c r="X47" s="57"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
       <c r="AC47" s="13"/>
-      <c r="AD47" s="63"/>
+      <c r="AD47" s="57"/>
       <c r="AE47" s="13"/>
       <c r="AF47" s="13"/>
       <c r="AG47" s="16"/>
     </row>
     <row r="48" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="90"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="70"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="78"/>
       <c r="E48" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="62" t="s">
+      <c r="I48" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="63"/>
+      <c r="J48" s="57"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="63"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
-      <c r="T48" s="63"/>
+      <c r="T48" s="57"/>
       <c r="U48" s="13"/>
       <c r="V48" s="13"/>
-      <c r="W48" s="63"/>
-      <c r="X48" s="63"/>
+      <c r="W48" s="57"/>
+      <c r="X48" s="57"/>
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
       <c r="AB48" s="13"/>
       <c r="AC48" s="13"/>
-      <c r="AD48" s="63"/>
+      <c r="AD48" s="57"/>
       <c r="AE48" s="13"/>
       <c r="AF48" s="13"/>
       <c r="AG48" s="16"/>
     </row>
     <row r="49" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="90"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="70"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="78"/>
       <c r="E49" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
-      <c r="T49" s="63"/>
+      <c r="T49" s="57"/>
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
-      <c r="W49" s="63"/>
-      <c r="X49" s="63"/>
+      <c r="W49" s="57"/>
+      <c r="X49" s="57"/>
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
       <c r="AB49" s="13"/>
       <c r="AC49" s="13"/>
-      <c r="AD49" s="63"/>
+      <c r="AD49" s="57"/>
       <c r="AE49" s="13"/>
       <c r="AF49" s="13"/>
       <c r="AG49" s="16"/>
     </row>
     <row r="50" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="90"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="70"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="78"/>
       <c r="E50" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="63"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
-      <c r="T50" s="64"/>
+      <c r="T50" s="62"/>
       <c r="U50" s="13"/>
       <c r="V50" s="13"/>
-      <c r="W50" s="63"/>
-      <c r="X50" s="63"/>
+      <c r="W50" s="57"/>
+      <c r="X50" s="57"/>
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
       <c r="AC50" s="13"/>
-      <c r="AD50" s="63"/>
+      <c r="AD50" s="57"/>
       <c r="AE50" s="13"/>
       <c r="AF50" s="13"/>
       <c r="AG50" s="16"/>
     </row>
     <row r="51" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="90"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="70"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="78"/>
       <c r="E51" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="63"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
       <c r="V51" s="13"/>
-      <c r="W51" s="63"/>
-      <c r="X51" s="63"/>
+      <c r="W51" s="57"/>
+      <c r="X51" s="57"/>
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
-      <c r="AD51" s="63"/>
+      <c r="AD51" s="57"/>
       <c r="AE51" s="13"/>
       <c r="AF51" s="13"/>
       <c r="AG51" s="16"/>
     </row>
     <row r="52" spans="2:33" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="91"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="83"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="69"/>
       <c r="E52" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
-      <c r="P52" s="69"/>
-      <c r="Q52" s="69"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="58"/>
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
       <c r="T52" s="21"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
-      <c r="W52" s="69"/>
-      <c r="X52" s="69"/>
+      <c r="W52" s="58"/>
+      <c r="X52" s="58"/>
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
       <c r="AA52" s="21"/>
       <c r="AB52" s="21"/>
       <c r="AC52" s="21"/>
-      <c r="AD52" s="69"/>
+      <c r="AD52" s="58"/>
       <c r="AE52" s="21"/>
       <c r="AF52" s="21"/>
       <c r="AG52" s="22"/>
     </row>
     <row r="54" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
       <c r="F55" s="3" t="s">
         <v>30</v>
       </c>
@@ -4015,10 +4045,10 @@
       <c r="W55" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X55" s="39" t="s">
+      <c r="X55" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="Y55" s="40" t="s">
+      <c r="Y55" s="37" t="s">
         <v>35</v>
       </c>
       <c r="Z55" s="4" t="s">
@@ -4026,10 +4056,10 @@
       </c>
     </row>
     <row r="56" spans="2:33" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="82"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
       <c r="F56" s="5">
         <v>44312</v>
       </c>
@@ -4072,22 +4102,22 @@
       <c r="S56" s="6">
         <v>44325</v>
       </c>
-      <c r="T56" s="41">
+      <c r="T56" s="38">
         <v>44326</v>
       </c>
-      <c r="U56" s="41">
+      <c r="U56" s="38">
         <v>44327</v>
       </c>
-      <c r="V56" s="41">
+      <c r="V56" s="38">
         <v>44328</v>
       </c>
-      <c r="W56" s="41">
+      <c r="W56" s="38">
         <v>44329</v>
       </c>
-      <c r="X56" s="42">
+      <c r="X56" s="39">
         <v>44330</v>
       </c>
-      <c r="Y56" s="43">
+      <c r="Y56" s="40">
         <v>44331</v>
       </c>
       <c r="Z56" s="7">
@@ -4095,19 +4125,19 @@
       </c>
     </row>
     <row r="57" spans="2:33" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="84" t="s">
+      <c r="B57" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="30"/>
+      <c r="J57" s="27"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
@@ -4121,24 +4151,24 @@
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
       <c r="W57" s="10"/>
-      <c r="X57" s="65" t="s">
+      <c r="X57" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="Y57" s="45"/>
-      <c r="Z57" s="32"/>
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="29"/>
     </row>
     <row r="58" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="84"/>
-      <c r="C58" s="62" t="s">
+      <c r="B58" s="70"/>
+      <c r="C58" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="70" t="s">
+      <c r="D58" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="70"/>
+      <c r="E58" s="78"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="62" t="s">
+      <c r="H58" s="56" t="s">
         <v>61</v>
       </c>
       <c r="I58" s="13"/>
@@ -4148,26 +4178,26 @@
       <c r="M58" s="14"/>
       <c r="N58" s="13"/>
       <c r="O58" s="14"/>
-      <c r="P58" s="62" t="s">
+      <c r="P58" s="56" t="s">
         <v>86</v>
       </c>
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
-      <c r="T58" s="62" t="s">
+      <c r="T58" s="56" t="s">
         <v>85</v>
       </c>
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
       <c r="W58" s="16"/>
-      <c r="X58" s="66"/>
-      <c r="Y58" s="46"/>
+      <c r="X58" s="113"/>
+      <c r="Y58" s="43"/>
       <c r="Z58" s="16"/>
     </row>
     <row r="59" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="84"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="71" t="s">
+      <c r="B59" s="70"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="79" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="17" t="s">
@@ -4175,7 +4205,7 @@
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="63"/>
+      <c r="H59" s="57"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
@@ -4183,28 +4213,28 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
-      <c r="P59" s="63"/>
+      <c r="P59" s="57"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
-      <c r="T59" s="63"/>
+      <c r="T59" s="57"/>
       <c r="U59" s="13"/>
       <c r="V59" s="13"/>
       <c r="W59" s="16"/>
-      <c r="X59" s="66"/>
-      <c r="Y59" s="46"/>
+      <c r="X59" s="113"/>
+      <c r="Y59" s="43"/>
       <c r="Z59" s="16"/>
     </row>
     <row r="60" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="84"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="72"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="80"/>
       <c r="E60" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="63"/>
+      <c r="H60" s="57"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -4212,28 +4242,28 @@
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
-      <c r="P60" s="63"/>
+      <c r="P60" s="57"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
-      <c r="T60" s="63"/>
+      <c r="T60" s="57"/>
       <c r="U60" s="13"/>
       <c r="V60" s="13"/>
       <c r="W60" s="16"/>
-      <c r="X60" s="66"/>
-      <c r="Y60" s="46"/>
+      <c r="X60" s="113"/>
+      <c r="Y60" s="43"/>
       <c r="Z60" s="16"/>
     </row>
     <row r="61" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="84"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="72"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="80"/>
       <c r="E61" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="63"/>
+      <c r="H61" s="57"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
@@ -4241,28 +4271,28 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
-      <c r="P61" s="63"/>
+      <c r="P61" s="57"/>
       <c r="Q61" s="13"/>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
-      <c r="T61" s="63"/>
+      <c r="T61" s="57"/>
       <c r="U61" s="13"/>
       <c r="V61" s="13"/>
       <c r="W61" s="16"/>
-      <c r="X61" s="66"/>
-      <c r="Y61" s="46"/>
+      <c r="X61" s="113"/>
+      <c r="Y61" s="43"/>
       <c r="Z61" s="16"/>
     </row>
     <row r="62" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B62" s="84"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="72"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="80"/>
       <c r="E62" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="63"/>
+      <c r="H62" s="57"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
@@ -4270,28 +4300,28 @@
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
-      <c r="P62" s="63"/>
+      <c r="P62" s="57"/>
       <c r="Q62" s="13"/>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
-      <c r="T62" s="63"/>
+      <c r="T62" s="57"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
       <c r="W62" s="16"/>
-      <c r="X62" s="66"/>
-      <c r="Y62" s="46"/>
+      <c r="X62" s="113"/>
+      <c r="Y62" s="43"/>
       <c r="Z62" s="16"/>
     </row>
     <row r="63" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="84"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="72"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="80"/>
       <c r="E63" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="63"/>
+      <c r="H63" s="57"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
@@ -4299,28 +4329,28 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
-      <c r="P63" s="63"/>
+      <c r="P63" s="57"/>
       <c r="Q63" s="13"/>
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
-      <c r="T63" s="63"/>
+      <c r="T63" s="57"/>
       <c r="U63" s="13"/>
       <c r="V63" s="13"/>
       <c r="W63" s="16"/>
-      <c r="X63" s="66"/>
-      <c r="Y63" s="46"/>
+      <c r="X63" s="113"/>
+      <c r="Y63" s="43"/>
       <c r="Z63" s="16"/>
     </row>
     <row r="64" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B64" s="84"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="72"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="80"/>
       <c r="E64" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="63"/>
+      <c r="H64" s="57"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
@@ -4328,28 +4358,28 @@
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
-      <c r="P64" s="63"/>
+      <c r="P64" s="57"/>
       <c r="Q64" s="13"/>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
-      <c r="T64" s="63"/>
+      <c r="T64" s="57"/>
       <c r="U64" s="13"/>
       <c r="V64" s="13"/>
       <c r="W64" s="16"/>
-      <c r="X64" s="66"/>
-      <c r="Y64" s="46"/>
+      <c r="X64" s="113"/>
+      <c r="Y64" s="43"/>
       <c r="Z64" s="16"/>
     </row>
     <row r="65" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B65" s="84"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="72"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="80"/>
       <c r="E65" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="64"/>
+      <c r="H65" s="62"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
@@ -4357,22 +4387,22 @@
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
-      <c r="P65" s="63"/>
+      <c r="P65" s="57"/>
       <c r="Q65" s="13"/>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
-      <c r="T65" s="63"/>
+      <c r="T65" s="57"/>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
       <c r="W65" s="16"/>
-      <c r="X65" s="66"/>
-      <c r="Y65" s="46"/>
+      <c r="X65" s="113"/>
+      <c r="Y65" s="43"/>
       <c r="Z65" s="16"/>
     </row>
     <row r="66" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B66" s="84"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="72"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="80"/>
       <c r="E66" s="17" t="s">
         <v>10</v>
       </c>
@@ -4386,22 +4416,22 @@
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
-      <c r="P66" s="63"/>
+      <c r="P66" s="57"/>
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
-      <c r="T66" s="63"/>
+      <c r="T66" s="57"/>
       <c r="U66" s="13"/>
       <c r="V66" s="13"/>
       <c r="W66" s="16"/>
-      <c r="X66" s="66"/>
-      <c r="Y66" s="46"/>
+      <c r="X66" s="113"/>
+      <c r="Y66" s="43"/>
       <c r="Z66" s="16"/>
     </row>
     <row r="67" spans="2:26" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="85"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="73"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="81"/>
       <c r="E67" s="19" t="s">
         <v>11</v>
       </c>
@@ -4415,60 +4445,60 @@
       <c r="M67" s="21"/>
       <c r="N67" s="21"/>
       <c r="O67" s="21"/>
-      <c r="P67" s="69"/>
+      <c r="P67" s="58"/>
       <c r="Q67" s="21"/>
       <c r="R67" s="21"/>
       <c r="S67" s="21"/>
-      <c r="T67" s="69"/>
+      <c r="T67" s="58"/>
       <c r="U67" s="21"/>
       <c r="V67" s="21"/>
       <c r="W67" s="22"/>
-      <c r="X67" s="66"/>
-      <c r="Y67" s="47"/>
+      <c r="X67" s="113"/>
+      <c r="Y67" s="44"/>
       <c r="Z67" s="22"/>
     </row>
     <row r="68" spans="2:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="74" t="s">
+      <c r="B68" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="77" t="s">
+      <c r="C68" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="78"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="59" t="s">
+      <c r="D68" s="106"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="61"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="90"/>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
-      <c r="Q68" s="48"/>
-      <c r="R68" s="48"/>
-      <c r="S68" s="48"/>
-      <c r="T68" s="49"/>
-      <c r="U68" s="49"/>
-      <c r="V68" s="49"/>
-      <c r="W68" s="50"/>
-      <c r="X68" s="66"/>
-      <c r="Y68" s="40"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="47"/>
+      <c r="X68" s="113"/>
+      <c r="Y68" s="37"/>
       <c r="Z68" s="4"/>
     </row>
     <row r="69" spans="2:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="75"/>
-      <c r="C69" s="62" t="s">
+      <c r="B69" s="87"/>
+      <c r="C69" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="70" t="s">
+      <c r="D69" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="70"/>
+      <c r="E69" s="78"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
@@ -4476,33 +4506,33 @@
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
-      <c r="M69" s="62" t="s">
+      <c r="M69" s="56" t="s">
         <v>84</v>
       </c>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
-      <c r="P69" s="62" t="s">
+      <c r="P69" s="56" t="s">
         <v>86</v>
       </c>
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
-      <c r="T69" s="62" t="s">
+      <c r="T69" s="56" t="s">
         <v>87</v>
       </c>
       <c r="U69" s="13"/>
-      <c r="V69" s="62" t="s">
+      <c r="V69" s="56" t="s">
         <v>84</v>
       </c>
       <c r="W69" s="16"/>
-      <c r="X69" s="66"/>
-      <c r="Y69" s="46"/>
+      <c r="X69" s="113"/>
+      <c r="Y69" s="43"/>
       <c r="Z69" s="16"/>
     </row>
     <row r="70" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B70" s="75"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="71" t="s">
+      <c r="B70" s="87"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="79" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="17" t="s">
@@ -4515,25 +4545,25 @@
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
-      <c r="M70" s="63"/>
+      <c r="M70" s="57"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
-      <c r="P70" s="63"/>
+      <c r="P70" s="57"/>
       <c r="Q70" s="13"/>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
-      <c r="T70" s="63"/>
+      <c r="T70" s="57"/>
       <c r="U70" s="13"/>
-      <c r="V70" s="63"/>
+      <c r="V70" s="57"/>
       <c r="W70" s="16"/>
-      <c r="X70" s="66"/>
-      <c r="Y70" s="46"/>
+      <c r="X70" s="113"/>
+      <c r="Y70" s="43"/>
       <c r="Z70" s="16"/>
     </row>
     <row r="71" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B71" s="75"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="72"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="80"/>
       <c r="E71" s="17" t="s">
         <v>5</v>
       </c>
@@ -4544,25 +4574,25 @@
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
-      <c r="M71" s="63"/>
+      <c r="M71" s="57"/>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
-      <c r="P71" s="63"/>
+      <c r="P71" s="57"/>
       <c r="Q71" s="13"/>
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
-      <c r="T71" s="63"/>
+      <c r="T71" s="57"/>
       <c r="U71" s="13"/>
-      <c r="V71" s="63"/>
+      <c r="V71" s="57"/>
       <c r="W71" s="16"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="46"/>
+      <c r="X71" s="113"/>
+      <c r="Y71" s="43"/>
       <c r="Z71" s="16"/>
     </row>
     <row r="72" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B72" s="75"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="72"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="80"/>
       <c r="E72" s="17" t="s">
         <v>6</v>
       </c>
@@ -4573,25 +4603,25 @@
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
-      <c r="M72" s="63"/>
+      <c r="M72" s="57"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
-      <c r="P72" s="63"/>
+      <c r="P72" s="57"/>
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
-      <c r="T72" s="63"/>
+      <c r="T72" s="57"/>
       <c r="U72" s="13"/>
-      <c r="V72" s="63"/>
+      <c r="V72" s="57"/>
       <c r="W72" s="16"/>
-      <c r="X72" s="66"/>
-      <c r="Y72" s="46"/>
+      <c r="X72" s="113"/>
+      <c r="Y72" s="43"/>
       <c r="Z72" s="16"/>
     </row>
     <row r="73" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B73" s="75"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="72"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="80"/>
       <c r="E73" s="17" t="s">
         <v>18</v>
       </c>
@@ -4602,25 +4632,25 @@
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
-      <c r="M73" s="63"/>
+      <c r="M73" s="57"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
-      <c r="P73" s="63"/>
+      <c r="P73" s="57"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
-      <c r="T73" s="63"/>
+      <c r="T73" s="57"/>
       <c r="U73" s="13"/>
-      <c r="V73" s="63"/>
+      <c r="V73" s="57"/>
       <c r="W73" s="16"/>
-      <c r="X73" s="66"/>
-      <c r="Y73" s="46"/>
+      <c r="X73" s="113"/>
+      <c r="Y73" s="43"/>
       <c r="Z73" s="16"/>
     </row>
     <row r="74" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B74" s="75"/>
-      <c r="C74" s="63"/>
-      <c r="D74" s="72"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="80"/>
       <c r="E74" s="17" t="s">
         <v>7</v>
       </c>
@@ -4631,25 +4661,25 @@
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
-      <c r="M74" s="63"/>
+      <c r="M74" s="57"/>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
-      <c r="P74" s="63"/>
+      <c r="P74" s="57"/>
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
-      <c r="T74" s="63"/>
+      <c r="T74" s="57"/>
       <c r="U74" s="13"/>
-      <c r="V74" s="63"/>
+      <c r="V74" s="57"/>
       <c r="W74" s="16"/>
-      <c r="X74" s="66"/>
-      <c r="Y74" s="46"/>
+      <c r="X74" s="113"/>
+      <c r="Y74" s="43"/>
       <c r="Z74" s="16"/>
     </row>
     <row r="75" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B75" s="75"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="72"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="80"/>
       <c r="E75" s="17" t="s">
         <v>8</v>
       </c>
@@ -4660,25 +4690,25 @@
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
-      <c r="M75" s="63"/>
+      <c r="M75" s="57"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
-      <c r="P75" s="63"/>
+      <c r="P75" s="57"/>
       <c r="Q75" s="13"/>
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
-      <c r="T75" s="63"/>
+      <c r="T75" s="57"/>
       <c r="U75" s="13"/>
-      <c r="V75" s="63"/>
+      <c r="V75" s="57"/>
       <c r="W75" s="16"/>
-      <c r="X75" s="66"/>
-      <c r="Y75" s="46"/>
+      <c r="X75" s="113"/>
+      <c r="Y75" s="43"/>
       <c r="Z75" s="16"/>
     </row>
     <row r="76" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B76" s="75"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="72"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="80"/>
       <c r="E76" s="17" t="s">
         <v>9</v>
       </c>
@@ -4689,25 +4719,25 @@
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
-      <c r="M76" s="63"/>
+      <c r="M76" s="57"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
-      <c r="P76" s="63"/>
+      <c r="P76" s="57"/>
       <c r="Q76" s="13"/>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
-      <c r="T76" s="63"/>
+      <c r="T76" s="57"/>
       <c r="U76" s="13"/>
-      <c r="V76" s="63"/>
+      <c r="V76" s="57"/>
       <c r="W76" s="16"/>
-      <c r="X76" s="66"/>
-      <c r="Y76" s="46"/>
+      <c r="X76" s="113"/>
+      <c r="Y76" s="43"/>
       <c r="Z76" s="16"/>
     </row>
     <row r="77" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B77" s="75"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="72"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="80"/>
       <c r="E77" s="17" t="s">
         <v>10</v>
       </c>
@@ -4718,25 +4748,25 @@
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
-      <c r="M77" s="63"/>
+      <c r="M77" s="57"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
-      <c r="P77" s="63"/>
+      <c r="P77" s="57"/>
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
-      <c r="T77" s="63"/>
+      <c r="T77" s="57"/>
       <c r="U77" s="13"/>
-      <c r="V77" s="63"/>
+      <c r="V77" s="57"/>
       <c r="W77" s="16"/>
-      <c r="X77" s="66"/>
-      <c r="Y77" s="46"/>
+      <c r="X77" s="113"/>
+      <c r="Y77" s="43"/>
       <c r="Z77" s="16"/>
     </row>
     <row r="78" spans="2:26" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="76"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="73"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="81"/>
       <c r="E78" s="19" t="s">
         <v>11</v>
       </c>
@@ -4747,68 +4777,47 @@
       <c r="J78" s="21"/>
       <c r="K78" s="21"/>
       <c r="L78" s="21"/>
-      <c r="M78" s="69"/>
+      <c r="M78" s="58"/>
       <c r="N78" s="21"/>
       <c r="O78" s="21"/>
-      <c r="P78" s="69"/>
+      <c r="P78" s="58"/>
       <c r="Q78" s="21"/>
       <c r="R78" s="21"/>
       <c r="S78" s="21"/>
-      <c r="T78" s="69"/>
+      <c r="T78" s="58"/>
       <c r="U78" s="21"/>
-      <c r="V78" s="69"/>
+      <c r="V78" s="58"/>
       <c r="W78" s="22"/>
-      <c r="X78" s="67"/>
-      <c r="Y78" s="47"/>
+      <c r="X78" s="114"/>
+      <c r="Y78" s="44"/>
       <c r="Z78" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="V69:V78"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="H58:H65"/>
-    <mergeCell ref="P58:P67"/>
-    <mergeCell ref="T58:T67"/>
-    <mergeCell ref="M69:M78"/>
-    <mergeCell ref="P69:P78"/>
-    <mergeCell ref="T69:T78"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="V6:V9"/>
-    <mergeCell ref="W6:W9"/>
-    <mergeCell ref="B16:B26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="V22:V26"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="V17:V20"/>
-    <mergeCell ref="W17:W20"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="AC18:AC20"/>
-    <mergeCell ref="AD18:AD20"/>
-    <mergeCell ref="AB22:AB26"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:D41"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="AA42:AG42"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="X57:X78"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="V11:V15"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AD6:AD9"/>
+    <mergeCell ref="AE17:AE26"/>
+    <mergeCell ref="T32:T39"/>
+    <mergeCell ref="T43:T50"/>
+    <mergeCell ref="W43:W52"/>
+    <mergeCell ref="X43:X52"/>
+    <mergeCell ref="AD43:AD52"/>
+    <mergeCell ref="C58:C67"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:D67"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:D78"/>
     <mergeCell ref="B55:E56"/>
     <mergeCell ref="B57:B67"/>
     <mergeCell ref="C57:E57"/>
@@ -4825,30 +4834,51 @@
     <mergeCell ref="J43:J52"/>
     <mergeCell ref="P43:P52"/>
     <mergeCell ref="Q43:Q52"/>
-    <mergeCell ref="C58:C67"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:D67"/>
-    <mergeCell ref="B68:B78"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:C78"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:D78"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="P33:P35"/>
-    <mergeCell ref="AA42:AG42"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="X57:X78"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="V11:V15"/>
-    <mergeCell ref="AC6:AC9"/>
-    <mergeCell ref="AD6:AD9"/>
-    <mergeCell ref="AE17:AE26"/>
-    <mergeCell ref="T32:T39"/>
-    <mergeCell ref="T43:T50"/>
-    <mergeCell ref="W43:W52"/>
-    <mergeCell ref="X43:X52"/>
-    <mergeCell ref="AD43:AD52"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="AC18:AC20"/>
+    <mergeCell ref="AD18:AD20"/>
+    <mergeCell ref="AB22:AB26"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="V6:V9"/>
+    <mergeCell ref="W6:W9"/>
+    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="V22:V26"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="V17:V20"/>
+    <mergeCell ref="W17:W20"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="V69:V78"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="H58:H65"/>
+    <mergeCell ref="P58:P67"/>
+    <mergeCell ref="T58:T67"/>
+    <mergeCell ref="M69:M78"/>
+    <mergeCell ref="P69:P78"/>
+    <mergeCell ref="T69:T78"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="X16:AD16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/마포구청 개발.디자인 진행 일정 및 내용_20210317_ver1.2.xlsx
+++ b/마포구청 개발.디자인 진행 일정 및 내용_20210317_ver1.2.xlsx
@@ -1237,6 +1237,150 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1246,13 +1390,40 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,188 +1435,17 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="30" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1720,7 +1720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1733,8 +1733,8 @@
   </sheetPr>
   <dimension ref="B2:AG78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18:AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
@@ -1771,12 +1771,12 @@
   <sheetData>
     <row r="2" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:33" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1863,10 +1863,10 @@
       </c>
     </row>
     <row r="4" spans="2:33" s="2" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="5">
         <v>44256</v>
       </c>
@@ -1953,45 +1953,45 @@
       </c>
     </row>
     <row r="5" spans="2:33" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="59" t="s">
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="75" t="s">
+      <c r="P5" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="76"/>
+      <c r="Q5" s="110"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="82" t="s">
+      <c r="T5" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="108" t="s">
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="109"/>
-      <c r="AA5" s="109"/>
-      <c r="AB5" s="110"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="61"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
@@ -1999,8 +1999,8 @@
       <c r="AG5" s="10"/>
     </row>
     <row r="6" spans="2:33" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="70"/>
-      <c r="C6" s="77" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="62" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="78" t="s">
@@ -2035,21 +2035,21 @@
       <c r="S6" s="49"/>
       <c r="T6" s="49"/>
       <c r="U6" s="49"/>
-      <c r="V6" s="85" t="s">
+      <c r="V6" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="W6" s="85" t="s">
+      <c r="W6" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="116"/>
-      <c r="AA6" s="117"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="56" t="s">
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" s="56" t="s">
+      <c r="AD6" s="69" t="s">
         <v>64</v>
       </c>
       <c r="AE6" s="13"/>
@@ -2057,7 +2057,7 @@
       <c r="AG6" s="16"/>
     </row>
     <row r="7" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="70"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="78"/>
       <c r="D7" s="79" t="s">
         <v>16</v>
@@ -2091,21 +2091,21 @@
       <c r="S7" s="49"/>
       <c r="T7" s="49"/>
       <c r="U7" s="49"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="121"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
       <c r="AG7" s="16"/>
     </row>
     <row r="8" spans="2:33" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="70"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="78"/>
       <c r="D8" s="80"/>
       <c r="E8" s="17" t="s">
@@ -2137,21 +2137,21 @@
       <c r="S8" s="49"/>
       <c r="T8" s="49"/>
       <c r="U8" s="49"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="121"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
       <c r="AE8" s="13"/>
       <c r="AF8" s="13"/>
       <c r="AG8" s="16"/>
     </row>
     <row r="9" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="70"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="78"/>
       <c r="D9" s="80"/>
       <c r="E9" s="17" t="s">
@@ -2183,21 +2183,21 @@
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
       <c r="U9" s="49"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="116"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="121"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="70"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="78"/>
       <c r="D10" s="80"/>
       <c r="E10" s="17" t="s">
@@ -2223,11 +2223,11 @@
       <c r="U10" s="49"/>
       <c r="V10" s="49"/>
       <c r="W10" s="49"/>
-      <c r="X10" s="116"/>
-      <c r="Y10" s="116"/>
-      <c r="Z10" s="116"/>
-      <c r="AA10" s="116"/>
-      <c r="AB10" s="13"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="121"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
@@ -2235,7 +2235,7 @@
       <c r="AG10" s="16"/>
     </row>
     <row r="11" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="70"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="78"/>
       <c r="D11" s="80"/>
       <c r="E11" s="17" t="s">
@@ -2257,15 +2257,15 @@
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
       <c r="U11" s="49"/>
-      <c r="V11" s="85" t="s">
+      <c r="V11" s="76" t="s">
         <v>101</v>
       </c>
       <c r="W11" s="49"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="116"/>
-      <c r="AB11" s="13"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="121"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
@@ -2273,7 +2273,7 @@
       <c r="AG11" s="16"/>
     </row>
     <row r="12" spans="2:33" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="70"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="78"/>
       <c r="D12" s="80"/>
       <c r="E12" s="17" t="s">
@@ -2295,15 +2295,15 @@
       <c r="S12" s="49"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
-      <c r="V12" s="85"/>
+      <c r="V12" s="76"/>
       <c r="W12" s="49"/>
-      <c r="X12" s="118" t="s">
+      <c r="X12" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="116"/>
-      <c r="AA12" s="116"/>
-      <c r="AB12" s="13"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="121"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="13"/>
@@ -2311,7 +2311,7 @@
       <c r="AG12" s="16"/>
     </row>
     <row r="13" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="70"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="78"/>
       <c r="D13" s="80"/>
       <c r="E13" s="17" t="s">
@@ -2333,13 +2333,13 @@
       <c r="S13" s="49"/>
       <c r="T13" s="49"/>
       <c r="U13" s="49"/>
-      <c r="V13" s="85"/>
+      <c r="V13" s="76"/>
       <c r="W13" s="49"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="116"/>
-      <c r="AA13" s="116"/>
-      <c r="AB13" s="13"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="121"/>
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="13"/>
@@ -2347,7 +2347,7 @@
       <c r="AG13" s="16"/>
     </row>
     <row r="14" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="70"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="78"/>
       <c r="D14" s="80"/>
       <c r="E14" s="17" t="s">
@@ -2369,13 +2369,13 @@
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
       <c r="U14" s="49"/>
-      <c r="V14" s="85"/>
+      <c r="V14" s="76"/>
       <c r="W14" s="49"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="116"/>
-      <c r="AB14" s="13"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="121"/>
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
       <c r="AE14" s="13"/>
@@ -2383,8 +2383,8 @@
       <c r="AG14" s="16"/>
     </row>
     <row r="15" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="71"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="81"/>
       <c r="E15" s="19" t="s">
         <v>11</v>
@@ -2405,13 +2405,13 @@
       <c r="S15" s="49"/>
       <c r="T15" s="49"/>
       <c r="U15" s="49"/>
-      <c r="V15" s="85"/>
+      <c r="V15" s="76"/>
       <c r="W15" s="49"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="116"/>
-      <c r="Z15" s="116"/>
-      <c r="AA15" s="116"/>
-      <c r="AB15" s="21"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="121"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="21"/>
       <c r="AE15" s="21"/>
@@ -2419,38 +2419,38 @@
       <c r="AG15" s="22"/>
     </row>
     <row r="16" spans="2:33" ht="107.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="59" t="s">
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
-      <c r="O16" s="89" t="s">
+      <c r="O16" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="91" t="s">
+      <c r="P16" s="68"/>
+      <c r="Q16" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="91"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="91"/>
-      <c r="W16" s="91"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
       <c r="X16" s="63" t="s">
         <v>109</v>
       </c>
@@ -2459,16 +2459,16 @@
       <c r="AA16" s="64"/>
       <c r="AB16" s="64"/>
       <c r="AC16" s="64"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="89" t="s">
+      <c r="AD16" s="120"/>
+      <c r="AE16" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="115"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="75"/>
     </row>
     <row r="17" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="87"/>
-      <c r="C17" s="77" t="s">
+      <c r="B17" s="83"/>
+      <c r="C17" s="62" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="78" t="s">
@@ -2507,29 +2507,29 @@
       <c r="S17" s="49"/>
       <c r="T17" s="49"/>
       <c r="U17" s="49"/>
-      <c r="V17" s="85" t="s">
+      <c r="V17" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="W17" s="85" t="s">
+      <c r="W17" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="X17" s="117" t="s">
+      <c r="X17" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="Y17" s="119"/>
-      <c r="Z17" s="119"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="13"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="53"/>
       <c r="AC17" s="13"/>
       <c r="AD17" s="14"/>
-      <c r="AE17" s="56" t="s">
+      <c r="AE17" s="69" t="s">
         <v>102</v>
       </c>
       <c r="AF17" s="13"/>
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="87"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="78"/>
       <c r="D18" s="79" t="s">
         <v>2</v>
@@ -2567,27 +2567,27 @@
       <c r="S18" s="49"/>
       <c r="T18" s="49"/>
       <c r="U18" s="49"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="120" t="s">
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="Y18" s="119"/>
-      <c r="Z18" s="119"/>
-      <c r="AA18" s="119"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="53" t="s">
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="AD18" s="53" t="s">
+      <c r="AD18" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="AE18" s="57"/>
+      <c r="AE18" s="70"/>
       <c r="AF18" s="13"/>
       <c r="AG18" s="16"/>
     </row>
     <row r="19" spans="2:33" ht="141.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="87"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="78"/>
       <c r="D19" s="80"/>
       <c r="E19" s="17" t="s">
@@ -2623,23 +2623,23 @@
       <c r="S19" s="49"/>
       <c r="T19" s="49"/>
       <c r="U19" s="49"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="120" t="s">
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="Y19" s="119"/>
-      <c r="Z19" s="119"/>
-      <c r="AA19" s="119"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="57"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="70"/>
       <c r="AF19" s="13"/>
       <c r="AG19" s="16"/>
     </row>
     <row r="20" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="87"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="78"/>
       <c r="D20" s="80"/>
       <c r="E20" s="17" t="s">
@@ -2675,23 +2675,23 @@
       <c r="S20" s="49"/>
       <c r="T20" s="49"/>
       <c r="U20" s="49"/>
-      <c r="V20" s="85"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="120" t="s">
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="Y20" s="119"/>
-      <c r="Z20" s="119"/>
-      <c r="AA20" s="119"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="57"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="103"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="70"/>
       <c r="AF20" s="13"/>
       <c r="AG20" s="16"/>
     </row>
     <row r="21" spans="2:33" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="87"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="78"/>
       <c r="D21" s="80"/>
       <c r="E21" s="17" t="s">
@@ -2721,21 +2721,21 @@
       <c r="U21" s="49"/>
       <c r="V21" s="49"/>
       <c r="W21" s="49"/>
-      <c r="X21" s="121" t="s">
+      <c r="X21" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Y21" s="119"/>
-      <c r="Z21" s="119"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="13"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="53"/>
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
-      <c r="AE21" s="57"/>
+      <c r="AE21" s="70"/>
       <c r="AF21" s="13"/>
       <c r="AG21" s="16"/>
     </row>
     <row r="22" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="87"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="78"/>
       <c r="D22" s="80"/>
       <c r="E22" s="17" t="s">
@@ -2761,27 +2761,27 @@
       <c r="S22" s="49"/>
       <c r="T22" s="49"/>
       <c r="U22" s="49"/>
-      <c r="V22" s="85" t="s">
+      <c r="V22" s="76" t="s">
         <v>101</v>
       </c>
       <c r="W22" s="49"/>
-      <c r="X22" s="120" t="s">
+      <c r="X22" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="Y22" s="119"/>
-      <c r="Z22" s="119"/>
-      <c r="AA22" s="119"/>
-      <c r="AB22" s="53" t="s">
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="119" t="s">
         <v>118</v>
       </c>
       <c r="AC22" s="13"/>
       <c r="AD22" s="13"/>
-      <c r="AE22" s="57"/>
+      <c r="AE22" s="70"/>
       <c r="AF22" s="13"/>
       <c r="AG22" s="16"/>
     </row>
     <row r="23" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="87"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="78"/>
       <c r="D23" s="80"/>
       <c r="E23" s="17" t="s">
@@ -2807,23 +2807,23 @@
       <c r="S23" s="49"/>
       <c r="T23" s="49"/>
       <c r="U23" s="49"/>
-      <c r="V23" s="85"/>
+      <c r="V23" s="76"/>
       <c r="W23" s="49"/>
-      <c r="X23" s="120" t="s">
+      <c r="X23" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="Y23" s="119"/>
-      <c r="Z23" s="119"/>
-      <c r="AA23" s="119"/>
-      <c r="AB23" s="92"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="122"/>
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
-      <c r="AE23" s="57"/>
+      <c r="AE23" s="70"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="16"/>
     </row>
     <row r="24" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="87"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="78"/>
       <c r="D24" s="80"/>
       <c r="E24" s="17" t="s">
@@ -2849,23 +2849,23 @@
       <c r="S24" s="49"/>
       <c r="T24" s="49"/>
       <c r="U24" s="49"/>
-      <c r="V24" s="85"/>
+      <c r="V24" s="76"/>
       <c r="W24" s="49"/>
-      <c r="X24" s="120" t="s">
+      <c r="X24" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="Y24" s="119"/>
-      <c r="Z24" s="119"/>
-      <c r="AA24" s="119"/>
-      <c r="AB24" s="92"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="122"/>
       <c r="AC24" s="13"/>
       <c r="AD24" s="13"/>
-      <c r="AE24" s="57"/>
+      <c r="AE24" s="70"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="16"/>
     </row>
     <row r="25" spans="2:33" ht="127.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="87"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="78"/>
       <c r="D25" s="80"/>
       <c r="E25" s="17" t="s">
@@ -2891,24 +2891,24 @@
       <c r="S25" s="49"/>
       <c r="T25" s="49"/>
       <c r="U25" s="49"/>
-      <c r="V25" s="85"/>
+      <c r="V25" s="76"/>
       <c r="W25" s="49"/>
-      <c r="X25" s="120" t="s">
+      <c r="X25" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="Y25" s="119"/>
-      <c r="Z25" s="119"/>
-      <c r="AA25" s="119"/>
-      <c r="AB25" s="92"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="122"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
-      <c r="AE25" s="57"/>
+      <c r="AE25" s="70"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="16"/>
     </row>
     <row r="26" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="88"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="81"/>
       <c r="E26" s="19" t="s">
         <v>11</v>
@@ -2933,29 +2933,29 @@
       <c r="S26" s="49"/>
       <c r="T26" s="49"/>
       <c r="U26" s="49"/>
-      <c r="V26" s="85"/>
+      <c r="V26" s="76"/>
       <c r="W26" s="49"/>
-      <c r="X26" s="122" t="s">
+      <c r="X26" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="119"/>
-      <c r="AA26" s="119"/>
-      <c r="AB26" s="93"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="122"/>
       <c r="AC26" s="21"/>
       <c r="AD26" s="21"/>
-      <c r="AE26" s="58"/>
+      <c r="AE26" s="77"/>
       <c r="AF26" s="21"/>
       <c r="AG26" s="22"/>
     </row>
     <row r="28" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="3" t="s">
         <v>30</v>
       </c>
@@ -3042,10 +3042,10 @@
       </c>
     </row>
     <row r="30" spans="2:33" s="2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
       <c r="F30" s="5">
         <v>44284</v>
       </c>
@@ -3132,27 +3132,27 @@
       </c>
     </row>
     <row r="31" spans="2:33" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="76" t="s">
+      <c r="D31" s="108"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76" t="s">
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="27"/>
@@ -3174,8 +3174,8 @@
       <c r="AG31" s="29"/>
     </row>
     <row r="32" spans="2:33" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="95"/>
-      <c r="C32" s="56" t="s">
+      <c r="B32" s="105"/>
+      <c r="C32" s="69" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="78" t="s">
@@ -3184,7 +3184,7 @@
       <c r="E32" s="78"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="56" t="s">
+      <c r="H32" s="69" t="s">
         <v>42</v>
       </c>
       <c r="I32" s="14" t="s">
@@ -3202,7 +3202,7 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="56" t="s">
+      <c r="T32" s="69" t="s">
         <v>52</v>
       </c>
       <c r="U32" s="13"/>
@@ -3220,8 +3220,8 @@
       <c r="AG32" s="16"/>
     </row>
     <row r="33" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="95"/>
-      <c r="C33" s="57"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="78" t="s">
         <v>16</v>
       </c>
@@ -3230,8 +3230,8 @@
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="56" t="s">
+      <c r="H33" s="70"/>
+      <c r="I33" s="69" t="s">
         <v>54</v>
       </c>
       <c r="J33" s="13"/>
@@ -3240,13 +3240,13 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
-      <c r="P33" s="77" t="s">
+      <c r="P33" s="62" t="s">
         <v>88</v>
       </c>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="57"/>
+      <c r="T33" s="70"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
@@ -3262,27 +3262,27 @@
       <c r="AG33" s="16"/>
     </row>
     <row r="34" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="95"/>
-      <c r="C34" s="57"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="78"/>
       <c r="E34" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
-      <c r="P34" s="77"/>
+      <c r="P34" s="62"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="57"/>
+      <c r="T34" s="70"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
@@ -3298,27 +3298,27 @@
       <c r="AG34" s="16"/>
     </row>
     <row r="35" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="95"/>
-      <c r="C35" s="57"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="78"/>
       <c r="E35" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="77"/>
+      <c r="P35" s="62"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="57"/>
+      <c r="T35" s="70"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
@@ -3334,8 +3334,8 @@
       <c r="AG35" s="16"/>
     </row>
     <row r="36" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="95"/>
-      <c r="C36" s="57"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="78"/>
       <c r="E36" s="17" t="s">
         <v>18</v>
@@ -3354,7 +3354,7 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="57"/>
+      <c r="T36" s="70"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
@@ -3370,8 +3370,8 @@
       <c r="AG36" s="16"/>
     </row>
     <row r="37" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="95"/>
-      <c r="C37" s="57"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="78"/>
       <c r="E37" s="17" t="s">
         <v>7</v>
@@ -3379,7 +3379,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="56" t="s">
+      <c r="I37" s="69" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="13"/>
@@ -3392,7 +3392,7 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
-      <c r="T37" s="57"/>
+      <c r="T37" s="70"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
       <c r="W37" s="13"/>
@@ -3408,8 +3408,8 @@
       <c r="AG37" s="16"/>
     </row>
     <row r="38" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="95"/>
-      <c r="C38" s="57"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="78"/>
       <c r="E38" s="17" t="s">
         <v>8</v>
@@ -3417,7 +3417,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="70"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -3428,7 +3428,7 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
-      <c r="T38" s="57"/>
+      <c r="T38" s="70"/>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
@@ -3444,8 +3444,8 @@
       <c r="AG38" s="16"/>
     </row>
     <row r="39" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="95"/>
-      <c r="C39" s="57"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="78"/>
       <c r="E39" s="17" t="s">
         <v>9</v>
@@ -3453,7 +3453,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="62"/>
+      <c r="I39" s="71"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -3464,7 +3464,7 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="62"/>
+      <c r="T39" s="71"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
@@ -3480,8 +3480,8 @@
       <c r="AG39" s="16"/>
     </row>
     <row r="40" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="95"/>
-      <c r="C40" s="57"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="78"/>
       <c r="E40" s="17" t="s">
         <v>10</v>
@@ -3516,8 +3516,8 @@
       <c r="AG40" s="16"/>
     </row>
     <row r="41" spans="2:33" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="96"/>
-      <c r="C41" s="58"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="77"/>
       <c r="D41" s="79"/>
       <c r="E41" s="31" t="s">
         <v>11</v>
@@ -3552,37 +3552,37 @@
       <c r="AG41" s="34"/>
     </row>
     <row r="42" spans="2:33" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="89" t="s">
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="89" t="s">
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="99"/>
-      <c r="O42" s="100"/>
-      <c r="P42" s="89" t="s">
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="99"/>
-      <c r="T42" s="99"/>
-      <c r="U42" s="99"/>
-      <c r="V42" s="100"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="96"/>
       <c r="W42" s="23"/>
       <c r="X42" s="23"/>
       <c r="Y42" s="23"/>
@@ -3595,11 +3595,11 @@
       <c r="AD42" s="64"/>
       <c r="AE42" s="64"/>
       <c r="AF42" s="64"/>
-      <c r="AG42" s="111"/>
+      <c r="AG42" s="65"/>
     </row>
     <row r="43" spans="2:33" ht="135" x14ac:dyDescent="0.3">
-      <c r="B43" s="102"/>
-      <c r="C43" s="56" t="s">
+      <c r="B43" s="98"/>
+      <c r="C43" s="69" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="78" t="s">
@@ -3608,13 +3608,13 @@
       <c r="E43" s="78"/>
       <c r="F43" s="35"/>
       <c r="G43" s="30"/>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="101" t="s">
         <v>117</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="56" t="s">
+      <c r="J43" s="69" t="s">
         <v>55</v>
       </c>
       <c r="K43" s="13"/>
@@ -3622,23 +3622,23 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
-      <c r="P43" s="56" t="s">
+      <c r="P43" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="Q43" s="56" t="s">
+      <c r="Q43" s="69" t="s">
         <v>58</v>
       </c>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
-      <c r="T43" s="56" t="s">
+      <c r="T43" s="69" t="s">
         <v>57</v>
       </c>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
-      <c r="W43" s="56" t="s">
+      <c r="W43" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="X43" s="56" t="s">
+      <c r="X43" s="69" t="s">
         <v>60</v>
       </c>
       <c r="Y43" s="13"/>
@@ -3646,7 +3646,7 @@
       <c r="AA43" s="35"/>
       <c r="AB43" s="30"/>
       <c r="AC43" s="13"/>
-      <c r="AD43" s="56" t="s">
+      <c r="AD43" s="69" t="s">
         <v>62</v>
       </c>
       <c r="AE43" s="13"/>
@@ -3654,8 +3654,8 @@
       <c r="AG43" s="16"/>
     </row>
     <row r="44" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="102"/>
-      <c r="C44" s="57"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="70"/>
       <c r="D44" s="78" t="s">
         <v>2</v>
       </c>
@@ -3664,110 +3664,110 @@
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="77" t="s">
+      <c r="H44" s="102"/>
+      <c r="I44" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="J44" s="57"/>
+      <c r="J44" s="70"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
-      <c r="T44" s="57"/>
+      <c r="T44" s="70"/>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="57"/>
+      <c r="W44" s="70"/>
+      <c r="X44" s="70"/>
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
       <c r="AC44" s="13"/>
-      <c r="AD44" s="57"/>
+      <c r="AD44" s="70"/>
       <c r="AE44" s="13"/>
       <c r="AF44" s="13"/>
       <c r="AG44" s="16"/>
     </row>
     <row r="45" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="102"/>
-      <c r="C45" s="57"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="78"/>
       <c r="E45" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="57"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="70"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="57"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="70"/>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
-      <c r="T45" s="57"/>
+      <c r="T45" s="70"/>
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
-      <c r="W45" s="57"/>
-      <c r="X45" s="57"/>
+      <c r="W45" s="70"/>
+      <c r="X45" s="70"/>
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="13"/>
-      <c r="AD45" s="57"/>
+      <c r="AD45" s="70"/>
       <c r="AE45" s="13"/>
       <c r="AF45" s="13"/>
       <c r="AG45" s="16"/>
     </row>
     <row r="46" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="102"/>
-      <c r="C46" s="57"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="78"/>
       <c r="E46" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="57"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="70"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
-      <c r="T46" s="57"/>
+      <c r="T46" s="70"/>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
-      <c r="W46" s="57"/>
-      <c r="X46" s="57"/>
+      <c r="W46" s="70"/>
+      <c r="X46" s="70"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="13"/>
       <c r="AC46" s="13"/>
-      <c r="AD46" s="57"/>
+      <c r="AD46" s="70"/>
       <c r="AE46" s="13"/>
       <c r="AF46" s="13"/>
       <c r="AG46" s="16"/>
     </row>
     <row r="47" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="102"/>
-      <c r="C47" s="57"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="70"/>
       <c r="D47" s="78"/>
       <c r="E47" s="17" t="s">
         <v>18</v>
@@ -3776,34 +3776,34 @@
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="57"/>
+      <c r="J47" s="70"/>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="57"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="70"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
-      <c r="T47" s="57"/>
+      <c r="T47" s="70"/>
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
-      <c r="W47" s="57"/>
-      <c r="X47" s="57"/>
+      <c r="W47" s="70"/>
+      <c r="X47" s="70"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
       <c r="AC47" s="13"/>
-      <c r="AD47" s="57"/>
+      <c r="AD47" s="70"/>
       <c r="AE47" s="13"/>
       <c r="AF47" s="13"/>
       <c r="AG47" s="16"/>
     </row>
     <row r="48" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="102"/>
-      <c r="C48" s="57"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="70"/>
       <c r="D48" s="78"/>
       <c r="E48" s="17" t="s">
         <v>7</v>
@@ -3811,37 +3811,37 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="56" t="s">
+      <c r="I48" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="57"/>
+      <c r="J48" s="70"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
-      <c r="T48" s="57"/>
+      <c r="T48" s="70"/>
       <c r="U48" s="13"/>
       <c r="V48" s="13"/>
-      <c r="W48" s="57"/>
-      <c r="X48" s="57"/>
+      <c r="W48" s="70"/>
+      <c r="X48" s="70"/>
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
       <c r="AB48" s="13"/>
       <c r="AC48" s="13"/>
-      <c r="AD48" s="57"/>
+      <c r="AD48" s="70"/>
       <c r="AE48" s="13"/>
       <c r="AF48" s="13"/>
       <c r="AG48" s="16"/>
     </row>
     <row r="49" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="102"/>
-      <c r="C49" s="57"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="78"/>
       <c r="E49" s="17" t="s">
         <v>8</v>
@@ -3849,35 +3849,35 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
-      <c r="T49" s="57"/>
+      <c r="T49" s="70"/>
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
+      <c r="W49" s="70"/>
+      <c r="X49" s="70"/>
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
       <c r="AB49" s="13"/>
       <c r="AC49" s="13"/>
-      <c r="AD49" s="57"/>
+      <c r="AD49" s="70"/>
       <c r="AE49" s="13"/>
       <c r="AF49" s="13"/>
       <c r="AG49" s="16"/>
     </row>
     <row r="50" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="102"/>
-      <c r="C50" s="57"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="70"/>
       <c r="D50" s="78"/>
       <c r="E50" s="17" t="s">
         <v>9</v>
@@ -3885,35 +3885,35 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="70"/>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
-      <c r="T50" s="62"/>
+      <c r="T50" s="71"/>
       <c r="U50" s="13"/>
       <c r="V50" s="13"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="57"/>
+      <c r="W50" s="70"/>
+      <c r="X50" s="70"/>
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
       <c r="AC50" s="13"/>
-      <c r="AD50" s="57"/>
+      <c r="AD50" s="70"/>
       <c r="AE50" s="13"/>
       <c r="AF50" s="13"/>
       <c r="AG50" s="16"/>
     </row>
     <row r="51" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="102"/>
-      <c r="C51" s="57"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="70"/>
       <c r="D51" s="78"/>
       <c r="E51" s="17" t="s">
         <v>10</v>
@@ -3921,76 +3921,76 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
       <c r="V51" s="13"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="57"/>
+      <c r="W51" s="70"/>
+      <c r="X51" s="70"/>
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
-      <c r="AD51" s="57"/>
+      <c r="AD51" s="70"/>
       <c r="AE51" s="13"/>
       <c r="AF51" s="13"/>
       <c r="AG51" s="16"/>
     </row>
     <row r="52" spans="2:33" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="103"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="69"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
-      <c r="P52" s="58"/>
-      <c r="Q52" s="58"/>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="77"/>
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
       <c r="T52" s="21"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
-      <c r="W52" s="58"/>
-      <c r="X52" s="58"/>
+      <c r="W52" s="77"/>
+      <c r="X52" s="77"/>
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
       <c r="AA52" s="21"/>
       <c r="AB52" s="21"/>
       <c r="AC52" s="21"/>
-      <c r="AD52" s="58"/>
+      <c r="AD52" s="77"/>
       <c r="AE52" s="21"/>
       <c r="AF52" s="21"/>
       <c r="AG52" s="22"/>
     </row>
     <row r="54" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="97" t="s">
+      <c r="B55" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
       <c r="F55" s="3" t="s">
         <v>30</v>
       </c>
@@ -4056,10 +4056,10 @@
       </c>
     </row>
     <row r="56" spans="2:33" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="68"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
       <c r="F56" s="5">
         <v>44312</v>
       </c>
@@ -4125,14 +4125,14 @@
       </c>
     </row>
     <row r="57" spans="2:33" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="98" t="s">
+      <c r="C57" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="98"/>
-      <c r="E57" s="98"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="9"/>
@@ -4151,15 +4151,15 @@
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
       <c r="W57" s="10"/>
-      <c r="X57" s="112" t="s">
+      <c r="X57" s="72" t="s">
         <v>63</v>
       </c>
       <c r="Y57" s="42"/>
       <c r="Z57" s="29"/>
     </row>
     <row r="58" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="70"/>
-      <c r="C58" s="56" t="s">
+      <c r="B58" s="92"/>
+      <c r="C58" s="69" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="78" t="s">
@@ -4168,7 +4168,7 @@
       <c r="E58" s="78"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="56" t="s">
+      <c r="H58" s="69" t="s">
         <v>61</v>
       </c>
       <c r="I58" s="13"/>
@@ -4178,25 +4178,25 @@
       <c r="M58" s="14"/>
       <c r="N58" s="13"/>
       <c r="O58" s="14"/>
-      <c r="P58" s="56" t="s">
+      <c r="P58" s="69" t="s">
         <v>86</v>
       </c>
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
-      <c r="T58" s="56" t="s">
+      <c r="T58" s="69" t="s">
         <v>85</v>
       </c>
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
       <c r="W58" s="16"/>
-      <c r="X58" s="113"/>
+      <c r="X58" s="73"/>
       <c r="Y58" s="43"/>
       <c r="Z58" s="16"/>
     </row>
     <row r="59" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="70"/>
-      <c r="C59" s="57"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="70"/>
       <c r="D59" s="79" t="s">
         <v>16</v>
       </c>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="57"/>
+      <c r="H59" s="70"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
@@ -4213,28 +4213,28 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
-      <c r="P59" s="57"/>
+      <c r="P59" s="70"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
-      <c r="T59" s="57"/>
+      <c r="T59" s="70"/>
       <c r="U59" s="13"/>
       <c r="V59" s="13"/>
       <c r="W59" s="16"/>
-      <c r="X59" s="113"/>
+      <c r="X59" s="73"/>
       <c r="Y59" s="43"/>
       <c r="Z59" s="16"/>
     </row>
     <row r="60" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="70"/>
-      <c r="C60" s="57"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="70"/>
       <c r="D60" s="80"/>
       <c r="E60" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="57"/>
+      <c r="H60" s="70"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -4242,28 +4242,28 @@
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
-      <c r="P60" s="57"/>
+      <c r="P60" s="70"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
-      <c r="T60" s="57"/>
+      <c r="T60" s="70"/>
       <c r="U60" s="13"/>
       <c r="V60" s="13"/>
       <c r="W60" s="16"/>
-      <c r="X60" s="113"/>
+      <c r="X60" s="73"/>
       <c r="Y60" s="43"/>
       <c r="Z60" s="16"/>
     </row>
     <row r="61" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="57"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="80"/>
       <c r="E61" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="57"/>
+      <c r="H61" s="70"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
@@ -4271,28 +4271,28 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
-      <c r="P61" s="57"/>
+      <c r="P61" s="70"/>
       <c r="Q61" s="13"/>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
-      <c r="T61" s="57"/>
+      <c r="T61" s="70"/>
       <c r="U61" s="13"/>
       <c r="V61" s="13"/>
       <c r="W61" s="16"/>
-      <c r="X61" s="113"/>
+      <c r="X61" s="73"/>
       <c r="Y61" s="43"/>
       <c r="Z61" s="16"/>
     </row>
     <row r="62" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
-      <c r="C62" s="57"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="80"/>
       <c r="E62" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="57"/>
+      <c r="H62" s="70"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
@@ -4300,28 +4300,28 @@
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
-      <c r="P62" s="57"/>
+      <c r="P62" s="70"/>
       <c r="Q62" s="13"/>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
-      <c r="T62" s="57"/>
+      <c r="T62" s="70"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
       <c r="W62" s="16"/>
-      <c r="X62" s="113"/>
+      <c r="X62" s="73"/>
       <c r="Y62" s="43"/>
       <c r="Z62" s="16"/>
     </row>
     <row r="63" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="70"/>
-      <c r="C63" s="57"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="70"/>
       <c r="D63" s="80"/>
       <c r="E63" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="57"/>
+      <c r="H63" s="70"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
@@ -4329,28 +4329,28 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
-      <c r="P63" s="57"/>
+      <c r="P63" s="70"/>
       <c r="Q63" s="13"/>
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
-      <c r="T63" s="57"/>
+      <c r="T63" s="70"/>
       <c r="U63" s="13"/>
       <c r="V63" s="13"/>
       <c r="W63" s="16"/>
-      <c r="X63" s="113"/>
+      <c r="X63" s="73"/>
       <c r="Y63" s="43"/>
       <c r="Z63" s="16"/>
     </row>
     <row r="64" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B64" s="70"/>
-      <c r="C64" s="57"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="70"/>
       <c r="D64" s="80"/>
       <c r="E64" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="57"/>
+      <c r="H64" s="70"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
@@ -4358,28 +4358,28 @@
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
-      <c r="P64" s="57"/>
+      <c r="P64" s="70"/>
       <c r="Q64" s="13"/>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
-      <c r="T64" s="57"/>
+      <c r="T64" s="70"/>
       <c r="U64" s="13"/>
       <c r="V64" s="13"/>
       <c r="W64" s="16"/>
-      <c r="X64" s="113"/>
+      <c r="X64" s="73"/>
       <c r="Y64" s="43"/>
       <c r="Z64" s="16"/>
     </row>
     <row r="65" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B65" s="70"/>
-      <c r="C65" s="57"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="80"/>
       <c r="E65" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="62"/>
+      <c r="H65" s="71"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
@@ -4387,21 +4387,21 @@
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
-      <c r="P65" s="57"/>
+      <c r="P65" s="70"/>
       <c r="Q65" s="13"/>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
-      <c r="T65" s="57"/>
+      <c r="T65" s="70"/>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
       <c r="W65" s="16"/>
-      <c r="X65" s="113"/>
+      <c r="X65" s="73"/>
       <c r="Y65" s="43"/>
       <c r="Z65" s="16"/>
     </row>
     <row r="66" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B66" s="70"/>
-      <c r="C66" s="57"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="70"/>
       <c r="D66" s="80"/>
       <c r="E66" s="17" t="s">
         <v>10</v>
@@ -4416,21 +4416,21 @@
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
-      <c r="P66" s="57"/>
+      <c r="P66" s="70"/>
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
-      <c r="T66" s="57"/>
+      <c r="T66" s="70"/>
       <c r="U66" s="13"/>
       <c r="V66" s="13"/>
       <c r="W66" s="16"/>
-      <c r="X66" s="113"/>
+      <c r="X66" s="73"/>
       <c r="Y66" s="43"/>
       <c r="Z66" s="16"/>
     </row>
     <row r="67" spans="2:26" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="71"/>
-      <c r="C67" s="58"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="77"/>
       <c r="D67" s="81"/>
       <c r="E67" s="19" t="s">
         <v>11</v>
@@ -4445,34 +4445,34 @@
       <c r="M67" s="21"/>
       <c r="N67" s="21"/>
       <c r="O67" s="21"/>
-      <c r="P67" s="58"/>
+      <c r="P67" s="77"/>
       <c r="Q67" s="21"/>
       <c r="R67" s="21"/>
       <c r="S67" s="21"/>
-      <c r="T67" s="58"/>
+      <c r="T67" s="77"/>
       <c r="U67" s="21"/>
       <c r="V67" s="21"/>
       <c r="W67" s="22"/>
-      <c r="X67" s="113"/>
+      <c r="X67" s="73"/>
       <c r="Y67" s="44"/>
       <c r="Z67" s="22"/>
     </row>
     <row r="68" spans="2:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="86" t="s">
+      <c r="B68" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="105" t="s">
+      <c r="C68" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="106"/>
-      <c r="E68" s="107"/>
-      <c r="F68" s="89" t="s">
+      <c r="D68" s="86"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="G68" s="104"/>
-      <c r="H68" s="104"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="90"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="68"/>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
       <c r="M68" s="45"/>
@@ -4486,13 +4486,13 @@
       <c r="U68" s="46"/>
       <c r="V68" s="46"/>
       <c r="W68" s="47"/>
-      <c r="X68" s="113"/>
+      <c r="X68" s="73"/>
       <c r="Y68" s="37"/>
       <c r="Z68" s="4"/>
     </row>
     <row r="69" spans="2:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="87"/>
-      <c r="C69" s="56" t="s">
+      <c r="B69" s="83"/>
+      <c r="C69" s="69" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="78" t="s">
@@ -4506,32 +4506,32 @@
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
-      <c r="M69" s="56" t="s">
+      <c r="M69" s="69" t="s">
         <v>84</v>
       </c>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
-      <c r="P69" s="56" t="s">
+      <c r="P69" s="69" t="s">
         <v>86</v>
       </c>
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
-      <c r="T69" s="56" t="s">
+      <c r="T69" s="69" t="s">
         <v>87</v>
       </c>
       <c r="U69" s="13"/>
-      <c r="V69" s="56" t="s">
+      <c r="V69" s="69" t="s">
         <v>84</v>
       </c>
       <c r="W69" s="16"/>
-      <c r="X69" s="113"/>
+      <c r="X69" s="73"/>
       <c r="Y69" s="43"/>
       <c r="Z69" s="16"/>
     </row>
     <row r="70" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B70" s="87"/>
-      <c r="C70" s="57"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="70"/>
       <c r="D70" s="79" t="s">
         <v>2</v>
       </c>
@@ -4545,24 +4545,24 @@
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
-      <c r="M70" s="57"/>
+      <c r="M70" s="70"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
-      <c r="P70" s="57"/>
+      <c r="P70" s="70"/>
       <c r="Q70" s="13"/>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
-      <c r="T70" s="57"/>
+      <c r="T70" s="70"/>
       <c r="U70" s="13"/>
-      <c r="V70" s="57"/>
+      <c r="V70" s="70"/>
       <c r="W70" s="16"/>
-      <c r="X70" s="113"/>
+      <c r="X70" s="73"/>
       <c r="Y70" s="43"/>
       <c r="Z70" s="16"/>
     </row>
     <row r="71" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B71" s="87"/>
-      <c r="C71" s="57"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="70"/>
       <c r="D71" s="80"/>
       <c r="E71" s="17" t="s">
         <v>5</v>
@@ -4574,24 +4574,24 @@
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
-      <c r="M71" s="57"/>
+      <c r="M71" s="70"/>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
-      <c r="P71" s="57"/>
+      <c r="P71" s="70"/>
       <c r="Q71" s="13"/>
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
-      <c r="T71" s="57"/>
+      <c r="T71" s="70"/>
       <c r="U71" s="13"/>
-      <c r="V71" s="57"/>
+      <c r="V71" s="70"/>
       <c r="W71" s="16"/>
-      <c r="X71" s="113"/>
+      <c r="X71" s="73"/>
       <c r="Y71" s="43"/>
       <c r="Z71" s="16"/>
     </row>
     <row r="72" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B72" s="87"/>
-      <c r="C72" s="57"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="70"/>
       <c r="D72" s="80"/>
       <c r="E72" s="17" t="s">
         <v>6</v>
@@ -4603,24 +4603,24 @@
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
-      <c r="M72" s="57"/>
+      <c r="M72" s="70"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
-      <c r="P72" s="57"/>
+      <c r="P72" s="70"/>
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
-      <c r="T72" s="57"/>
+      <c r="T72" s="70"/>
       <c r="U72" s="13"/>
-      <c r="V72" s="57"/>
+      <c r="V72" s="70"/>
       <c r="W72" s="16"/>
-      <c r="X72" s="113"/>
+      <c r="X72" s="73"/>
       <c r="Y72" s="43"/>
       <c r="Z72" s="16"/>
     </row>
     <row r="73" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B73" s="87"/>
-      <c r="C73" s="57"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="70"/>
       <c r="D73" s="80"/>
       <c r="E73" s="17" t="s">
         <v>18</v>
@@ -4632,24 +4632,24 @@
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
-      <c r="M73" s="57"/>
+      <c r="M73" s="70"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
-      <c r="P73" s="57"/>
+      <c r="P73" s="70"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
-      <c r="T73" s="57"/>
+      <c r="T73" s="70"/>
       <c r="U73" s="13"/>
-      <c r="V73" s="57"/>
+      <c r="V73" s="70"/>
       <c r="W73" s="16"/>
-      <c r="X73" s="113"/>
+      <c r="X73" s="73"/>
       <c r="Y73" s="43"/>
       <c r="Z73" s="16"/>
     </row>
     <row r="74" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B74" s="87"/>
-      <c r="C74" s="57"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="70"/>
       <c r="D74" s="80"/>
       <c r="E74" s="17" t="s">
         <v>7</v>
@@ -4661,24 +4661,24 @@
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
-      <c r="M74" s="57"/>
+      <c r="M74" s="70"/>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
-      <c r="P74" s="57"/>
+      <c r="P74" s="70"/>
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
-      <c r="T74" s="57"/>
+      <c r="T74" s="70"/>
       <c r="U74" s="13"/>
-      <c r="V74" s="57"/>
+      <c r="V74" s="70"/>
       <c r="W74" s="16"/>
-      <c r="X74" s="113"/>
+      <c r="X74" s="73"/>
       <c r="Y74" s="43"/>
       <c r="Z74" s="16"/>
     </row>
     <row r="75" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B75" s="87"/>
-      <c r="C75" s="57"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="70"/>
       <c r="D75" s="80"/>
       <c r="E75" s="17" t="s">
         <v>8</v>
@@ -4690,24 +4690,24 @@
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
-      <c r="M75" s="57"/>
+      <c r="M75" s="70"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
-      <c r="P75" s="57"/>
+      <c r="P75" s="70"/>
       <c r="Q75" s="13"/>
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
-      <c r="T75" s="57"/>
+      <c r="T75" s="70"/>
       <c r="U75" s="13"/>
-      <c r="V75" s="57"/>
+      <c r="V75" s="70"/>
       <c r="W75" s="16"/>
-      <c r="X75" s="113"/>
+      <c r="X75" s="73"/>
       <c r="Y75" s="43"/>
       <c r="Z75" s="16"/>
     </row>
     <row r="76" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B76" s="87"/>
-      <c r="C76" s="57"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="70"/>
       <c r="D76" s="80"/>
       <c r="E76" s="17" t="s">
         <v>9</v>
@@ -4719,24 +4719,24 @@
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
-      <c r="M76" s="57"/>
+      <c r="M76" s="70"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
-      <c r="P76" s="57"/>
+      <c r="P76" s="70"/>
       <c r="Q76" s="13"/>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
-      <c r="T76" s="57"/>
+      <c r="T76" s="70"/>
       <c r="U76" s="13"/>
-      <c r="V76" s="57"/>
+      <c r="V76" s="70"/>
       <c r="W76" s="16"/>
-      <c r="X76" s="113"/>
+      <c r="X76" s="73"/>
       <c r="Y76" s="43"/>
       <c r="Z76" s="16"/>
     </row>
     <row r="77" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B77" s="87"/>
-      <c r="C77" s="57"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="70"/>
       <c r="D77" s="80"/>
       <c r="E77" s="17" t="s">
         <v>10</v>
@@ -4748,24 +4748,24 @@
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
-      <c r="M77" s="57"/>
+      <c r="M77" s="70"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
-      <c r="P77" s="57"/>
+      <c r="P77" s="70"/>
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
-      <c r="T77" s="57"/>
+      <c r="T77" s="70"/>
       <c r="U77" s="13"/>
-      <c r="V77" s="57"/>
+      <c r="V77" s="70"/>
       <c r="W77" s="16"/>
-      <c r="X77" s="113"/>
+      <c r="X77" s="73"/>
       <c r="Y77" s="43"/>
       <c r="Z77" s="16"/>
     </row>
     <row r="78" spans="2:26" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="88"/>
-      <c r="C78" s="58"/>
+      <c r="B78" s="84"/>
+      <c r="C78" s="77"/>
       <c r="D78" s="81"/>
       <c r="E78" s="19" t="s">
         <v>11</v>
@@ -4777,23 +4777,92 @@
       <c r="J78" s="21"/>
       <c r="K78" s="21"/>
       <c r="L78" s="21"/>
-      <c r="M78" s="58"/>
+      <c r="M78" s="77"/>
       <c r="N78" s="21"/>
       <c r="O78" s="21"/>
-      <c r="P78" s="58"/>
+      <c r="P78" s="77"/>
       <c r="Q78" s="21"/>
       <c r="R78" s="21"/>
       <c r="S78" s="21"/>
-      <c r="T78" s="58"/>
+      <c r="T78" s="77"/>
       <c r="U78" s="21"/>
-      <c r="V78" s="58"/>
+      <c r="V78" s="77"/>
       <c r="W78" s="22"/>
-      <c r="X78" s="114"/>
+      <c r="X78" s="74"/>
       <c r="Y78" s="44"/>
       <c r="Z78" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="V69:V78"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="H58:H65"/>
+    <mergeCell ref="P58:P67"/>
+    <mergeCell ref="T58:T67"/>
+    <mergeCell ref="M69:M78"/>
+    <mergeCell ref="P69:P78"/>
+    <mergeCell ref="T69:T78"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="V6:V9"/>
+    <mergeCell ref="W6:W9"/>
+    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="V22:V26"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="V17:V20"/>
+    <mergeCell ref="W17:W20"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="AC18:AC20"/>
+    <mergeCell ref="AD18:AD20"/>
+    <mergeCell ref="AB22:AB26"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="B55:E56"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="P42:V42"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:D52"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="I48:I52"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="J43:J52"/>
+    <mergeCell ref="P43:P52"/>
+    <mergeCell ref="Q43:Q52"/>
+    <mergeCell ref="C58:C67"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:D67"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:D78"/>
     <mergeCell ref="X5:AB5"/>
     <mergeCell ref="P33:P35"/>
     <mergeCell ref="AA42:AG42"/>
@@ -4810,75 +4879,6 @@
     <mergeCell ref="W43:W52"/>
     <mergeCell ref="X43:X52"/>
     <mergeCell ref="AD43:AD52"/>
-    <mergeCell ref="C58:C67"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:D67"/>
-    <mergeCell ref="B68:B78"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:C78"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:D78"/>
-    <mergeCell ref="B55:E56"/>
-    <mergeCell ref="B57:B67"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="P42:V42"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:D52"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="I48:I52"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="J43:J52"/>
-    <mergeCell ref="P43:P52"/>
-    <mergeCell ref="Q43:Q52"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="AC18:AC20"/>
-    <mergeCell ref="AD18:AD20"/>
-    <mergeCell ref="AB22:AB26"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:D41"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="V6:V9"/>
-    <mergeCell ref="W6:W9"/>
-    <mergeCell ref="B16:B26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="V22:V26"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="V17:V20"/>
-    <mergeCell ref="W17:W20"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="V69:V78"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="H58:H65"/>
-    <mergeCell ref="P58:P67"/>
-    <mergeCell ref="T58:T67"/>
-    <mergeCell ref="M69:M78"/>
-    <mergeCell ref="P69:P78"/>
-    <mergeCell ref="T69:T78"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="X16:AD16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/마포구청 개발.디자인 진행 일정 및 내용_20210317_ver1.2.xlsx
+++ b/마포구청 개발.디자인 진행 일정 및 내용_20210317_ver1.2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skplanet\Gnoss-song\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="9750"/>
   </bookViews>
@@ -1077,7 +1082,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1255,44 +1260,185 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="30" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1306,146 +1452,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="30" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1720,7 +1728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1733,8 +1741,8 @@
   </sheetPr>
   <dimension ref="B2:AG78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18:AC20"/>
+    <sheetView tabSelected="1" topLeftCell="H11" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17:AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
@@ -1771,12 +1779,12 @@
   <sheetData>
     <row r="2" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:33" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1863,10 +1871,10 @@
       </c>
     </row>
     <row r="4" spans="2:33" s="2" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="90"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="5">
         <v>44256</v>
       </c>
@@ -1952,61 +1960,61 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="92" t="s">
+    <row r="5" spans="2:33" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="116" t="s">
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="115" t="s">
+      <c r="P5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="110"/>
+      <c r="Q5" s="84"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="111" t="s">
+      <c r="T5" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="59" t="s">
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="9"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="53"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="10"/>
     </row>
     <row r="6" spans="2:33" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="92"/>
-      <c r="C6" s="62" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="78"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
         <v>65</v>
@@ -2035,21 +2043,21 @@
       <c r="S6" s="49"/>
       <c r="T6" s="49"/>
       <c r="U6" s="49"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="W6" s="76" t="s">
+      <c r="W6" s="93" t="s">
         <v>92</v>
       </c>
       <c r="X6" s="53"/>
       <c r="Y6" s="53"/>
       <c r="Z6" s="53"/>
       <c r="AA6" s="54"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="69" t="s">
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" s="69" t="s">
+      <c r="AD6" s="61" t="s">
         <v>64</v>
       </c>
       <c r="AE6" s="13"/>
@@ -2057,9 +2065,9 @@
       <c r="AG6" s="16"/>
     </row>
     <row r="7" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="92"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -2091,23 +2099,23 @@
       <c r="S7" s="49"/>
       <c r="T7" s="49"/>
       <c r="U7" s="49"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
       <c r="X7" s="53"/>
       <c r="Y7" s="53"/>
       <c r="Z7" s="53"/>
       <c r="AA7" s="53"/>
-      <c r="AB7" s="121"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="62"/>
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
       <c r="AG7" s="16"/>
     </row>
     <row r="8" spans="2:33" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="92"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="80"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="17" t="s">
         <v>5</v>
       </c>
@@ -2137,23 +2145,23 @@
       <c r="S8" s="49"/>
       <c r="T8" s="49"/>
       <c r="U8" s="49"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
       <c r="X8" s="53"/>
       <c r="Y8" s="53"/>
       <c r="Z8" s="53"/>
       <c r="AA8" s="53"/>
-      <c r="AB8" s="121"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="123"/>
+      <c r="AD8" s="62"/>
       <c r="AE8" s="13"/>
       <c r="AF8" s="13"/>
       <c r="AG8" s="16"/>
     </row>
     <row r="9" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="92"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="80"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="17" t="s">
         <v>6</v>
       </c>
@@ -2183,23 +2191,23 @@
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
       <c r="U9" s="49"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
       <c r="X9" s="53"/>
       <c r="Y9" s="53"/>
       <c r="Z9" s="53"/>
       <c r="AA9" s="53"/>
-      <c r="AB9" s="121"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="67"/>
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="92"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="17" t="s">
         <v>18</v>
       </c>
@@ -2227,17 +2235,17 @@
       <c r="Y10" s="53"/>
       <c r="Z10" s="53"/>
       <c r="AA10" s="53"/>
-      <c r="AB10" s="121"/>
-      <c r="AC10" s="13"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="55"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
       <c r="AG10" s="16"/>
     </row>
     <row r="11" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="92"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="80"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="17" t="s">
         <v>7</v>
       </c>
@@ -2257,7 +2265,7 @@
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
       <c r="U11" s="49"/>
-      <c r="V11" s="76" t="s">
+      <c r="V11" s="93" t="s">
         <v>101</v>
       </c>
       <c r="W11" s="49"/>
@@ -2265,17 +2273,17 @@
       <c r="Y11" s="53"/>
       <c r="Z11" s="53"/>
       <c r="AA11" s="53"/>
-      <c r="AB11" s="121"/>
-      <c r="AC11" s="13"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="55"/>
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
       <c r="AG11" s="16"/>
     </row>
     <row r="12" spans="2:33" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="92"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="80"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="88"/>
       <c r="E12" s="17" t="s">
         <v>8</v>
       </c>
@@ -2295,25 +2303,25 @@
       <c r="S12" s="49"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
-      <c r="V12" s="76"/>
+      <c r="V12" s="93"/>
       <c r="W12" s="49"/>
-      <c r="X12" s="119" t="s">
+      <c r="X12" s="60" t="s">
         <v>119</v>
       </c>
       <c r="Y12" s="53"/>
       <c r="Z12" s="53"/>
       <c r="AA12" s="53"/>
-      <c r="AB12" s="121"/>
-      <c r="AC12" s="13"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="55"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="13"/>
       <c r="AF12" s="13"/>
       <c r="AG12" s="16"/>
     </row>
     <row r="13" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="92"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="80"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="88"/>
       <c r="E13" s="17" t="s">
         <v>9</v>
       </c>
@@ -2333,23 +2341,23 @@
       <c r="S13" s="49"/>
       <c r="T13" s="49"/>
       <c r="U13" s="49"/>
-      <c r="V13" s="76"/>
+      <c r="V13" s="93"/>
       <c r="W13" s="49"/>
-      <c r="X13" s="119"/>
+      <c r="X13" s="60"/>
       <c r="Y13" s="53"/>
       <c r="Z13" s="53"/>
       <c r="AA13" s="53"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="13"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="55"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
       <c r="AG13" s="16"/>
     </row>
     <row r="14" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="92"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="80"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="17" t="s">
         <v>10</v>
       </c>
@@ -2369,23 +2377,23 @@
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
       <c r="U14" s="49"/>
-      <c r="V14" s="76"/>
+      <c r="V14" s="93"/>
       <c r="W14" s="49"/>
-      <c r="X14" s="119"/>
+      <c r="X14" s="60"/>
       <c r="Y14" s="53"/>
       <c r="Z14" s="53"/>
       <c r="AA14" s="53"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="13"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="55"/>
       <c r="AD14" s="13"/>
       <c r="AE14" s="13"/>
       <c r="AF14" s="13"/>
       <c r="AG14" s="16"/>
     </row>
     <row r="15" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="93"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="81"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="19" t="s">
         <v>11</v>
       </c>
@@ -2405,76 +2413,76 @@
       <c r="S15" s="49"/>
       <c r="T15" s="49"/>
       <c r="U15" s="49"/>
-      <c r="V15" s="76"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="49"/>
       <c r="X15" s="53"/>
       <c r="Y15" s="53"/>
       <c r="Z15" s="53"/>
       <c r="AA15" s="53"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="21"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="55"/>
       <c r="AD15" s="21"/>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
       <c r="AG15" s="22"/>
     </row>
     <row r="16" spans="2:33" ht="107.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="116" t="s">
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
-      <c r="O16" s="66" t="s">
+      <c r="O16" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="114" t="s">
+      <c r="P16" s="98"/>
+      <c r="Q16" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="R16" s="114"/>
-      <c r="S16" s="114"/>
-      <c r="T16" s="114"/>
-      <c r="U16" s="114"/>
-      <c r="V16" s="114"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="63" t="s">
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="120"/>
-      <c r="AE16" s="66" t="s">
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="75"/>
+      <c r="AF16" s="111"/>
+      <c r="AG16" s="122"/>
     </row>
     <row r="17" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="83"/>
-      <c r="C17" s="62" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="78"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="18"/>
       <c r="G17" s="11" t="s">
         <v>65</v>
@@ -2507,10 +2515,10 @@
       <c r="S17" s="49"/>
       <c r="T17" s="49"/>
       <c r="U17" s="49"/>
-      <c r="V17" s="76" t="s">
+      <c r="V17" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="W17" s="76" t="s">
+      <c r="W17" s="93" t="s">
         <v>92</v>
       </c>
       <c r="X17" s="54" t="s">
@@ -2520,18 +2528,18 @@
       <c r="Z17" s="55"/>
       <c r="AA17" s="54"/>
       <c r="AB17" s="53"/>
-      <c r="AC17" s="13"/>
+      <c r="AC17" s="53"/>
       <c r="AD17" s="14"/>
-      <c r="AE17" s="69" t="s">
+      <c r="AE17" s="61" t="s">
         <v>102</v>
       </c>
       <c r="AF17" s="13"/>
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="83"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79" t="s">
+      <c r="B18" s="95"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="17" t="s">
@@ -2567,8 +2575,8 @@
       <c r="S18" s="49"/>
       <c r="T18" s="49"/>
       <c r="U18" s="49"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
       <c r="X18" s="56" t="s">
         <v>103</v>
       </c>
@@ -2576,20 +2584,20 @@
       <c r="Z18" s="55"/>
       <c r="AA18" s="55"/>
       <c r="AB18" s="53"/>
-      <c r="AC18" s="101" t="s">
+      <c r="AC18" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="AD18" s="101" t="s">
+      <c r="AD18" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="AE18" s="70"/>
+      <c r="AE18" s="62"/>
       <c r="AF18" s="13"/>
       <c r="AG18" s="16"/>
     </row>
     <row r="19" spans="2:33" ht="141.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="83"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="80"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="17" t="s">
         <v>5</v>
       </c>
@@ -2623,8 +2631,8 @@
       <c r="S19" s="49"/>
       <c r="T19" s="49"/>
       <c r="U19" s="49"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
       <c r="X19" s="56" t="s">
         <v>104</v>
       </c>
@@ -2632,16 +2640,16 @@
       <c r="Z19" s="55"/>
       <c r="AA19" s="55"/>
       <c r="AB19" s="53"/>
-      <c r="AC19" s="102"/>
-      <c r="AD19" s="102"/>
-      <c r="AE19" s="70"/>
+      <c r="AC19" s="123"/>
+      <c r="AD19" s="69"/>
+      <c r="AE19" s="62"/>
       <c r="AF19" s="13"/>
       <c r="AG19" s="16"/>
     </row>
     <row r="20" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="83"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="80"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="17" t="s">
         <v>6</v>
       </c>
@@ -2675,8 +2683,8 @@
       <c r="S20" s="49"/>
       <c r="T20" s="49"/>
       <c r="U20" s="49"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
       <c r="X20" s="56" t="s">
         <v>105</v>
       </c>
@@ -2684,16 +2692,16 @@
       <c r="Z20" s="55"/>
       <c r="AA20" s="55"/>
       <c r="AB20" s="53"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="70"/>
+      <c r="AC20" s="123"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="62"/>
       <c r="AF20" s="13"/>
       <c r="AG20" s="16"/>
     </row>
     <row r="21" spans="2:33" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="83"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="80"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="17" t="s">
         <v>18</v>
       </c>
@@ -2728,16 +2736,16 @@
       <c r="Z21" s="55"/>
       <c r="AA21" s="57"/>
       <c r="AB21" s="53"/>
-      <c r="AC21" s="13"/>
+      <c r="AC21" s="55"/>
       <c r="AD21" s="13"/>
-      <c r="AE21" s="70"/>
+      <c r="AE21" s="62"/>
       <c r="AF21" s="13"/>
       <c r="AG21" s="16"/>
     </row>
     <row r="22" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="83"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="80"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="17" t="s">
         <v>7</v>
       </c>
@@ -2761,7 +2769,7 @@
       <c r="S22" s="49"/>
       <c r="T22" s="49"/>
       <c r="U22" s="49"/>
-      <c r="V22" s="76" t="s">
+      <c r="V22" s="93" t="s">
         <v>101</v>
       </c>
       <c r="W22" s="49"/>
@@ -2771,19 +2779,19 @@
       <c r="Y22" s="55"/>
       <c r="Z22" s="55"/>
       <c r="AA22" s="55"/>
-      <c r="AB22" s="119" t="s">
+      <c r="AB22" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="AC22" s="13"/>
+      <c r="AC22" s="55"/>
       <c r="AD22" s="13"/>
-      <c r="AE22" s="70"/>
+      <c r="AE22" s="62"/>
       <c r="AF22" s="13"/>
       <c r="AG22" s="16"/>
     </row>
     <row r="23" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="83"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="80"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="17" t="s">
         <v>8</v>
       </c>
@@ -2807,7 +2815,7 @@
       <c r="S23" s="49"/>
       <c r="T23" s="49"/>
       <c r="U23" s="49"/>
-      <c r="V23" s="76"/>
+      <c r="V23" s="93"/>
       <c r="W23" s="49"/>
       <c r="X23" s="56" t="s">
         <v>48</v>
@@ -2815,17 +2823,17 @@
       <c r="Y23" s="55"/>
       <c r="Z23" s="55"/>
       <c r="AA23" s="55"/>
-      <c r="AB23" s="122"/>
-      <c r="AC23" s="13"/>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="55"/>
       <c r="AD23" s="13"/>
-      <c r="AE23" s="70"/>
+      <c r="AE23" s="62"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="16"/>
     </row>
     <row r="24" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="83"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="80"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="17" t="s">
         <v>9</v>
       </c>
@@ -2849,7 +2857,7 @@
       <c r="S24" s="49"/>
       <c r="T24" s="49"/>
       <c r="U24" s="49"/>
-      <c r="V24" s="76"/>
+      <c r="V24" s="93"/>
       <c r="W24" s="49"/>
       <c r="X24" s="56" t="s">
         <v>107</v>
@@ -2857,17 +2865,17 @@
       <c r="Y24" s="55"/>
       <c r="Z24" s="55"/>
       <c r="AA24" s="55"/>
-      <c r="AB24" s="122"/>
-      <c r="AC24" s="13"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="55"/>
       <c r="AD24" s="13"/>
-      <c r="AE24" s="70"/>
+      <c r="AE24" s="62"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="16"/>
     </row>
     <row r="25" spans="2:33" ht="127.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="83"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="80"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="17" t="s">
         <v>10</v>
       </c>
@@ -2891,7 +2899,7 @@
       <c r="S25" s="49"/>
       <c r="T25" s="49"/>
       <c r="U25" s="49"/>
-      <c r="V25" s="76"/>
+      <c r="V25" s="93"/>
       <c r="W25" s="49"/>
       <c r="X25" s="56" t="s">
         <v>49</v>
@@ -2899,17 +2907,17 @@
       <c r="Y25" s="55"/>
       <c r="Z25" s="55"/>
       <c r="AA25" s="55"/>
-      <c r="AB25" s="122"/>
-      <c r="AC25" s="13"/>
+      <c r="AB25" s="100"/>
+      <c r="AC25" s="55"/>
       <c r="AD25" s="13"/>
-      <c r="AE25" s="70"/>
+      <c r="AE25" s="62"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="16"/>
     </row>
     <row r="26" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="84"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="81"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="19" t="s">
         <v>11</v>
       </c>
@@ -2933,7 +2941,7 @@
       <c r="S26" s="49"/>
       <c r="T26" s="49"/>
       <c r="U26" s="49"/>
-      <c r="V26" s="76"/>
+      <c r="V26" s="93"/>
       <c r="W26" s="49"/>
       <c r="X26" s="58" t="s">
         <v>47</v>
@@ -2941,21 +2949,21 @@
       <c r="Y26" s="55"/>
       <c r="Z26" s="55"/>
       <c r="AA26" s="55"/>
-      <c r="AB26" s="122"/>
-      <c r="AC26" s="21"/>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="55"/>
       <c r="AD26" s="21"/>
-      <c r="AE26" s="77"/>
+      <c r="AE26" s="63"/>
       <c r="AF26" s="21"/>
       <c r="AG26" s="22"/>
     </row>
     <row r="28" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="3" t="s">
         <v>30</v>
       </c>
@@ -3042,10 +3050,10 @@
       </c>
     </row>
     <row r="30" spans="2:33" s="2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="5">
         <v>44284</v>
       </c>
@@ -3132,27 +3140,27 @@
       </c>
     </row>
     <row r="31" spans="2:33" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="107" t="s">
+      <c r="C31" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="108"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="110" t="s">
+      <c r="D31" s="81"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110" t="s">
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="27"/>
@@ -3174,17 +3182,17 @@
       <c r="AG31" s="29"/>
     </row>
     <row r="32" spans="2:33" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="105"/>
-      <c r="C32" s="69" t="s">
+      <c r="B32" s="102"/>
+      <c r="C32" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="78"/>
+      <c r="E32" s="86"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="69" t="s">
+      <c r="H32" s="61" t="s">
         <v>42</v>
       </c>
       <c r="I32" s="14" t="s">
@@ -3202,7 +3210,7 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="69" t="s">
+      <c r="T32" s="61" t="s">
         <v>52</v>
       </c>
       <c r="U32" s="13"/>
@@ -3220,9 +3228,9 @@
       <c r="AG32" s="16"/>
     </row>
     <row r="33" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="105"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="78" t="s">
+      <c r="B33" s="102"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="86" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="17" t="s">
@@ -3230,8 +3238,8 @@
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="69" t="s">
+      <c r="H33" s="62"/>
+      <c r="I33" s="61" t="s">
         <v>54</v>
       </c>
       <c r="J33" s="13"/>
@@ -3240,13 +3248,13 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
-      <c r="P33" s="62" t="s">
+      <c r="P33" s="85" t="s">
         <v>88</v>
       </c>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="70"/>
+      <c r="T33" s="62"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
@@ -3262,27 +3270,27 @@
       <c r="AG33" s="16"/>
     </row>
     <row r="34" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="105"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="78"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
-      <c r="P34" s="62"/>
+      <c r="P34" s="85"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="70"/>
+      <c r="T34" s="62"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
@@ -3298,27 +3306,27 @@
       <c r="AG34" s="16"/>
     </row>
     <row r="35" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="105"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="78"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="62"/>
+      <c r="P35" s="85"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="70"/>
+      <c r="T35" s="62"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
@@ -3334,9 +3342,9 @@
       <c r="AG35" s="16"/>
     </row>
     <row r="36" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="105"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="78"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="17" t="s">
         <v>18</v>
       </c>
@@ -3354,7 +3362,7 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="70"/>
+      <c r="T36" s="62"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
@@ -3370,16 +3378,16 @@
       <c r="AG36" s="16"/>
     </row>
     <row r="37" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="105"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="78"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="86"/>
       <c r="E37" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="69" t="s">
+      <c r="I37" s="61" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="13"/>
@@ -3392,7 +3400,7 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
-      <c r="T37" s="70"/>
+      <c r="T37" s="62"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
       <c r="W37" s="13"/>
@@ -3408,16 +3416,16 @@
       <c r="AG37" s="16"/>
     </row>
     <row r="38" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="105"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="78"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="86"/>
       <c r="E38" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="70"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -3428,7 +3436,7 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
-      <c r="T38" s="70"/>
+      <c r="T38" s="62"/>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
@@ -3444,16 +3452,16 @@
       <c r="AG38" s="16"/>
     </row>
     <row r="39" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="105"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="78"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="86"/>
       <c r="E39" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="71"/>
+      <c r="I39" s="67"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -3464,7 +3472,7 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="71"/>
+      <c r="T39" s="67"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
@@ -3480,9 +3488,9 @@
       <c r="AG39" s="16"/>
     </row>
     <row r="40" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="105"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="78"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="17" t="s">
         <v>10</v>
       </c>
@@ -3516,9 +3524,9 @@
       <c r="AG40" s="16"/>
     </row>
     <row r="41" spans="2:33" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="106"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="79"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="87"/>
       <c r="E41" s="31" t="s">
         <v>11</v>
       </c>
@@ -3552,69 +3560,69 @@
       <c r="AG41" s="34"/>
     </row>
     <row r="42" spans="2:33" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="97" t="s">
+      <c r="B42" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="66" t="s">
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="66" t="s">
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="66" t="s">
+      <c r="K42" s="106"/>
+      <c r="L42" s="106"/>
+      <c r="M42" s="106"/>
+      <c r="N42" s="106"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="95"/>
-      <c r="V42" s="96"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="106"/>
+      <c r="S42" s="106"/>
+      <c r="T42" s="106"/>
+      <c r="U42" s="106"/>
+      <c r="V42" s="107"/>
       <c r="W42" s="23"/>
       <c r="X42" s="23"/>
       <c r="Y42" s="23"/>
       <c r="Z42" s="23"/>
-      <c r="AA42" s="63" t="s">
+      <c r="AA42" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="AB42" s="64"/>
-      <c r="AC42" s="64"/>
-      <c r="AD42" s="64"/>
-      <c r="AE42" s="64"/>
-      <c r="AF42" s="64"/>
-      <c r="AG42" s="65"/>
+      <c r="AB42" s="72"/>
+      <c r="AC42" s="72"/>
+      <c r="AD42" s="72"/>
+      <c r="AE42" s="72"/>
+      <c r="AF42" s="72"/>
+      <c r="AG42" s="118"/>
     </row>
     <row r="43" spans="2:33" ht="135" x14ac:dyDescent="0.3">
-      <c r="B43" s="98"/>
-      <c r="C43" s="69" t="s">
+      <c r="B43" s="109"/>
+      <c r="C43" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="78" t="s">
+      <c r="D43" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="78"/>
+      <c r="E43" s="86"/>
       <c r="F43" s="35"/>
       <c r="G43" s="30"/>
-      <c r="H43" s="101" t="s">
+      <c r="H43" s="68" t="s">
         <v>117</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="69" t="s">
+      <c r="J43" s="61" t="s">
         <v>55</v>
       </c>
       <c r="K43" s="13"/>
@@ -3622,23 +3630,23 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
-      <c r="P43" s="69" t="s">
+      <c r="P43" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="Q43" s="69" t="s">
+      <c r="Q43" s="61" t="s">
         <v>58</v>
       </c>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
-      <c r="T43" s="69" t="s">
+      <c r="T43" s="61" t="s">
         <v>57</v>
       </c>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
-      <c r="W43" s="69" t="s">
+      <c r="W43" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="X43" s="69" t="s">
+      <c r="X43" s="61" t="s">
         <v>60</v>
       </c>
       <c r="Y43" s="13"/>
@@ -3646,7 +3654,7 @@
       <c r="AA43" s="35"/>
       <c r="AB43" s="30"/>
       <c r="AC43" s="13"/>
-      <c r="AD43" s="69" t="s">
+      <c r="AD43" s="61" t="s">
         <v>62</v>
       </c>
       <c r="AE43" s="13"/>
@@ -3654,9 +3662,9 @@
       <c r="AG43" s="16"/>
     </row>
     <row r="44" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="98"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="78" t="s">
+      <c r="B44" s="109"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="86" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="17" t="s">
@@ -3664,111 +3672,111 @@
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="62" t="s">
+      <c r="H44" s="69"/>
+      <c r="I44" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="J44" s="70"/>
+      <c r="J44" s="62"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="70"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
-      <c r="T44" s="70"/>
+      <c r="T44" s="62"/>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
-      <c r="W44" s="70"/>
-      <c r="X44" s="70"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
       <c r="AC44" s="13"/>
-      <c r="AD44" s="70"/>
+      <c r="AD44" s="62"/>
       <c r="AE44" s="13"/>
       <c r="AF44" s="13"/>
       <c r="AG44" s="16"/>
     </row>
     <row r="45" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="98"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="78"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="70"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="62"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
-      <c r="P45" s="70"/>
-      <c r="Q45" s="70"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
-      <c r="T45" s="70"/>
+      <c r="T45" s="62"/>
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
-      <c r="W45" s="70"/>
-      <c r="X45" s="70"/>
+      <c r="W45" s="62"/>
+      <c r="X45" s="62"/>
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="13"/>
-      <c r="AD45" s="70"/>
+      <c r="AD45" s="62"/>
       <c r="AE45" s="13"/>
       <c r="AF45" s="13"/>
       <c r="AG45" s="16"/>
     </row>
     <row r="46" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="98"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="78"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="86"/>
       <c r="E46" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="62"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="70"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
-      <c r="T46" s="70"/>
+      <c r="T46" s="62"/>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
-      <c r="W46" s="70"/>
-      <c r="X46" s="70"/>
+      <c r="W46" s="62"/>
+      <c r="X46" s="62"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="13"/>
       <c r="AC46" s="13"/>
-      <c r="AD46" s="70"/>
+      <c r="AD46" s="62"/>
       <c r="AE46" s="13"/>
       <c r="AF46" s="13"/>
       <c r="AG46" s="16"/>
     </row>
     <row r="47" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="98"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="78"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="86"/>
       <c r="E47" s="17" t="s">
         <v>18</v>
       </c>
@@ -3776,221 +3784,221 @@
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="70"/>
+      <c r="J47" s="62"/>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="70"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
-      <c r="T47" s="70"/>
+      <c r="T47" s="62"/>
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
-      <c r="W47" s="70"/>
-      <c r="X47" s="70"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
       <c r="AC47" s="13"/>
-      <c r="AD47" s="70"/>
+      <c r="AD47" s="62"/>
       <c r="AE47" s="13"/>
       <c r="AF47" s="13"/>
       <c r="AG47" s="16"/>
     </row>
     <row r="48" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="98"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="78"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="86"/>
       <c r="E48" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="69" t="s">
+      <c r="I48" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="70"/>
+      <c r="J48" s="62"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
-      <c r="T48" s="70"/>
+      <c r="T48" s="62"/>
       <c r="U48" s="13"/>
       <c r="V48" s="13"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="70"/>
+      <c r="W48" s="62"/>
+      <c r="X48" s="62"/>
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
       <c r="AB48" s="13"/>
       <c r="AC48" s="13"/>
-      <c r="AD48" s="70"/>
+      <c r="AD48" s="62"/>
       <c r="AE48" s="13"/>
       <c r="AF48" s="13"/>
       <c r="AG48" s="16"/>
     </row>
     <row r="49" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="98"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="78"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="86"/>
       <c r="E49" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
-      <c r="T49" s="70"/>
+      <c r="T49" s="62"/>
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
-      <c r="W49" s="70"/>
-      <c r="X49" s="70"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="62"/>
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
       <c r="AB49" s="13"/>
       <c r="AC49" s="13"/>
-      <c r="AD49" s="70"/>
+      <c r="AD49" s="62"/>
       <c r="AE49" s="13"/>
       <c r="AF49" s="13"/>
       <c r="AG49" s="16"/>
     </row>
     <row r="50" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="98"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="78"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="86"/>
       <c r="E50" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="70"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
-      <c r="T50" s="71"/>
+      <c r="T50" s="67"/>
       <c r="U50" s="13"/>
       <c r="V50" s="13"/>
-      <c r="W50" s="70"/>
-      <c r="X50" s="70"/>
+      <c r="W50" s="62"/>
+      <c r="X50" s="62"/>
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
       <c r="AC50" s="13"/>
-      <c r="AD50" s="70"/>
+      <c r="AD50" s="62"/>
       <c r="AE50" s="13"/>
       <c r="AF50" s="13"/>
       <c r="AG50" s="16"/>
     </row>
     <row r="51" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="98"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="78"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="86"/>
       <c r="E51" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="70"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
       <c r="V51" s="13"/>
-      <c r="W51" s="70"/>
-      <c r="X51" s="70"/>
+      <c r="W51" s="62"/>
+      <c r="X51" s="62"/>
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
-      <c r="AD51" s="70"/>
+      <c r="AD51" s="62"/>
       <c r="AE51" s="13"/>
       <c r="AF51" s="13"/>
       <c r="AG51" s="16"/>
     </row>
     <row r="52" spans="2:33" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="99"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="91"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="77"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="63"/>
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
       <c r="T52" s="21"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
-      <c r="W52" s="77"/>
-      <c r="X52" s="77"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="63"/>
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
       <c r="AA52" s="21"/>
       <c r="AB52" s="21"/>
       <c r="AC52" s="21"/>
-      <c r="AD52" s="77"/>
+      <c r="AD52" s="63"/>
       <c r="AE52" s="21"/>
       <c r="AF52" s="21"/>
       <c r="AG52" s="22"/>
     </row>
     <row r="54" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="88" t="s">
+      <c r="B55" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="3" t="s">
         <v>30</v>
       </c>
@@ -4056,10 +4064,10 @@
       </c>
     </row>
     <row r="56" spans="2:33" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="90"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
       <c r="F56" s="5">
         <v>44312</v>
       </c>
@@ -4125,14 +4133,14 @@
       </c>
     </row>
     <row r="57" spans="2:33" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="94" t="s">
+      <c r="C57" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="9"/>
@@ -4151,24 +4159,24 @@
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
       <c r="W57" s="10"/>
-      <c r="X57" s="72" t="s">
+      <c r="X57" s="119" t="s">
         <v>63</v>
       </c>
       <c r="Y57" s="42"/>
       <c r="Z57" s="29"/>
     </row>
     <row r="58" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="92"/>
-      <c r="C58" s="69" t="s">
+      <c r="B58" s="78"/>
+      <c r="C58" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="78" t="s">
+      <c r="D58" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="78"/>
+      <c r="E58" s="86"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="69" t="s">
+      <c r="H58" s="61" t="s">
         <v>61</v>
       </c>
       <c r="I58" s="13"/>
@@ -4178,26 +4186,26 @@
       <c r="M58" s="14"/>
       <c r="N58" s="13"/>
       <c r="O58" s="14"/>
-      <c r="P58" s="69" t="s">
+      <c r="P58" s="61" t="s">
         <v>86</v>
       </c>
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
-      <c r="T58" s="69" t="s">
+      <c r="T58" s="61" t="s">
         <v>85</v>
       </c>
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
       <c r="W58" s="16"/>
-      <c r="X58" s="73"/>
+      <c r="X58" s="120"/>
       <c r="Y58" s="43"/>
       <c r="Z58" s="16"/>
     </row>
     <row r="59" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="92"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="79" t="s">
+      <c r="B59" s="78"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="87" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="17" t="s">
@@ -4205,7 +4213,7 @@
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="70"/>
+      <c r="H59" s="62"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
@@ -4213,28 +4221,28 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
-      <c r="P59" s="70"/>
+      <c r="P59" s="62"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
-      <c r="T59" s="70"/>
+      <c r="T59" s="62"/>
       <c r="U59" s="13"/>
       <c r="V59" s="13"/>
       <c r="W59" s="16"/>
-      <c r="X59" s="73"/>
+      <c r="X59" s="120"/>
       <c r="Y59" s="43"/>
       <c r="Z59" s="16"/>
     </row>
     <row r="60" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="92"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="80"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="88"/>
       <c r="E60" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="70"/>
+      <c r="H60" s="62"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -4242,28 +4250,28 @@
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
-      <c r="P60" s="70"/>
+      <c r="P60" s="62"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
-      <c r="T60" s="70"/>
+      <c r="T60" s="62"/>
       <c r="U60" s="13"/>
       <c r="V60" s="13"/>
       <c r="W60" s="16"/>
-      <c r="X60" s="73"/>
+      <c r="X60" s="120"/>
       <c r="Y60" s="43"/>
       <c r="Z60" s="16"/>
     </row>
     <row r="61" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="92"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="80"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="88"/>
       <c r="E61" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="70"/>
+      <c r="H61" s="62"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
@@ -4271,28 +4279,28 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
-      <c r="P61" s="70"/>
+      <c r="P61" s="62"/>
       <c r="Q61" s="13"/>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
-      <c r="T61" s="70"/>
+      <c r="T61" s="62"/>
       <c r="U61" s="13"/>
       <c r="V61" s="13"/>
       <c r="W61" s="16"/>
-      <c r="X61" s="73"/>
+      <c r="X61" s="120"/>
       <c r="Y61" s="43"/>
       <c r="Z61" s="16"/>
     </row>
     <row r="62" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B62" s="92"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="80"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="88"/>
       <c r="E62" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="70"/>
+      <c r="H62" s="62"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
@@ -4300,28 +4308,28 @@
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
-      <c r="P62" s="70"/>
+      <c r="P62" s="62"/>
       <c r="Q62" s="13"/>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
-      <c r="T62" s="70"/>
+      <c r="T62" s="62"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
       <c r="W62" s="16"/>
-      <c r="X62" s="73"/>
+      <c r="X62" s="120"/>
       <c r="Y62" s="43"/>
       <c r="Z62" s="16"/>
     </row>
     <row r="63" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="92"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="80"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="88"/>
       <c r="E63" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="70"/>
+      <c r="H63" s="62"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
@@ -4329,28 +4337,28 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
-      <c r="P63" s="70"/>
+      <c r="P63" s="62"/>
       <c r="Q63" s="13"/>
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
-      <c r="T63" s="70"/>
+      <c r="T63" s="62"/>
       <c r="U63" s="13"/>
       <c r="V63" s="13"/>
       <c r="W63" s="16"/>
-      <c r="X63" s="73"/>
+      <c r="X63" s="120"/>
       <c r="Y63" s="43"/>
       <c r="Z63" s="16"/>
     </row>
     <row r="64" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B64" s="92"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="80"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="88"/>
       <c r="E64" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="70"/>
+      <c r="H64" s="62"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
@@ -4358,28 +4366,28 @@
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
-      <c r="P64" s="70"/>
+      <c r="P64" s="62"/>
       <c r="Q64" s="13"/>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
-      <c r="T64" s="70"/>
+      <c r="T64" s="62"/>
       <c r="U64" s="13"/>
       <c r="V64" s="13"/>
       <c r="W64" s="16"/>
-      <c r="X64" s="73"/>
+      <c r="X64" s="120"/>
       <c r="Y64" s="43"/>
       <c r="Z64" s="16"/>
     </row>
     <row r="65" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B65" s="92"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="80"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="88"/>
       <c r="E65" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="71"/>
+      <c r="H65" s="67"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
@@ -4387,22 +4395,22 @@
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
-      <c r="P65" s="70"/>
+      <c r="P65" s="62"/>
       <c r="Q65" s="13"/>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
-      <c r="T65" s="70"/>
+      <c r="T65" s="62"/>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
       <c r="W65" s="16"/>
-      <c r="X65" s="73"/>
+      <c r="X65" s="120"/>
       <c r="Y65" s="43"/>
       <c r="Z65" s="16"/>
     </row>
     <row r="66" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B66" s="92"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="80"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="88"/>
       <c r="E66" s="17" t="s">
         <v>10</v>
       </c>
@@ -4416,22 +4424,22 @@
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
-      <c r="P66" s="70"/>
+      <c r="P66" s="62"/>
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
-      <c r="T66" s="70"/>
+      <c r="T66" s="62"/>
       <c r="U66" s="13"/>
       <c r="V66" s="13"/>
       <c r="W66" s="16"/>
-      <c r="X66" s="73"/>
+      <c r="X66" s="120"/>
       <c r="Y66" s="43"/>
       <c r="Z66" s="16"/>
     </row>
     <row r="67" spans="2:26" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="93"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="81"/>
+      <c r="B67" s="79"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="89"/>
       <c r="E67" s="19" t="s">
         <v>11</v>
       </c>
@@ -4445,34 +4453,34 @@
       <c r="M67" s="21"/>
       <c r="N67" s="21"/>
       <c r="O67" s="21"/>
-      <c r="P67" s="77"/>
+      <c r="P67" s="63"/>
       <c r="Q67" s="21"/>
       <c r="R67" s="21"/>
       <c r="S67" s="21"/>
-      <c r="T67" s="77"/>
+      <c r="T67" s="63"/>
       <c r="U67" s="21"/>
       <c r="V67" s="21"/>
       <c r="W67" s="22"/>
-      <c r="X67" s="73"/>
+      <c r="X67" s="120"/>
       <c r="Y67" s="44"/>
       <c r="Z67" s="22"/>
     </row>
     <row r="68" spans="2:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="82" t="s">
+      <c r="B68" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="85" t="s">
+      <c r="C68" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="86"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="66" t="s">
+      <c r="D68" s="113"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="68"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="98"/>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
       <c r="M68" s="45"/>
@@ -4486,19 +4494,19 @@
       <c r="U68" s="46"/>
       <c r="V68" s="46"/>
       <c r="W68" s="47"/>
-      <c r="X68" s="73"/>
+      <c r="X68" s="120"/>
       <c r="Y68" s="37"/>
       <c r="Z68" s="4"/>
     </row>
     <row r="69" spans="2:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="83"/>
-      <c r="C69" s="69" t="s">
+      <c r="B69" s="95"/>
+      <c r="C69" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="78" t="s">
+      <c r="D69" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="78"/>
+      <c r="E69" s="86"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
@@ -4506,33 +4514,33 @@
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
-      <c r="M69" s="69" t="s">
+      <c r="M69" s="61" t="s">
         <v>84</v>
       </c>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
-      <c r="P69" s="69" t="s">
+      <c r="P69" s="61" t="s">
         <v>86</v>
       </c>
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
-      <c r="T69" s="69" t="s">
+      <c r="T69" s="61" t="s">
         <v>87</v>
       </c>
       <c r="U69" s="13"/>
-      <c r="V69" s="69" t="s">
+      <c r="V69" s="61" t="s">
         <v>84</v>
       </c>
       <c r="W69" s="16"/>
-      <c r="X69" s="73"/>
+      <c r="X69" s="120"/>
       <c r="Y69" s="43"/>
       <c r="Z69" s="16"/>
     </row>
     <row r="70" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B70" s="83"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="79" t="s">
+      <c r="B70" s="95"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="87" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="17" t="s">
@@ -4545,25 +4553,25 @@
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
-      <c r="M70" s="70"/>
+      <c r="M70" s="62"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
-      <c r="P70" s="70"/>
+      <c r="P70" s="62"/>
       <c r="Q70" s="13"/>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
-      <c r="T70" s="70"/>
+      <c r="T70" s="62"/>
       <c r="U70" s="13"/>
-      <c r="V70" s="70"/>
+      <c r="V70" s="62"/>
       <c r="W70" s="16"/>
-      <c r="X70" s="73"/>
+      <c r="X70" s="120"/>
       <c r="Y70" s="43"/>
       <c r="Z70" s="16"/>
     </row>
     <row r="71" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B71" s="83"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="80"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="88"/>
       <c r="E71" s="17" t="s">
         <v>5</v>
       </c>
@@ -4574,25 +4582,25 @@
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
-      <c r="M71" s="70"/>
+      <c r="M71" s="62"/>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
-      <c r="P71" s="70"/>
+      <c r="P71" s="62"/>
       <c r="Q71" s="13"/>
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
-      <c r="T71" s="70"/>
+      <c r="T71" s="62"/>
       <c r="U71" s="13"/>
-      <c r="V71" s="70"/>
+      <c r="V71" s="62"/>
       <c r="W71" s="16"/>
-      <c r="X71" s="73"/>
+      <c r="X71" s="120"/>
       <c r="Y71" s="43"/>
       <c r="Z71" s="16"/>
     </row>
     <row r="72" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B72" s="83"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="80"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="88"/>
       <c r="E72" s="17" t="s">
         <v>6</v>
       </c>
@@ -4603,25 +4611,25 @@
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
-      <c r="M72" s="70"/>
+      <c r="M72" s="62"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
-      <c r="P72" s="70"/>
+      <c r="P72" s="62"/>
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
-      <c r="T72" s="70"/>
+      <c r="T72" s="62"/>
       <c r="U72" s="13"/>
-      <c r="V72" s="70"/>
+      <c r="V72" s="62"/>
       <c r="W72" s="16"/>
-      <c r="X72" s="73"/>
+      <c r="X72" s="120"/>
       <c r="Y72" s="43"/>
       <c r="Z72" s="16"/>
     </row>
     <row r="73" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B73" s="83"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="80"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="88"/>
       <c r="E73" s="17" t="s">
         <v>18</v>
       </c>
@@ -4632,25 +4640,25 @@
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
-      <c r="M73" s="70"/>
+      <c r="M73" s="62"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
-      <c r="P73" s="70"/>
+      <c r="P73" s="62"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
-      <c r="T73" s="70"/>
+      <c r="T73" s="62"/>
       <c r="U73" s="13"/>
-      <c r="V73" s="70"/>
+      <c r="V73" s="62"/>
       <c r="W73" s="16"/>
-      <c r="X73" s="73"/>
+      <c r="X73" s="120"/>
       <c r="Y73" s="43"/>
       <c r="Z73" s="16"/>
     </row>
     <row r="74" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B74" s="83"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="80"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="88"/>
       <c r="E74" s="17" t="s">
         <v>7</v>
       </c>
@@ -4661,25 +4669,25 @@
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
-      <c r="M74" s="70"/>
+      <c r="M74" s="62"/>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
-      <c r="P74" s="70"/>
+      <c r="P74" s="62"/>
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
-      <c r="T74" s="70"/>
+      <c r="T74" s="62"/>
       <c r="U74" s="13"/>
-      <c r="V74" s="70"/>
+      <c r="V74" s="62"/>
       <c r="W74" s="16"/>
-      <c r="X74" s="73"/>
+      <c r="X74" s="120"/>
       <c r="Y74" s="43"/>
       <c r="Z74" s="16"/>
     </row>
     <row r="75" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B75" s="83"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="80"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="88"/>
       <c r="E75" s="17" t="s">
         <v>8</v>
       </c>
@@ -4690,25 +4698,25 @@
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
-      <c r="M75" s="70"/>
+      <c r="M75" s="62"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
-      <c r="P75" s="70"/>
+      <c r="P75" s="62"/>
       <c r="Q75" s="13"/>
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
-      <c r="T75" s="70"/>
+      <c r="T75" s="62"/>
       <c r="U75" s="13"/>
-      <c r="V75" s="70"/>
+      <c r="V75" s="62"/>
       <c r="W75" s="16"/>
-      <c r="X75" s="73"/>
+      <c r="X75" s="120"/>
       <c r="Y75" s="43"/>
       <c r="Z75" s="16"/>
     </row>
     <row r="76" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B76" s="83"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="80"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="88"/>
       <c r="E76" s="17" t="s">
         <v>9</v>
       </c>
@@ -4719,25 +4727,25 @@
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
-      <c r="M76" s="70"/>
+      <c r="M76" s="62"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
-      <c r="P76" s="70"/>
+      <c r="P76" s="62"/>
       <c r="Q76" s="13"/>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
-      <c r="T76" s="70"/>
+      <c r="T76" s="62"/>
       <c r="U76" s="13"/>
-      <c r="V76" s="70"/>
+      <c r="V76" s="62"/>
       <c r="W76" s="16"/>
-      <c r="X76" s="73"/>
+      <c r="X76" s="120"/>
       <c r="Y76" s="43"/>
       <c r="Z76" s="16"/>
     </row>
     <row r="77" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B77" s="83"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="80"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="88"/>
       <c r="E77" s="17" t="s">
         <v>10</v>
       </c>
@@ -4748,25 +4756,25 @@
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
-      <c r="M77" s="70"/>
+      <c r="M77" s="62"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
-      <c r="P77" s="70"/>
+      <c r="P77" s="62"/>
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
-      <c r="T77" s="70"/>
+      <c r="T77" s="62"/>
       <c r="U77" s="13"/>
-      <c r="V77" s="70"/>
+      <c r="V77" s="62"/>
       <c r="W77" s="16"/>
-      <c r="X77" s="73"/>
+      <c r="X77" s="120"/>
       <c r="Y77" s="43"/>
       <c r="Z77" s="16"/>
     </row>
     <row r="78" spans="2:26" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="84"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="81"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="89"/>
       <c r="E78" s="19" t="s">
         <v>11</v>
       </c>
@@ -4777,68 +4785,47 @@
       <c r="J78" s="21"/>
       <c r="K78" s="21"/>
       <c r="L78" s="21"/>
-      <c r="M78" s="77"/>
+      <c r="M78" s="63"/>
       <c r="N78" s="21"/>
       <c r="O78" s="21"/>
-      <c r="P78" s="77"/>
+      <c r="P78" s="63"/>
       <c r="Q78" s="21"/>
       <c r="R78" s="21"/>
       <c r="S78" s="21"/>
-      <c r="T78" s="77"/>
+      <c r="T78" s="63"/>
       <c r="U78" s="21"/>
-      <c r="V78" s="77"/>
+      <c r="V78" s="63"/>
       <c r="W78" s="22"/>
-      <c r="X78" s="74"/>
+      <c r="X78" s="121"/>
       <c r="Y78" s="44"/>
       <c r="Z78" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="V69:V78"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="H58:H65"/>
-    <mergeCell ref="P58:P67"/>
-    <mergeCell ref="T58:T67"/>
-    <mergeCell ref="M69:M78"/>
-    <mergeCell ref="P69:P78"/>
-    <mergeCell ref="T69:T78"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="V6:V9"/>
-    <mergeCell ref="W6:W9"/>
-    <mergeCell ref="B16:B26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="V22:V26"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="V17:V20"/>
-    <mergeCell ref="W17:W20"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="AC18:AC20"/>
-    <mergeCell ref="AD18:AD20"/>
-    <mergeCell ref="AB22:AB26"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:D41"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="AA42:AG42"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="X57:X78"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="V11:V15"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AD6:AD9"/>
+    <mergeCell ref="AE17:AE26"/>
+    <mergeCell ref="T32:T39"/>
+    <mergeCell ref="T43:T50"/>
+    <mergeCell ref="W43:W52"/>
+    <mergeCell ref="X43:X52"/>
+    <mergeCell ref="AD43:AD52"/>
+    <mergeCell ref="C58:C67"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:D67"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:D78"/>
     <mergeCell ref="B55:E56"/>
     <mergeCell ref="B57:B67"/>
     <mergeCell ref="C57:E57"/>
@@ -4855,30 +4842,51 @@
     <mergeCell ref="J43:J52"/>
     <mergeCell ref="P43:P52"/>
     <mergeCell ref="Q43:Q52"/>
-    <mergeCell ref="C58:C67"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:D67"/>
-    <mergeCell ref="B68:B78"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:C78"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:D78"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="P33:P35"/>
-    <mergeCell ref="AA42:AG42"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="X57:X78"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="V11:V15"/>
-    <mergeCell ref="AC6:AC9"/>
-    <mergeCell ref="AD6:AD9"/>
-    <mergeCell ref="AE17:AE26"/>
-    <mergeCell ref="T32:T39"/>
-    <mergeCell ref="T43:T50"/>
-    <mergeCell ref="W43:W52"/>
-    <mergeCell ref="X43:X52"/>
-    <mergeCell ref="AD43:AD52"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="AC18:AC20"/>
+    <mergeCell ref="AD18:AD20"/>
+    <mergeCell ref="AB22:AB26"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="V6:V9"/>
+    <mergeCell ref="W6:W9"/>
+    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="V22:V26"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="V17:V20"/>
+    <mergeCell ref="W17:W20"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="V69:V78"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="H58:H65"/>
+    <mergeCell ref="P58:P67"/>
+    <mergeCell ref="T58:T67"/>
+    <mergeCell ref="M69:M78"/>
+    <mergeCell ref="P69:P78"/>
+    <mergeCell ref="T69:T78"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="X16:AD16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/마포구청 개발.디자인 진행 일정 및 내용_20210317_ver1.2.xlsx
+++ b/마포구청 개발.디자인 진행 일정 및 내용_20210317_ver1.2.xlsx
@@ -1263,18 +1263,186 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="30" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1284,176 +1452,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1741,8 +1741,8 @@
   </sheetPr>
   <dimension ref="B2:AG78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H11" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17:AC26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
@@ -1779,12 +1779,12 @@
   <sheetData>
     <row r="2" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:33" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1871,10 +1871,10 @@
       </c>
     </row>
     <row r="4" spans="2:33" s="2" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="5">
         <v>44256</v>
       </c>
@@ -1961,60 +1961,60 @@
       </c>
     </row>
     <row r="5" spans="2:33" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="64" t="s">
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="83" t="s">
+      <c r="P5" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="84"/>
+      <c r="Q5" s="114"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="90" t="s">
+      <c r="T5" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="115" t="s">
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="117"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="62"/>
       <c r="AC5" s="53"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="10"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
     </row>
     <row r="6" spans="2:33" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="78"/>
-      <c r="C6" s="85" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="86"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
         <v>65</v>
@@ -2043,10 +2043,10 @@
       <c r="S6" s="49"/>
       <c r="T6" s="49"/>
       <c r="U6" s="49"/>
-      <c r="V6" s="93" t="s">
+      <c r="V6" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="W6" s="93" t="s">
+      <c r="W6" s="77" t="s">
         <v>92</v>
       </c>
       <c r="X6" s="53"/>
@@ -2054,20 +2054,20 @@
       <c r="Z6" s="53"/>
       <c r="AA6" s="54"/>
       <c r="AB6" s="59"/>
-      <c r="AC6" s="60" t="s">
+      <c r="AC6" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" s="61" t="s">
+      <c r="AD6" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="16"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
     </row>
     <row r="7" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="78"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -2099,23 +2099,23 @@
       <c r="S7" s="49"/>
       <c r="T7" s="49"/>
       <c r="U7" s="49"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
       <c r="X7" s="53"/>
       <c r="Y7" s="53"/>
       <c r="Z7" s="53"/>
       <c r="AA7" s="53"/>
       <c r="AB7" s="59"/>
-      <c r="AC7" s="123"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="16"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
     </row>
     <row r="8" spans="2:33" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="78"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="88"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="17" t="s">
         <v>5</v>
       </c>
@@ -2145,23 +2145,23 @@
       <c r="S8" s="49"/>
       <c r="T8" s="49"/>
       <c r="U8" s="49"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
       <c r="X8" s="53"/>
       <c r="Y8" s="53"/>
       <c r="Z8" s="53"/>
       <c r="AA8" s="53"/>
       <c r="AB8" s="59"/>
-      <c r="AC8" s="123"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="16"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="78"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
     </row>
     <row r="9" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="78"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="88"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="17" t="s">
         <v>6</v>
       </c>
@@ -2191,23 +2191,23 @@
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
       <c r="U9" s="49"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
       <c r="X9" s="53"/>
       <c r="Y9" s="53"/>
       <c r="Z9" s="53"/>
       <c r="AA9" s="53"/>
       <c r="AB9" s="59"/>
-      <c r="AC9" s="123"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="16"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
     </row>
     <row r="10" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="78"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="88"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="17" t="s">
         <v>18</v>
       </c>
@@ -2237,15 +2237,15 @@
       <c r="AA10" s="53"/>
       <c r="AB10" s="59"/>
       <c r="AC10" s="55"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="16"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
     </row>
     <row r="11" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="78"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="88"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="17" t="s">
         <v>7</v>
       </c>
@@ -2265,7 +2265,7 @@
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
       <c r="U11" s="49"/>
-      <c r="V11" s="93" t="s">
+      <c r="V11" s="77" t="s">
         <v>101</v>
       </c>
       <c r="W11" s="49"/>
@@ -2275,15 +2275,15 @@
       <c r="AA11" s="53"/>
       <c r="AB11" s="59"/>
       <c r="AC11" s="55"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="16"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
     </row>
     <row r="12" spans="2:33" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="78"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="88"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="17" t="s">
         <v>8</v>
       </c>
@@ -2303,9 +2303,9 @@
       <c r="S12" s="49"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
-      <c r="V12" s="93"/>
+      <c r="V12" s="77"/>
       <c r="W12" s="49"/>
-      <c r="X12" s="60" t="s">
+      <c r="X12" s="78" t="s">
         <v>119</v>
       </c>
       <c r="Y12" s="53"/>
@@ -2313,15 +2313,15 @@
       <c r="AA12" s="53"/>
       <c r="AB12" s="59"/>
       <c r="AC12" s="55"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="16"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
     </row>
     <row r="13" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="78"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="88"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="17" t="s">
         <v>9</v>
       </c>
@@ -2341,23 +2341,23 @@
       <c r="S13" s="49"/>
       <c r="T13" s="49"/>
       <c r="U13" s="49"/>
-      <c r="V13" s="93"/>
+      <c r="V13" s="77"/>
       <c r="W13" s="49"/>
-      <c r="X13" s="60"/>
+      <c r="X13" s="78"/>
       <c r="Y13" s="53"/>
       <c r="Z13" s="53"/>
       <c r="AA13" s="53"/>
       <c r="AB13" s="59"/>
       <c r="AC13" s="55"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="16"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
     </row>
     <row r="14" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="78"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="88"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="17" t="s">
         <v>10</v>
       </c>
@@ -2377,23 +2377,23 @@
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
       <c r="U14" s="49"/>
-      <c r="V14" s="93"/>
+      <c r="V14" s="77"/>
       <c r="W14" s="49"/>
-      <c r="X14" s="60"/>
+      <c r="X14" s="78"/>
       <c r="Y14" s="53"/>
       <c r="Z14" s="53"/>
       <c r="AA14" s="53"/>
       <c r="AB14" s="59"/>
       <c r="AC14" s="55"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="16"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="59"/>
     </row>
     <row r="15" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="79"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="89"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="19" t="s">
         <v>11</v>
       </c>
@@ -2413,7 +2413,7 @@
       <c r="S15" s="49"/>
       <c r="T15" s="49"/>
       <c r="U15" s="49"/>
-      <c r="V15" s="93"/>
+      <c r="V15" s="77"/>
       <c r="W15" s="49"/>
       <c r="X15" s="53"/>
       <c r="Y15" s="53"/>
@@ -2421,68 +2421,68 @@
       <c r="AA15" s="53"/>
       <c r="AB15" s="59"/>
       <c r="AC15" s="55"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="22"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
     </row>
     <row r="16" spans="2:33" ht="107.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="64" t="s">
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122"/>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
-      <c r="O16" s="97" t="s">
+      <c r="O16" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="99" t="s">
+      <c r="P16" s="69"/>
+      <c r="Q16" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="71" t="s">
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="97" t="s">
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="123"/>
+      <c r="AE16" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="AF16" s="111"/>
-      <c r="AG16" s="122"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="76"/>
     </row>
     <row r="17" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="95"/>
-      <c r="C17" s="85" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="86"/>
+      <c r="E17" s="81"/>
       <c r="F17" s="18"/>
       <c r="G17" s="11" t="s">
         <v>65</v>
@@ -2515,10 +2515,10 @@
       <c r="S17" s="49"/>
       <c r="T17" s="49"/>
       <c r="U17" s="49"/>
-      <c r="V17" s="93" t="s">
+      <c r="V17" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="W17" s="93" t="s">
+      <c r="W17" s="77" t="s">
         <v>92</v>
       </c>
       <c r="X17" s="54" t="s">
@@ -2529,17 +2529,17 @@
       <c r="AA17" s="54"/>
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="61" t="s">
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="16"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
     </row>
     <row r="18" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="95"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87" t="s">
+      <c r="B18" s="86"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="17" t="s">
@@ -2575,8 +2575,8 @@
       <c r="S18" s="49"/>
       <c r="T18" s="49"/>
       <c r="U18" s="49"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
       <c r="X18" s="56" t="s">
         <v>103</v>
       </c>
@@ -2584,20 +2584,20 @@
       <c r="Z18" s="55"/>
       <c r="AA18" s="55"/>
       <c r="AB18" s="53"/>
-      <c r="AC18" s="60" t="s">
+      <c r="AC18" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="AD18" s="68" t="s">
+      <c r="AD18" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="16"/>
+      <c r="AE18" s="78"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
     </row>
     <row r="19" spans="2:33" ht="141.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="95"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="88"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="17" t="s">
         <v>5</v>
       </c>
@@ -2631,8 +2631,8 @@
       <c r="S19" s="49"/>
       <c r="T19" s="49"/>
       <c r="U19" s="49"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
       <c r="X19" s="56" t="s">
         <v>104</v>
       </c>
@@ -2640,16 +2640,16 @@
       <c r="Z19" s="55"/>
       <c r="AA19" s="55"/>
       <c r="AB19" s="53"/>
-      <c r="AC19" s="123"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="16"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
     </row>
     <row r="20" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="95"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="88"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="17" t="s">
         <v>6</v>
       </c>
@@ -2683,8 +2683,8 @@
       <c r="S20" s="49"/>
       <c r="T20" s="49"/>
       <c r="U20" s="49"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
       <c r="X20" s="56" t="s">
         <v>105</v>
       </c>
@@ -2692,16 +2692,16 @@
       <c r="Z20" s="55"/>
       <c r="AA20" s="55"/>
       <c r="AB20" s="53"/>
-      <c r="AC20" s="123"/>
-      <c r="AD20" s="70"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="16"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
     </row>
     <row r="21" spans="2:33" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="95"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="88"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="17" t="s">
         <v>18</v>
       </c>
@@ -2737,15 +2737,15 @@
       <c r="AA21" s="57"/>
       <c r="AB21" s="53"/>
       <c r="AC21" s="55"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="16"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
     </row>
     <row r="22" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="95"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="88"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="17" t="s">
         <v>7</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="S22" s="49"/>
       <c r="T22" s="49"/>
       <c r="U22" s="49"/>
-      <c r="V22" s="93" t="s">
+      <c r="V22" s="77" t="s">
         <v>101</v>
       </c>
       <c r="W22" s="49"/>
@@ -2779,19 +2779,19 @@
       <c r="Y22" s="55"/>
       <c r="Z22" s="55"/>
       <c r="AA22" s="55"/>
-      <c r="AB22" s="60" t="s">
+      <c r="AB22" s="78" t="s">
         <v>118</v>
       </c>
       <c r="AC22" s="55"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="16"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="78"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
     </row>
     <row r="23" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="95"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="88"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="17" t="s">
         <v>8</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="S23" s="49"/>
       <c r="T23" s="49"/>
       <c r="U23" s="49"/>
-      <c r="V23" s="93"/>
+      <c r="V23" s="77"/>
       <c r="W23" s="49"/>
       <c r="X23" s="56" t="s">
         <v>48</v>
@@ -2823,17 +2823,17 @@
       <c r="Y23" s="55"/>
       <c r="Z23" s="55"/>
       <c r="AA23" s="55"/>
-      <c r="AB23" s="100"/>
+      <c r="AB23" s="107"/>
       <c r="AC23" s="55"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="16"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="78"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="59"/>
     </row>
     <row r="24" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="95"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="88"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="17" t="s">
         <v>9</v>
       </c>
@@ -2857,7 +2857,7 @@
       <c r="S24" s="49"/>
       <c r="T24" s="49"/>
       <c r="U24" s="49"/>
-      <c r="V24" s="93"/>
+      <c r="V24" s="77"/>
       <c r="W24" s="49"/>
       <c r="X24" s="56" t="s">
         <v>107</v>
@@ -2865,17 +2865,17 @@
       <c r="Y24" s="55"/>
       <c r="Z24" s="55"/>
       <c r="AA24" s="55"/>
-      <c r="AB24" s="100"/>
+      <c r="AB24" s="107"/>
       <c r="AC24" s="55"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="62"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="16"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="78"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
     </row>
     <row r="25" spans="2:33" ht="127.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="95"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="88"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="17" t="s">
         <v>10</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="S25" s="49"/>
       <c r="T25" s="49"/>
       <c r="U25" s="49"/>
-      <c r="V25" s="93"/>
+      <c r="V25" s="77"/>
       <c r="W25" s="49"/>
       <c r="X25" s="56" t="s">
         <v>49</v>
@@ -2907,17 +2907,17 @@
       <c r="Y25" s="55"/>
       <c r="Z25" s="55"/>
       <c r="AA25" s="55"/>
-      <c r="AB25" s="100"/>
+      <c r="AB25" s="107"/>
       <c r="AC25" s="55"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="62"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="16"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="78"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="59"/>
     </row>
     <row r="26" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="96"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="89"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="84"/>
       <c r="E26" s="19" t="s">
         <v>11</v>
       </c>
@@ -2941,7 +2941,7 @@
       <c r="S26" s="49"/>
       <c r="T26" s="49"/>
       <c r="U26" s="49"/>
-      <c r="V26" s="93"/>
+      <c r="V26" s="77"/>
       <c r="W26" s="49"/>
       <c r="X26" s="58" t="s">
         <v>47</v>
@@ -2949,21 +2949,21 @@
       <c r="Y26" s="55"/>
       <c r="Z26" s="55"/>
       <c r="AA26" s="55"/>
-      <c r="AB26" s="100"/>
+      <c r="AB26" s="107"/>
       <c r="AC26" s="55"/>
-      <c r="AD26" s="21"/>
-      <c r="AE26" s="63"/>
-      <c r="AF26" s="21"/>
-      <c r="AG26" s="22"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="78"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
     </row>
     <row r="28" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="3" t="s">
         <v>30</v>
       </c>
@@ -3050,10 +3050,10 @@
       </c>
     </row>
     <row r="30" spans="2:33" s="2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="76"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="5">
         <v>44284</v>
       </c>
@@ -3140,27 +3140,27 @@
       </c>
     </row>
     <row r="31" spans="2:33" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="84" t="s">
+      <c r="D31" s="112"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84" t="s">
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="27"/>
@@ -3182,17 +3182,17 @@
       <c r="AG31" s="29"/>
     </row>
     <row r="32" spans="2:33" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="102"/>
-      <c r="C32" s="61" t="s">
+      <c r="B32" s="109"/>
+      <c r="C32" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="86" t="s">
+      <c r="D32" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="86"/>
+      <c r="E32" s="81"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="70" t="s">
         <v>42</v>
       </c>
       <c r="I32" s="14" t="s">
@@ -3210,7 +3210,7 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="61" t="s">
+      <c r="T32" s="70" t="s">
         <v>52</v>
       </c>
       <c r="U32" s="13"/>
@@ -3228,9 +3228,9 @@
       <c r="AG32" s="16"/>
     </row>
     <row r="33" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="102"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="86" t="s">
+      <c r="B33" s="109"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="81" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="17" t="s">
@@ -3238,8 +3238,8 @@
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="61" t="s">
+      <c r="H33" s="71"/>
+      <c r="I33" s="70" t="s">
         <v>54</v>
       </c>
       <c r="J33" s="13"/>
@@ -3248,13 +3248,13 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
-      <c r="P33" s="85" t="s">
+      <c r="P33" s="63" t="s">
         <v>88</v>
       </c>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="62"/>
+      <c r="T33" s="71"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
@@ -3270,27 +3270,27 @@
       <c r="AG33" s="16"/>
     </row>
     <row r="34" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="102"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="86"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="81"/>
       <c r="E34" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
-      <c r="P34" s="85"/>
+      <c r="P34" s="63"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="62"/>
+      <c r="T34" s="71"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
@@ -3306,27 +3306,27 @@
       <c r="AG34" s="16"/>
     </row>
     <row r="35" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="102"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="86"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="81"/>
       <c r="E35" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="85"/>
+      <c r="P35" s="63"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="62"/>
+      <c r="T35" s="71"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
@@ -3342,9 +3342,9 @@
       <c r="AG35" s="16"/>
     </row>
     <row r="36" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="102"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="86"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="81"/>
       <c r="E36" s="17" t="s">
         <v>18</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="62"/>
+      <c r="T36" s="71"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
@@ -3378,16 +3378,16 @@
       <c r="AG36" s="16"/>
     </row>
     <row r="37" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="102"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="86"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="81"/>
       <c r="E37" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="61" t="s">
+      <c r="I37" s="70" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="13"/>
@@ -3400,7 +3400,7 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
-      <c r="T37" s="62"/>
+      <c r="T37" s="71"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
       <c r="W37" s="13"/>
@@ -3416,16 +3416,16 @@
       <c r="AG37" s="16"/>
     </row>
     <row r="38" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="102"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="86"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="81"/>
       <c r="E38" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="62"/>
+      <c r="I38" s="71"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -3436,7 +3436,7 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
-      <c r="T38" s="62"/>
+      <c r="T38" s="71"/>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
@@ -3452,16 +3452,16 @@
       <c r="AG38" s="16"/>
     </row>
     <row r="39" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="102"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="86"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="81"/>
       <c r="E39" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="67"/>
+      <c r="I39" s="72"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -3472,7 +3472,7 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="67"/>
+      <c r="T39" s="72"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
@@ -3488,9 +3488,9 @@
       <c r="AG39" s="16"/>
     </row>
     <row r="40" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="102"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="86"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="81"/>
       <c r="E40" s="17" t="s">
         <v>10</v>
       </c>
@@ -3524,9 +3524,9 @@
       <c r="AG40" s="16"/>
     </row>
     <row r="41" spans="2:33" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="103"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="87"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="82"/>
       <c r="E41" s="31" t="s">
         <v>11</v>
       </c>
@@ -3560,69 +3560,69 @@
       <c r="AG41" s="34"/>
     </row>
     <row r="42" spans="2:33" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="108" t="s">
+      <c r="B42" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="97" t="s">
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="97" t="s">
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="107"/>
-      <c r="P42" s="97" t="s">
+      <c r="K42" s="98"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="98"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
-      <c r="S42" s="106"/>
-      <c r="T42" s="106"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="107"/>
+      <c r="Q42" s="98"/>
+      <c r="R42" s="98"/>
+      <c r="S42" s="98"/>
+      <c r="T42" s="98"/>
+      <c r="U42" s="98"/>
+      <c r="V42" s="99"/>
       <c r="W42" s="23"/>
       <c r="X42" s="23"/>
       <c r="Y42" s="23"/>
       <c r="Z42" s="23"/>
-      <c r="AA42" s="71" t="s">
+      <c r="AA42" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="AB42" s="72"/>
-      <c r="AC42" s="72"/>
-      <c r="AD42" s="72"/>
-      <c r="AE42" s="72"/>
-      <c r="AF42" s="72"/>
-      <c r="AG42" s="118"/>
+      <c r="AB42" s="65"/>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="65"/>
+      <c r="AE42" s="65"/>
+      <c r="AF42" s="65"/>
+      <c r="AG42" s="66"/>
     </row>
     <row r="43" spans="2:33" ht="135" x14ac:dyDescent="0.3">
-      <c r="B43" s="109"/>
-      <c r="C43" s="61" t="s">
+      <c r="B43" s="101"/>
+      <c r="C43" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="86" t="s">
+      <c r="D43" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="86"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="35"/>
       <c r="G43" s="30"/>
-      <c r="H43" s="68" t="s">
+      <c r="H43" s="104" t="s">
         <v>117</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="61" t="s">
+      <c r="J43" s="70" t="s">
         <v>55</v>
       </c>
       <c r="K43" s="13"/>
@@ -3630,23 +3630,23 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
-      <c r="P43" s="61" t="s">
+      <c r="P43" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="Q43" s="61" t="s">
+      <c r="Q43" s="70" t="s">
         <v>58</v>
       </c>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
-      <c r="T43" s="61" t="s">
+      <c r="T43" s="70" t="s">
         <v>57</v>
       </c>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
-      <c r="W43" s="61" t="s">
+      <c r="W43" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="X43" s="61" t="s">
+      <c r="X43" s="70" t="s">
         <v>60</v>
       </c>
       <c r="Y43" s="13"/>
@@ -3654,7 +3654,7 @@
       <c r="AA43" s="35"/>
       <c r="AB43" s="30"/>
       <c r="AC43" s="13"/>
-      <c r="AD43" s="61" t="s">
+      <c r="AD43" s="70" t="s">
         <v>62</v>
       </c>
       <c r="AE43" s="13"/>
@@ -3662,9 +3662,9 @@
       <c r="AG43" s="16"/>
     </row>
     <row r="44" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="109"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="86" t="s">
+      <c r="B44" s="101"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="81" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="17" t="s">
@@ -3672,111 +3672,111 @@
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="85" t="s">
+      <c r="H44" s="105"/>
+      <c r="I44" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="J44" s="62"/>
+      <c r="J44" s="71"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
-      <c r="T44" s="62"/>
+      <c r="T44" s="71"/>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
       <c r="AC44" s="13"/>
-      <c r="AD44" s="62"/>
+      <c r="AD44" s="71"/>
       <c r="AE44" s="13"/>
       <c r="AF44" s="13"/>
       <c r="AG44" s="16"/>
     </row>
     <row r="45" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="109"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="86"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="81"/>
       <c r="E45" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="62"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="71"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
-      <c r="T45" s="62"/>
+      <c r="T45" s="71"/>
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="13"/>
-      <c r="AD45" s="62"/>
+      <c r="AD45" s="71"/>
       <c r="AE45" s="13"/>
       <c r="AF45" s="13"/>
       <c r="AG45" s="16"/>
     </row>
     <row r="46" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="109"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="86"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="81"/>
       <c r="E46" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="62"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="71"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
-      <c r="T46" s="62"/>
+      <c r="T46" s="71"/>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
-      <c r="W46" s="62"/>
-      <c r="X46" s="62"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="71"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="13"/>
       <c r="AC46" s="13"/>
-      <c r="AD46" s="62"/>
+      <c r="AD46" s="71"/>
       <c r="AE46" s="13"/>
       <c r="AF46" s="13"/>
       <c r="AG46" s="16"/>
     </row>
     <row r="47" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="109"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="86"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="81"/>
       <c r="E47" s="17" t="s">
         <v>18</v>
       </c>
@@ -3784,221 +3784,221 @@
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="62"/>
+      <c r="J47" s="71"/>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
-      <c r="T47" s="62"/>
+      <c r="T47" s="71"/>
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
-      <c r="W47" s="62"/>
-      <c r="X47" s="62"/>
+      <c r="W47" s="71"/>
+      <c r="X47" s="71"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
       <c r="AC47" s="13"/>
-      <c r="AD47" s="62"/>
+      <c r="AD47" s="71"/>
       <c r="AE47" s="13"/>
       <c r="AF47" s="13"/>
       <c r="AG47" s="16"/>
     </row>
     <row r="48" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="109"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="86"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="81"/>
       <c r="E48" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="61" t="s">
+      <c r="I48" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="62"/>
+      <c r="J48" s="71"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="62"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
-      <c r="T48" s="62"/>
+      <c r="T48" s="71"/>
       <c r="U48" s="13"/>
       <c r="V48" s="13"/>
-      <c r="W48" s="62"/>
-      <c r="X48" s="62"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="71"/>
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
       <c r="AB48" s="13"/>
       <c r="AC48" s="13"/>
-      <c r="AD48" s="62"/>
+      <c r="AD48" s="71"/>
       <c r="AE48" s="13"/>
       <c r="AF48" s="13"/>
       <c r="AG48" s="16"/>
     </row>
     <row r="49" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="109"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="86"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="81"/>
       <c r="E49" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
-      <c r="T49" s="62"/>
+      <c r="T49" s="71"/>
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
-      <c r="W49" s="62"/>
-      <c r="X49" s="62"/>
+      <c r="W49" s="71"/>
+      <c r="X49" s="71"/>
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
       <c r="AB49" s="13"/>
       <c r="AC49" s="13"/>
-      <c r="AD49" s="62"/>
+      <c r="AD49" s="71"/>
       <c r="AE49" s="13"/>
       <c r="AF49" s="13"/>
       <c r="AG49" s="16"/>
     </row>
     <row r="50" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="109"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="86"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
-      <c r="T50" s="67"/>
+      <c r="T50" s="72"/>
       <c r="U50" s="13"/>
       <c r="V50" s="13"/>
-      <c r="W50" s="62"/>
-      <c r="X50" s="62"/>
+      <c r="W50" s="71"/>
+      <c r="X50" s="71"/>
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
       <c r="AC50" s="13"/>
-      <c r="AD50" s="62"/>
+      <c r="AD50" s="71"/>
       <c r="AE50" s="13"/>
       <c r="AF50" s="13"/>
       <c r="AG50" s="16"/>
     </row>
     <row r="51" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="109"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="86"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="81"/>
       <c r="E51" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
       <c r="V51" s="13"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62"/>
+      <c r="W51" s="71"/>
+      <c r="X51" s="71"/>
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
-      <c r="AD51" s="62"/>
+      <c r="AD51" s="71"/>
       <c r="AE51" s="13"/>
       <c r="AF51" s="13"/>
       <c r="AG51" s="16"/>
     </row>
     <row r="52" spans="2:33" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="110"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="77"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="94"/>
       <c r="E52" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="63"/>
+      <c r="P52" s="80"/>
+      <c r="Q52" s="80"/>
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
       <c r="T52" s="21"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
-      <c r="W52" s="63"/>
-      <c r="X52" s="63"/>
+      <c r="W52" s="80"/>
+      <c r="X52" s="80"/>
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
       <c r="AA52" s="21"/>
       <c r="AB52" s="21"/>
       <c r="AC52" s="21"/>
-      <c r="AD52" s="63"/>
+      <c r="AD52" s="80"/>
       <c r="AE52" s="21"/>
       <c r="AF52" s="21"/>
       <c r="AG52" s="22"/>
     </row>
     <row r="54" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="104" t="s">
+      <c r="B55" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
       <c r="F55" s="3" t="s">
         <v>30</v>
       </c>
@@ -4064,10 +4064,10 @@
       </c>
     </row>
     <row r="56" spans="2:33" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="76"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
       <c r="F56" s="5">
         <v>44312</v>
       </c>
@@ -4133,14 +4133,14 @@
       </c>
     </row>
     <row r="57" spans="2:33" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="78" t="s">
+      <c r="B57" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="105" t="s">
+      <c r="C57" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="97"/>
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="9"/>
@@ -4159,24 +4159,24 @@
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
       <c r="W57" s="10"/>
-      <c r="X57" s="119" t="s">
+      <c r="X57" s="73" t="s">
         <v>63</v>
       </c>
       <c r="Y57" s="42"/>
       <c r="Z57" s="29"/>
     </row>
     <row r="58" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="78"/>
-      <c r="C58" s="61" t="s">
+      <c r="B58" s="95"/>
+      <c r="C58" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="86" t="s">
+      <c r="D58" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="86"/>
+      <c r="E58" s="81"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="61" t="s">
+      <c r="H58" s="70" t="s">
         <v>61</v>
       </c>
       <c r="I58" s="13"/>
@@ -4186,26 +4186,26 @@
       <c r="M58" s="14"/>
       <c r="N58" s="13"/>
       <c r="O58" s="14"/>
-      <c r="P58" s="61" t="s">
+      <c r="P58" s="70" t="s">
         <v>86</v>
       </c>
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
-      <c r="T58" s="61" t="s">
+      <c r="T58" s="70" t="s">
         <v>85</v>
       </c>
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
       <c r="W58" s="16"/>
-      <c r="X58" s="120"/>
+      <c r="X58" s="74"/>
       <c r="Y58" s="43"/>
       <c r="Z58" s="16"/>
     </row>
     <row r="59" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="78"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="87" t="s">
+      <c r="B59" s="95"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="82" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="17" t="s">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="62"/>
+      <c r="H59" s="71"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
@@ -4221,28 +4221,28 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
-      <c r="P59" s="62"/>
+      <c r="P59" s="71"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
-      <c r="T59" s="62"/>
+      <c r="T59" s="71"/>
       <c r="U59" s="13"/>
       <c r="V59" s="13"/>
       <c r="W59" s="16"/>
-      <c r="X59" s="120"/>
+      <c r="X59" s="74"/>
       <c r="Y59" s="43"/>
       <c r="Z59" s="16"/>
     </row>
     <row r="60" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="78"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="88"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="83"/>
       <c r="E60" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="62"/>
+      <c r="H60" s="71"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -4250,28 +4250,28 @@
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
-      <c r="P60" s="62"/>
+      <c r="P60" s="71"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
-      <c r="T60" s="62"/>
+      <c r="T60" s="71"/>
       <c r="U60" s="13"/>
       <c r="V60" s="13"/>
       <c r="W60" s="16"/>
-      <c r="X60" s="120"/>
+      <c r="X60" s="74"/>
       <c r="Y60" s="43"/>
       <c r="Z60" s="16"/>
     </row>
     <row r="61" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="78"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="88"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="83"/>
       <c r="E61" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="62"/>
+      <c r="H61" s="71"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
@@ -4279,28 +4279,28 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
-      <c r="P61" s="62"/>
+      <c r="P61" s="71"/>
       <c r="Q61" s="13"/>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
-      <c r="T61" s="62"/>
+      <c r="T61" s="71"/>
       <c r="U61" s="13"/>
       <c r="V61" s="13"/>
       <c r="W61" s="16"/>
-      <c r="X61" s="120"/>
+      <c r="X61" s="74"/>
       <c r="Y61" s="43"/>
       <c r="Z61" s="16"/>
     </row>
     <row r="62" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B62" s="78"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="88"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="83"/>
       <c r="E62" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="62"/>
+      <c r="H62" s="71"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
@@ -4308,28 +4308,28 @@
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
-      <c r="P62" s="62"/>
+      <c r="P62" s="71"/>
       <c r="Q62" s="13"/>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
-      <c r="T62" s="62"/>
+      <c r="T62" s="71"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
       <c r="W62" s="16"/>
-      <c r="X62" s="120"/>
+      <c r="X62" s="74"/>
       <c r="Y62" s="43"/>
       <c r="Z62" s="16"/>
     </row>
     <row r="63" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="78"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="88"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="83"/>
       <c r="E63" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="62"/>
+      <c r="H63" s="71"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
@@ -4337,28 +4337,28 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
-      <c r="P63" s="62"/>
+      <c r="P63" s="71"/>
       <c r="Q63" s="13"/>
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
-      <c r="T63" s="62"/>
+      <c r="T63" s="71"/>
       <c r="U63" s="13"/>
       <c r="V63" s="13"/>
       <c r="W63" s="16"/>
-      <c r="X63" s="120"/>
+      <c r="X63" s="74"/>
       <c r="Y63" s="43"/>
       <c r="Z63" s="16"/>
     </row>
     <row r="64" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B64" s="78"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="88"/>
+      <c r="B64" s="95"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="83"/>
       <c r="E64" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="62"/>
+      <c r="H64" s="71"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
@@ -4366,28 +4366,28 @@
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
-      <c r="P64" s="62"/>
+      <c r="P64" s="71"/>
       <c r="Q64" s="13"/>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
-      <c r="T64" s="62"/>
+      <c r="T64" s="71"/>
       <c r="U64" s="13"/>
       <c r="V64" s="13"/>
       <c r="W64" s="16"/>
-      <c r="X64" s="120"/>
+      <c r="X64" s="74"/>
       <c r="Y64" s="43"/>
       <c r="Z64" s="16"/>
     </row>
     <row r="65" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B65" s="78"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="88"/>
+      <c r="B65" s="95"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="83"/>
       <c r="E65" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="67"/>
+      <c r="H65" s="72"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
@@ -4395,22 +4395,22 @@
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
-      <c r="P65" s="62"/>
+      <c r="P65" s="71"/>
       <c r="Q65" s="13"/>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
-      <c r="T65" s="62"/>
+      <c r="T65" s="71"/>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
       <c r="W65" s="16"/>
-      <c r="X65" s="120"/>
+      <c r="X65" s="74"/>
       <c r="Y65" s="43"/>
       <c r="Z65" s="16"/>
     </row>
     <row r="66" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B66" s="78"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="88"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="83"/>
       <c r="E66" s="17" t="s">
         <v>10</v>
       </c>
@@ -4424,22 +4424,22 @@
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
-      <c r="P66" s="62"/>
+      <c r="P66" s="71"/>
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
-      <c r="T66" s="62"/>
+      <c r="T66" s="71"/>
       <c r="U66" s="13"/>
       <c r="V66" s="13"/>
       <c r="W66" s="16"/>
-      <c r="X66" s="120"/>
+      <c r="X66" s="74"/>
       <c r="Y66" s="43"/>
       <c r="Z66" s="16"/>
     </row>
     <row r="67" spans="2:26" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="79"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="89"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="84"/>
       <c r="E67" s="19" t="s">
         <v>11</v>
       </c>
@@ -4453,34 +4453,34 @@
       <c r="M67" s="21"/>
       <c r="N67" s="21"/>
       <c r="O67" s="21"/>
-      <c r="P67" s="63"/>
+      <c r="P67" s="80"/>
       <c r="Q67" s="21"/>
       <c r="R67" s="21"/>
       <c r="S67" s="21"/>
-      <c r="T67" s="63"/>
+      <c r="T67" s="80"/>
       <c r="U67" s="21"/>
       <c r="V67" s="21"/>
       <c r="W67" s="22"/>
-      <c r="X67" s="120"/>
+      <c r="X67" s="74"/>
       <c r="Y67" s="44"/>
       <c r="Z67" s="22"/>
     </row>
     <row r="68" spans="2:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="94" t="s">
+      <c r="B68" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="112" t="s">
+      <c r="C68" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="113"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="97" t="s">
+      <c r="D68" s="89"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="98"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
       <c r="M68" s="45"/>
@@ -4494,19 +4494,19 @@
       <c r="U68" s="46"/>
       <c r="V68" s="46"/>
       <c r="W68" s="47"/>
-      <c r="X68" s="120"/>
+      <c r="X68" s="74"/>
       <c r="Y68" s="37"/>
       <c r="Z68" s="4"/>
     </row>
     <row r="69" spans="2:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="95"/>
-      <c r="C69" s="61" t="s">
+      <c r="B69" s="86"/>
+      <c r="C69" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="86" t="s">
+      <c r="D69" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="86"/>
+      <c r="E69" s="81"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
@@ -4514,33 +4514,33 @@
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
-      <c r="M69" s="61" t="s">
+      <c r="M69" s="70" t="s">
         <v>84</v>
       </c>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
-      <c r="P69" s="61" t="s">
+      <c r="P69" s="70" t="s">
         <v>86</v>
       </c>
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
-      <c r="T69" s="61" t="s">
+      <c r="T69" s="70" t="s">
         <v>87</v>
       </c>
       <c r="U69" s="13"/>
-      <c r="V69" s="61" t="s">
+      <c r="V69" s="70" t="s">
         <v>84</v>
       </c>
       <c r="W69" s="16"/>
-      <c r="X69" s="120"/>
+      <c r="X69" s="74"/>
       <c r="Y69" s="43"/>
       <c r="Z69" s="16"/>
     </row>
     <row r="70" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B70" s="95"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="87" t="s">
+      <c r="B70" s="86"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="82" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="17" t="s">
@@ -4553,25 +4553,25 @@
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
-      <c r="M70" s="62"/>
+      <c r="M70" s="71"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
-      <c r="P70" s="62"/>
+      <c r="P70" s="71"/>
       <c r="Q70" s="13"/>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
-      <c r="T70" s="62"/>
+      <c r="T70" s="71"/>
       <c r="U70" s="13"/>
-      <c r="V70" s="62"/>
+      <c r="V70" s="71"/>
       <c r="W70" s="16"/>
-      <c r="X70" s="120"/>
+      <c r="X70" s="74"/>
       <c r="Y70" s="43"/>
       <c r="Z70" s="16"/>
     </row>
     <row r="71" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B71" s="95"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="88"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="83"/>
       <c r="E71" s="17" t="s">
         <v>5</v>
       </c>
@@ -4582,25 +4582,25 @@
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
-      <c r="M71" s="62"/>
+      <c r="M71" s="71"/>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
-      <c r="P71" s="62"/>
+      <c r="P71" s="71"/>
       <c r="Q71" s="13"/>
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
-      <c r="T71" s="62"/>
+      <c r="T71" s="71"/>
       <c r="U71" s="13"/>
-      <c r="V71" s="62"/>
+      <c r="V71" s="71"/>
       <c r="W71" s="16"/>
-      <c r="X71" s="120"/>
+      <c r="X71" s="74"/>
       <c r="Y71" s="43"/>
       <c r="Z71" s="16"/>
     </row>
     <row r="72" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B72" s="95"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="88"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="83"/>
       <c r="E72" s="17" t="s">
         <v>6</v>
       </c>
@@ -4611,25 +4611,25 @@
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
-      <c r="M72" s="62"/>
+      <c r="M72" s="71"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
-      <c r="P72" s="62"/>
+      <c r="P72" s="71"/>
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
-      <c r="T72" s="62"/>
+      <c r="T72" s="71"/>
       <c r="U72" s="13"/>
-      <c r="V72" s="62"/>
+      <c r="V72" s="71"/>
       <c r="W72" s="16"/>
-      <c r="X72" s="120"/>
+      <c r="X72" s="74"/>
       <c r="Y72" s="43"/>
       <c r="Z72" s="16"/>
     </row>
     <row r="73" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B73" s="95"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="88"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="83"/>
       <c r="E73" s="17" t="s">
         <v>18</v>
       </c>
@@ -4640,25 +4640,25 @@
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
-      <c r="M73" s="62"/>
+      <c r="M73" s="71"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
-      <c r="P73" s="62"/>
+      <c r="P73" s="71"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
-      <c r="T73" s="62"/>
+      <c r="T73" s="71"/>
       <c r="U73" s="13"/>
-      <c r="V73" s="62"/>
+      <c r="V73" s="71"/>
       <c r="W73" s="16"/>
-      <c r="X73" s="120"/>
+      <c r="X73" s="74"/>
       <c r="Y73" s="43"/>
       <c r="Z73" s="16"/>
     </row>
     <row r="74" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B74" s="95"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="88"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="83"/>
       <c r="E74" s="17" t="s">
         <v>7</v>
       </c>
@@ -4669,25 +4669,25 @@
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
-      <c r="M74" s="62"/>
+      <c r="M74" s="71"/>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
-      <c r="P74" s="62"/>
+      <c r="P74" s="71"/>
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
-      <c r="T74" s="62"/>
+      <c r="T74" s="71"/>
       <c r="U74" s="13"/>
-      <c r="V74" s="62"/>
+      <c r="V74" s="71"/>
       <c r="W74" s="16"/>
-      <c r="X74" s="120"/>
+      <c r="X74" s="74"/>
       <c r="Y74" s="43"/>
       <c r="Z74" s="16"/>
     </row>
     <row r="75" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B75" s="95"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="88"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="83"/>
       <c r="E75" s="17" t="s">
         <v>8</v>
       </c>
@@ -4698,25 +4698,25 @@
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
-      <c r="M75" s="62"/>
+      <c r="M75" s="71"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
-      <c r="P75" s="62"/>
+      <c r="P75" s="71"/>
       <c r="Q75" s="13"/>
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
-      <c r="T75" s="62"/>
+      <c r="T75" s="71"/>
       <c r="U75" s="13"/>
-      <c r="V75" s="62"/>
+      <c r="V75" s="71"/>
       <c r="W75" s="16"/>
-      <c r="X75" s="120"/>
+      <c r="X75" s="74"/>
       <c r="Y75" s="43"/>
       <c r="Z75" s="16"/>
     </row>
     <row r="76" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B76" s="95"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="88"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="83"/>
       <c r="E76" s="17" t="s">
         <v>9</v>
       </c>
@@ -4727,25 +4727,25 @@
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
-      <c r="M76" s="62"/>
+      <c r="M76" s="71"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
-      <c r="P76" s="62"/>
+      <c r="P76" s="71"/>
       <c r="Q76" s="13"/>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
-      <c r="T76" s="62"/>
+      <c r="T76" s="71"/>
       <c r="U76" s="13"/>
-      <c r="V76" s="62"/>
+      <c r="V76" s="71"/>
       <c r="W76" s="16"/>
-      <c r="X76" s="120"/>
+      <c r="X76" s="74"/>
       <c r="Y76" s="43"/>
       <c r="Z76" s="16"/>
     </row>
     <row r="77" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B77" s="95"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="88"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="83"/>
       <c r="E77" s="17" t="s">
         <v>10</v>
       </c>
@@ -4756,25 +4756,25 @@
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
-      <c r="M77" s="62"/>
+      <c r="M77" s="71"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
-      <c r="P77" s="62"/>
+      <c r="P77" s="71"/>
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
-      <c r="T77" s="62"/>
+      <c r="T77" s="71"/>
       <c r="U77" s="13"/>
-      <c r="V77" s="62"/>
+      <c r="V77" s="71"/>
       <c r="W77" s="16"/>
-      <c r="X77" s="120"/>
+      <c r="X77" s="74"/>
       <c r="Y77" s="43"/>
       <c r="Z77" s="16"/>
     </row>
     <row r="78" spans="2:26" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="96"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="89"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="84"/>
       <c r="E78" s="19" t="s">
         <v>11</v>
       </c>
@@ -4785,23 +4785,92 @@
       <c r="J78" s="21"/>
       <c r="K78" s="21"/>
       <c r="L78" s="21"/>
-      <c r="M78" s="63"/>
+      <c r="M78" s="80"/>
       <c r="N78" s="21"/>
       <c r="O78" s="21"/>
-      <c r="P78" s="63"/>
+      <c r="P78" s="80"/>
       <c r="Q78" s="21"/>
       <c r="R78" s="21"/>
       <c r="S78" s="21"/>
-      <c r="T78" s="63"/>
+      <c r="T78" s="80"/>
       <c r="U78" s="21"/>
-      <c r="V78" s="63"/>
+      <c r="V78" s="80"/>
       <c r="W78" s="22"/>
-      <c r="X78" s="121"/>
+      <c r="X78" s="75"/>
       <c r="Y78" s="44"/>
       <c r="Z78" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="V69:V78"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="H58:H65"/>
+    <mergeCell ref="P58:P67"/>
+    <mergeCell ref="T58:T67"/>
+    <mergeCell ref="M69:M78"/>
+    <mergeCell ref="P69:P78"/>
+    <mergeCell ref="T69:T78"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="V6:V9"/>
+    <mergeCell ref="W6:W9"/>
+    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="V22:V26"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="V17:V20"/>
+    <mergeCell ref="W17:W20"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="AC18:AC20"/>
+    <mergeCell ref="AD18:AD20"/>
+    <mergeCell ref="AB22:AB26"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="B55:E56"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="P42:V42"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:D52"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="I48:I52"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="J43:J52"/>
+    <mergeCell ref="P43:P52"/>
+    <mergeCell ref="Q43:Q52"/>
+    <mergeCell ref="C58:C67"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:D67"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:D78"/>
     <mergeCell ref="X5:AB5"/>
     <mergeCell ref="P33:P35"/>
     <mergeCell ref="AA42:AG42"/>
@@ -4818,75 +4887,6 @@
     <mergeCell ref="W43:W52"/>
     <mergeCell ref="X43:X52"/>
     <mergeCell ref="AD43:AD52"/>
-    <mergeCell ref="C58:C67"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:D67"/>
-    <mergeCell ref="B68:B78"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:C78"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:D78"/>
-    <mergeCell ref="B55:E56"/>
-    <mergeCell ref="B57:B67"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="P42:V42"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:D52"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="I48:I52"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="J43:J52"/>
-    <mergeCell ref="P43:P52"/>
-    <mergeCell ref="Q43:Q52"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="AC18:AC20"/>
-    <mergeCell ref="AD18:AD20"/>
-    <mergeCell ref="AB22:AB26"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:D41"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="V6:V9"/>
-    <mergeCell ref="W6:W9"/>
-    <mergeCell ref="B16:B26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="V22:V26"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="V17:V20"/>
-    <mergeCell ref="W17:W20"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="V69:V78"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="H58:H65"/>
-    <mergeCell ref="P58:P67"/>
-    <mergeCell ref="T58:T67"/>
-    <mergeCell ref="M69:M78"/>
-    <mergeCell ref="P69:P78"/>
-    <mergeCell ref="T69:T78"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="X16:AD16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/마포구청 개발.디자인 진행 일정 및 내용_20210317_ver1.2.xlsx
+++ b/마포구청 개발.디자인 진행 일정 및 내용_20210317_ver1.2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skplanet\Gnoss-song\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="9750"/>
   </bookViews>
@@ -1082,7 +1077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1263,44 +1258,185 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="30" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1314,146 +1450,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1728,7 +1726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1742,7 +1740,7 @@
   <dimension ref="B2:AG78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+      <selection activeCell="F43" sqref="F43:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
@@ -1779,12 +1777,12 @@
   <sheetData>
     <row r="2" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:33" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1871,10 +1869,10 @@
       </c>
     </row>
     <row r="4" spans="2:33" s="2" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="5">
         <v>44256</v>
       </c>
@@ -1961,45 +1959,45 @@
       </c>
     </row>
     <row r="5" spans="2:33" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="120" t="s">
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="122"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="119" t="s">
+      <c r="P5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="114"/>
+      <c r="Q5" s="84"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="115" t="s">
+      <c r="T5" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="60" t="s">
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="62"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="118"/>
       <c r="AC5" s="53"/>
       <c r="AD5" s="53"/>
       <c r="AE5" s="53"/>
@@ -2007,14 +2005,14 @@
       <c r="AG5" s="59"/>
     </row>
     <row r="6" spans="2:33" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="95"/>
-      <c r="C6" s="63" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="81"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
         <v>65</v>
@@ -2043,10 +2041,10 @@
       <c r="S6" s="49"/>
       <c r="T6" s="49"/>
       <c r="U6" s="49"/>
-      <c r="V6" s="77" t="s">
+      <c r="V6" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="W6" s="77" t="s">
+      <c r="W6" s="93" t="s">
         <v>92</v>
       </c>
       <c r="X6" s="53"/>
@@ -2054,10 +2052,10 @@
       <c r="Z6" s="53"/>
       <c r="AA6" s="54"/>
       <c r="AB6" s="59"/>
-      <c r="AC6" s="78" t="s">
+      <c r="AC6" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" s="78" t="s">
+      <c r="AD6" s="60" t="s">
         <v>64</v>
       </c>
       <c r="AE6" s="53"/>
@@ -2065,9 +2063,9 @@
       <c r="AG6" s="59"/>
     </row>
     <row r="7" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="95"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -2099,23 +2097,23 @@
       <c r="S7" s="49"/>
       <c r="T7" s="49"/>
       <c r="U7" s="49"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
       <c r="X7" s="53"/>
       <c r="Y7" s="53"/>
       <c r="Z7" s="53"/>
       <c r="AA7" s="53"/>
       <c r="AB7" s="59"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="78"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="60"/>
       <c r="AE7" s="53"/>
       <c r="AF7" s="59"/>
       <c r="AG7" s="59"/>
     </row>
     <row r="8" spans="2:33" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="95"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="83"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="17" t="s">
         <v>5</v>
       </c>
@@ -2145,23 +2143,23 @@
       <c r="S8" s="49"/>
       <c r="T8" s="49"/>
       <c r="U8" s="49"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
       <c r="X8" s="53"/>
       <c r="Y8" s="53"/>
       <c r="Z8" s="53"/>
       <c r="AA8" s="53"/>
       <c r="AB8" s="59"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="78"/>
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="60"/>
       <c r="AE8" s="53"/>
       <c r="AF8" s="59"/>
       <c r="AG8" s="59"/>
     </row>
     <row r="9" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="95"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="83"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="17" t="s">
         <v>6</v>
       </c>
@@ -2191,23 +2189,23 @@
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
       <c r="U9" s="49"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
       <c r="X9" s="53"/>
       <c r="Y9" s="53"/>
       <c r="Z9" s="53"/>
       <c r="AA9" s="53"/>
       <c r="AB9" s="59"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="78"/>
+      <c r="AC9" s="100"/>
+      <c r="AD9" s="60"/>
       <c r="AE9" s="53"/>
       <c r="AF9" s="59"/>
       <c r="AG9" s="59"/>
     </row>
     <row r="10" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="95"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="83"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="17" t="s">
         <v>18</v>
       </c>
@@ -2243,9 +2241,9 @@
       <c r="AG10" s="59"/>
     </row>
     <row r="11" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="95"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="83"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="17" t="s">
         <v>7</v>
       </c>
@@ -2265,7 +2263,7 @@
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
       <c r="U11" s="49"/>
-      <c r="V11" s="77" t="s">
+      <c r="V11" s="93" t="s">
         <v>101</v>
       </c>
       <c r="W11" s="49"/>
@@ -2281,9 +2279,9 @@
       <c r="AG11" s="59"/>
     </row>
     <row r="12" spans="2:33" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="95"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="83"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="88"/>
       <c r="E12" s="17" t="s">
         <v>8</v>
       </c>
@@ -2303,9 +2301,9 @@
       <c r="S12" s="49"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
-      <c r="V12" s="77"/>
+      <c r="V12" s="93"/>
       <c r="W12" s="49"/>
-      <c r="X12" s="78" t="s">
+      <c r="X12" s="60" t="s">
         <v>119</v>
       </c>
       <c r="Y12" s="53"/>
@@ -2319,9 +2317,9 @@
       <c r="AG12" s="59"/>
     </row>
     <row r="13" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="95"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="83"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="88"/>
       <c r="E13" s="17" t="s">
         <v>9</v>
       </c>
@@ -2341,9 +2339,9 @@
       <c r="S13" s="49"/>
       <c r="T13" s="49"/>
       <c r="U13" s="49"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="93"/>
       <c r="W13" s="49"/>
-      <c r="X13" s="78"/>
+      <c r="X13" s="60"/>
       <c r="Y13" s="53"/>
       <c r="Z13" s="53"/>
       <c r="AA13" s="53"/>
@@ -2355,9 +2353,9 @@
       <c r="AG13" s="59"/>
     </row>
     <row r="14" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="95"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="83"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="17" t="s">
         <v>10</v>
       </c>
@@ -2377,9 +2375,9 @@
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
       <c r="U14" s="49"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="93"/>
       <c r="W14" s="49"/>
-      <c r="X14" s="78"/>
+      <c r="X14" s="60"/>
       <c r="Y14" s="53"/>
       <c r="Z14" s="53"/>
       <c r="AA14" s="53"/>
@@ -2391,9 +2389,9 @@
       <c r="AG14" s="59"/>
     </row>
     <row r="15" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="96"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="84"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="19" t="s">
         <v>11</v>
       </c>
@@ -2413,7 +2411,7 @@
       <c r="S15" s="49"/>
       <c r="T15" s="49"/>
       <c r="U15" s="49"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="49"/>
       <c r="X15" s="53"/>
       <c r="Y15" s="53"/>
@@ -2427,62 +2425,62 @@
       <c r="AG15" s="59"/>
     </row>
     <row r="16" spans="2:33" ht="107.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="120" t="s">
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
-      <c r="O16" s="67" t="s">
+      <c r="O16" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="118" t="s">
+      <c r="P16" s="98"/>
+      <c r="Q16" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="64" t="s">
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="123"/>
-      <c r="AE16" s="67" t="s">
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="76"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="123"/>
     </row>
     <row r="17" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="86"/>
-      <c r="C17" s="63" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="81"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="18"/>
       <c r="G17" s="11" t="s">
         <v>65</v>
@@ -2515,10 +2513,10 @@
       <c r="S17" s="49"/>
       <c r="T17" s="49"/>
       <c r="U17" s="49"/>
-      <c r="V17" s="77" t="s">
+      <c r="V17" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="W17" s="77" t="s">
+      <c r="W17" s="93" t="s">
         <v>92</v>
       </c>
       <c r="X17" s="54" t="s">
@@ -2530,16 +2528,16 @@
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
       <c r="AD17" s="54"/>
-      <c r="AE17" s="78" t="s">
+      <c r="AE17" s="60" t="s">
         <v>102</v>
       </c>
       <c r="AF17" s="59"/>
       <c r="AG17" s="59"/>
     </row>
     <row r="18" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="86"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82" t="s">
+      <c r="B18" s="95"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="17" t="s">
@@ -2575,8 +2573,8 @@
       <c r="S18" s="49"/>
       <c r="T18" s="49"/>
       <c r="U18" s="49"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
       <c r="X18" s="56" t="s">
         <v>103</v>
       </c>
@@ -2584,20 +2582,20 @@
       <c r="Z18" s="55"/>
       <c r="AA18" s="55"/>
       <c r="AB18" s="53"/>
-      <c r="AC18" s="78" t="s">
+      <c r="AC18" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="AD18" s="78" t="s">
+      <c r="AD18" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="AE18" s="78"/>
+      <c r="AE18" s="60"/>
       <c r="AF18" s="59"/>
       <c r="AG18" s="59"/>
     </row>
     <row r="19" spans="2:33" ht="141.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="86"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="83"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="17" t="s">
         <v>5</v>
       </c>
@@ -2631,8 +2629,8 @@
       <c r="S19" s="49"/>
       <c r="T19" s="49"/>
       <c r="U19" s="49"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
       <c r="X19" s="56" t="s">
         <v>104</v>
       </c>
@@ -2640,16 +2638,16 @@
       <c r="Z19" s="55"/>
       <c r="AA19" s="55"/>
       <c r="AB19" s="53"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="78"/>
+      <c r="AC19" s="100"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
       <c r="AF19" s="59"/>
       <c r="AG19" s="59"/>
     </row>
     <row r="20" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="86"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="83"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="17" t="s">
         <v>6</v>
       </c>
@@ -2683,8 +2681,8 @@
       <c r="S20" s="49"/>
       <c r="T20" s="49"/>
       <c r="U20" s="49"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
       <c r="X20" s="56" t="s">
         <v>105</v>
       </c>
@@ -2692,16 +2690,16 @@
       <c r="Z20" s="55"/>
       <c r="AA20" s="55"/>
       <c r="AB20" s="53"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="78"/>
+      <c r="AC20" s="100"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="60"/>
       <c r="AF20" s="59"/>
       <c r="AG20" s="59"/>
     </row>
     <row r="21" spans="2:33" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="86"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="83"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="17" t="s">
         <v>18</v>
       </c>
@@ -2738,14 +2736,14 @@
       <c r="AB21" s="53"/>
       <c r="AC21" s="55"/>
       <c r="AD21" s="55"/>
-      <c r="AE21" s="78"/>
+      <c r="AE21" s="60"/>
       <c r="AF21" s="59"/>
       <c r="AG21" s="59"/>
     </row>
     <row r="22" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="86"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="83"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="17" t="s">
         <v>7</v>
       </c>
@@ -2769,7 +2767,7 @@
       <c r="S22" s="49"/>
       <c r="T22" s="49"/>
       <c r="U22" s="49"/>
-      <c r="V22" s="77" t="s">
+      <c r="V22" s="93" t="s">
         <v>101</v>
       </c>
       <c r="W22" s="49"/>
@@ -2779,19 +2777,19 @@
       <c r="Y22" s="55"/>
       <c r="Z22" s="55"/>
       <c r="AA22" s="55"/>
-      <c r="AB22" s="78" t="s">
+      <c r="AB22" s="60" t="s">
         <v>118</v>
       </c>
       <c r="AC22" s="55"/>
       <c r="AD22" s="55"/>
-      <c r="AE22" s="78"/>
+      <c r="AE22" s="60"/>
       <c r="AF22" s="59"/>
       <c r="AG22" s="59"/>
     </row>
     <row r="23" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="86"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="83"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="17" t="s">
         <v>8</v>
       </c>
@@ -2815,7 +2813,7 @@
       <c r="S23" s="49"/>
       <c r="T23" s="49"/>
       <c r="U23" s="49"/>
-      <c r="V23" s="77"/>
+      <c r="V23" s="93"/>
       <c r="W23" s="49"/>
       <c r="X23" s="56" t="s">
         <v>48</v>
@@ -2823,17 +2821,17 @@
       <c r="Y23" s="55"/>
       <c r="Z23" s="55"/>
       <c r="AA23" s="55"/>
-      <c r="AB23" s="107"/>
+      <c r="AB23" s="101"/>
       <c r="AC23" s="55"/>
       <c r="AD23" s="55"/>
-      <c r="AE23" s="78"/>
+      <c r="AE23" s="60"/>
       <c r="AF23" s="59"/>
       <c r="AG23" s="59"/>
     </row>
     <row r="24" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="86"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="83"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="17" t="s">
         <v>9</v>
       </c>
@@ -2857,7 +2855,7 @@
       <c r="S24" s="49"/>
       <c r="T24" s="49"/>
       <c r="U24" s="49"/>
-      <c r="V24" s="77"/>
+      <c r="V24" s="93"/>
       <c r="W24" s="49"/>
       <c r="X24" s="56" t="s">
         <v>107</v>
@@ -2865,17 +2863,17 @@
       <c r="Y24" s="55"/>
       <c r="Z24" s="55"/>
       <c r="AA24" s="55"/>
-      <c r="AB24" s="107"/>
+      <c r="AB24" s="101"/>
       <c r="AC24" s="55"/>
       <c r="AD24" s="55"/>
-      <c r="AE24" s="78"/>
+      <c r="AE24" s="60"/>
       <c r="AF24" s="59"/>
       <c r="AG24" s="59"/>
     </row>
     <row r="25" spans="2:33" ht="127.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="86"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="83"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="17" t="s">
         <v>10</v>
       </c>
@@ -2899,7 +2897,7 @@
       <c r="S25" s="49"/>
       <c r="T25" s="49"/>
       <c r="U25" s="49"/>
-      <c r="V25" s="77"/>
+      <c r="V25" s="93"/>
       <c r="W25" s="49"/>
       <c r="X25" s="56" t="s">
         <v>49</v>
@@ -2907,17 +2905,17 @@
       <c r="Y25" s="55"/>
       <c r="Z25" s="55"/>
       <c r="AA25" s="55"/>
-      <c r="AB25" s="107"/>
+      <c r="AB25" s="101"/>
       <c r="AC25" s="55"/>
       <c r="AD25" s="55"/>
-      <c r="AE25" s="78"/>
+      <c r="AE25" s="60"/>
       <c r="AF25" s="59"/>
       <c r="AG25" s="59"/>
     </row>
     <row r="26" spans="2:33" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="87"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="84"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="19" t="s">
         <v>11</v>
       </c>
@@ -2941,7 +2939,7 @@
       <c r="S26" s="49"/>
       <c r="T26" s="49"/>
       <c r="U26" s="49"/>
-      <c r="V26" s="77"/>
+      <c r="V26" s="93"/>
       <c r="W26" s="49"/>
       <c r="X26" s="58" t="s">
         <v>47</v>
@@ -2949,21 +2947,21 @@
       <c r="Y26" s="55"/>
       <c r="Z26" s="55"/>
       <c r="AA26" s="55"/>
-      <c r="AB26" s="107"/>
+      <c r="AB26" s="101"/>
       <c r="AC26" s="55"/>
       <c r="AD26" s="55"/>
-      <c r="AE26" s="78"/>
+      <c r="AE26" s="60"/>
       <c r="AF26" s="59"/>
       <c r="AG26" s="59"/>
     </row>
     <row r="28" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="3" t="s">
         <v>30</v>
       </c>
@@ -3050,10 +3048,10 @@
       </c>
     </row>
     <row r="30" spans="2:33" s="2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="93"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="5">
         <v>44284</v>
       </c>
@@ -3139,28 +3137,28 @@
         <v>44311</v>
       </c>
     </row>
-    <row r="31" spans="2:33" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="108" t="s">
+    <row r="31" spans="2:33" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="111" t="s">
+      <c r="C31" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="114" t="s">
+      <c r="D31" s="81"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114" t="s">
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="27"/>
@@ -3181,18 +3179,18 @@
       <c r="AF31" s="28"/>
       <c r="AG31" s="29"/>
     </row>
-    <row r="32" spans="2:33" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="109"/>
-      <c r="C32" s="70" t="s">
+    <row r="32" spans="2:33" ht="142.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="103"/>
+      <c r="C32" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="81" t="s">
+      <c r="D32" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="13"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="70" t="s">
+      <c r="H32" s="61" t="s">
         <v>42</v>
       </c>
       <c r="I32" s="14" t="s">
@@ -3210,7 +3208,7 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="70" t="s">
+      <c r="T32" s="61" t="s">
         <v>52</v>
       </c>
       <c r="U32" s="13"/>
@@ -3227,19 +3225,19 @@
       <c r="AF32" s="13"/>
       <c r="AG32" s="16"/>
     </row>
-    <row r="33" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="109"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="81" t="s">
+    <row r="33" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="103"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="86" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="70" t="s">
+      <c r="H33" s="62"/>
+      <c r="I33" s="61" t="s">
         <v>54</v>
       </c>
       <c r="J33" s="13"/>
@@ -3248,13 +3246,13 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
-      <c r="P33" s="63" t="s">
+      <c r="P33" s="85" t="s">
         <v>88</v>
       </c>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="71"/>
+      <c r="T33" s="62"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
@@ -3269,28 +3267,28 @@
       <c r="AF33" s="13"/>
       <c r="AG33" s="16"/>
     </row>
-    <row r="34" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="109"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="81"/>
+    <row r="34" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="103"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
-      <c r="P34" s="63"/>
+      <c r="P34" s="85"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="71"/>
+      <c r="T34" s="62"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
@@ -3305,28 +3303,28 @@
       <c r="AF34" s="13"/>
       <c r="AG34" s="16"/>
     </row>
-    <row r="35" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="109"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="81"/>
+    <row r="35" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="103"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="13"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="63"/>
+      <c r="P35" s="85"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="71"/>
+      <c r="T35" s="62"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
@@ -3341,14 +3339,14 @@
       <c r="AF35" s="13"/>
       <c r="AG35" s="16"/>
     </row>
-    <row r="36" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="109"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="81"/>
+    <row r="36" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="103"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -3362,7 +3360,7 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="71"/>
+      <c r="T36" s="62"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
@@ -3377,17 +3375,17 @@
       <c r="AF36" s="13"/>
       <c r="AG36" s="16"/>
     </row>
-    <row r="37" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="109"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="81"/>
+    <row r="37" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="103"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="86"/>
       <c r="E37" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="70" t="s">
+      <c r="I37" s="61" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="13"/>
@@ -3400,7 +3398,7 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
-      <c r="T37" s="71"/>
+      <c r="T37" s="62"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
       <c r="W37" s="13"/>
@@ -3415,17 +3413,17 @@
       <c r="AF37" s="13"/>
       <c r="AG37" s="16"/>
     </row>
-    <row r="38" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="109"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="81"/>
+    <row r="38" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="103"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="86"/>
       <c r="E38" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="13"/>
+      <c r="F38" s="59"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="71"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -3436,7 +3434,7 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
-      <c r="T38" s="71"/>
+      <c r="T38" s="62"/>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
@@ -3451,17 +3449,17 @@
       <c r="AF38" s="13"/>
       <c r="AG38" s="16"/>
     </row>
-    <row r="39" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="109"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="81"/>
+    <row r="39" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="103"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="86"/>
       <c r="E39" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="13"/>
+      <c r="F39" s="59"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="72"/>
+      <c r="I39" s="67"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -3472,7 +3470,7 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="72"/>
+      <c r="T39" s="67"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
@@ -3487,14 +3485,14 @@
       <c r="AF39" s="13"/>
       <c r="AG39" s="16"/>
     </row>
-    <row r="40" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="109"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="81"/>
+    <row r="40" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="103"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="13"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="30"/>
@@ -3523,14 +3521,14 @@
       <c r="AF40" s="13"/>
       <c r="AG40" s="16"/>
     </row>
-    <row r="41" spans="2:33" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="110"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="82"/>
+    <row r="41" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="104"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="87"/>
       <c r="E41" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="32"/>
+      <c r="F41" s="59"/>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="33"/>
@@ -3559,70 +3557,70 @@
       <c r="AF41" s="32"/>
       <c r="AG41" s="34"/>
     </row>
-    <row r="42" spans="2:33" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="100" t="s">
+    <row r="42" spans="2:33" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="92" t="s">
+      <c r="C42" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="67" t="s">
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="67" t="s">
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="K42" s="98"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
-      <c r="N42" s="98"/>
-      <c r="O42" s="99"/>
-      <c r="P42" s="67" t="s">
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="Q42" s="98"/>
-      <c r="R42" s="98"/>
-      <c r="S42" s="98"/>
-      <c r="T42" s="98"/>
-      <c r="U42" s="98"/>
-      <c r="V42" s="99"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="108"/>
       <c r="W42" s="23"/>
       <c r="X42" s="23"/>
       <c r="Y42" s="23"/>
       <c r="Z42" s="23"/>
-      <c r="AA42" s="64" t="s">
+      <c r="AA42" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="AB42" s="65"/>
-      <c r="AC42" s="65"/>
-      <c r="AD42" s="65"/>
-      <c r="AE42" s="65"/>
-      <c r="AF42" s="65"/>
-      <c r="AG42" s="66"/>
-    </row>
-    <row r="43" spans="2:33" ht="135" x14ac:dyDescent="0.3">
-      <c r="B43" s="101"/>
-      <c r="C43" s="70" t="s">
+      <c r="AB42" s="72"/>
+      <c r="AC42" s="72"/>
+      <c r="AD42" s="72"/>
+      <c r="AE42" s="72"/>
+      <c r="AF42" s="72"/>
+      <c r="AG42" s="119"/>
+    </row>
+    <row r="43" spans="2:33" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="110"/>
+      <c r="C43" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="81" t="s">
+      <c r="D43" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="35"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="124"/>
       <c r="G43" s="30"/>
-      <c r="H43" s="104" t="s">
+      <c r="H43" s="68" t="s">
         <v>117</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="70" t="s">
+      <c r="J43" s="61" t="s">
         <v>55</v>
       </c>
       <c r="K43" s="13"/>
@@ -3630,23 +3628,23 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
-      <c r="P43" s="70" t="s">
+      <c r="P43" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="Q43" s="70" t="s">
+      <c r="Q43" s="61" t="s">
         <v>58</v>
       </c>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
-      <c r="T43" s="70" t="s">
+      <c r="T43" s="61" t="s">
         <v>57</v>
       </c>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
-      <c r="W43" s="70" t="s">
+      <c r="W43" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="X43" s="70" t="s">
+      <c r="X43" s="61" t="s">
         <v>60</v>
       </c>
       <c r="Y43" s="13"/>
@@ -3654,351 +3652,351 @@
       <c r="AA43" s="35"/>
       <c r="AB43" s="30"/>
       <c r="AC43" s="13"/>
-      <c r="AD43" s="70" t="s">
+      <c r="AD43" s="61" t="s">
         <v>62</v>
       </c>
       <c r="AE43" s="13"/>
       <c r="AF43" s="13"/>
       <c r="AG43" s="16"/>
     </row>
-    <row r="44" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="101"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="81" t="s">
+    <row r="44" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="110"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="86" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="59"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="63" t="s">
+      <c r="H44" s="69"/>
+      <c r="I44" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="J44" s="71"/>
+      <c r="J44" s="62"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
-      <c r="T44" s="71"/>
+      <c r="T44" s="62"/>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
       <c r="AC44" s="13"/>
-      <c r="AD44" s="71"/>
+      <c r="AD44" s="62"/>
       <c r="AE44" s="13"/>
       <c r="AF44" s="13"/>
       <c r="AG44" s="16"/>
     </row>
-    <row r="45" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="101"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="81"/>
+    <row r="45" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="110"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="13"/>
+      <c r="F45" s="59"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="71"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="62"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
-      <c r="T45" s="71"/>
+      <c r="T45" s="62"/>
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
-      <c r="W45" s="71"/>
-      <c r="X45" s="71"/>
+      <c r="W45" s="62"/>
+      <c r="X45" s="62"/>
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="13"/>
-      <c r="AD45" s="71"/>
+      <c r="AD45" s="62"/>
       <c r="AE45" s="13"/>
       <c r="AF45" s="13"/>
       <c r="AG45" s="16"/>
     </row>
-    <row r="46" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="101"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="81"/>
+    <row r="46" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="110"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="86"/>
       <c r="E46" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="59"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="71"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="62"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
-      <c r="T46" s="71"/>
+      <c r="T46" s="62"/>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
-      <c r="W46" s="71"/>
-      <c r="X46" s="71"/>
+      <c r="W46" s="62"/>
+      <c r="X46" s="62"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="13"/>
       <c r="AC46" s="13"/>
-      <c r="AD46" s="71"/>
+      <c r="AD46" s="62"/>
       <c r="AE46" s="13"/>
       <c r="AF46" s="13"/>
       <c r="AG46" s="16"/>
     </row>
-    <row r="47" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="101"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="81"/>
+    <row r="47" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="110"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="86"/>
       <c r="E47" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F47" s="59"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="71"/>
+      <c r="J47" s="62"/>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
-      <c r="T47" s="71"/>
+      <c r="T47" s="62"/>
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
-      <c r="W47" s="71"/>
-      <c r="X47" s="71"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
       <c r="AC47" s="13"/>
-      <c r="AD47" s="71"/>
+      <c r="AD47" s="62"/>
       <c r="AE47" s="13"/>
       <c r="AF47" s="13"/>
       <c r="AG47" s="16"/>
     </row>
-    <row r="48" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="101"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="81"/>
+    <row r="48" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="110"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="86"/>
       <c r="E48" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="13"/>
+      <c r="F48" s="59"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="70" t="s">
+      <c r="I48" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="71"/>
+      <c r="J48" s="62"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
-      <c r="T48" s="71"/>
+      <c r="T48" s="62"/>
       <c r="U48" s="13"/>
       <c r="V48" s="13"/>
-      <c r="W48" s="71"/>
-      <c r="X48" s="71"/>
+      <c r="W48" s="62"/>
+      <c r="X48" s="62"/>
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
       <c r="AB48" s="13"/>
       <c r="AC48" s="13"/>
-      <c r="AD48" s="71"/>
+      <c r="AD48" s="62"/>
       <c r="AE48" s="13"/>
       <c r="AF48" s="13"/>
       <c r="AG48" s="16"/>
     </row>
-    <row r="49" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="101"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="81"/>
+    <row r="49" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="110"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="86"/>
       <c r="E49" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="59"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
-      <c r="T49" s="71"/>
+      <c r="T49" s="62"/>
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
-      <c r="W49" s="71"/>
-      <c r="X49" s="71"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="62"/>
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
       <c r="AB49" s="13"/>
       <c r="AC49" s="13"/>
-      <c r="AD49" s="71"/>
+      <c r="AD49" s="62"/>
       <c r="AE49" s="13"/>
       <c r="AF49" s="13"/>
       <c r="AG49" s="16"/>
     </row>
-    <row r="50" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="101"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="81"/>
+    <row r="50" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="110"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="86"/>
       <c r="E50" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="13"/>
+      <c r="F50" s="59"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="71"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
-      <c r="T50" s="72"/>
+      <c r="T50" s="67"/>
       <c r="U50" s="13"/>
       <c r="V50" s="13"/>
-      <c r="W50" s="71"/>
-      <c r="X50" s="71"/>
+      <c r="W50" s="62"/>
+      <c r="X50" s="62"/>
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
       <c r="AC50" s="13"/>
-      <c r="AD50" s="71"/>
+      <c r="AD50" s="62"/>
       <c r="AE50" s="13"/>
       <c r="AF50" s="13"/>
       <c r="AG50" s="16"/>
     </row>
-    <row r="51" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="101"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="81"/>
+    <row r="51" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="110"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="86"/>
       <c r="E51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="59"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="71"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
       <c r="V51" s="13"/>
-      <c r="W51" s="71"/>
-      <c r="X51" s="71"/>
+      <c r="W51" s="62"/>
+      <c r="X51" s="62"/>
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
-      <c r="AD51" s="71"/>
+      <c r="AD51" s="62"/>
       <c r="AE51" s="13"/>
       <c r="AF51" s="13"/>
       <c r="AG51" s="16"/>
     </row>
-    <row r="52" spans="2:33" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="102"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="94"/>
+    <row r="52" spans="2:33" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="111"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="21"/>
+      <c r="F52" s="59"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
-      <c r="P52" s="80"/>
-      <c r="Q52" s="80"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="63"/>
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
       <c r="T52" s="21"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="80"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="63"/>
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
       <c r="AA52" s="21"/>
       <c r="AB52" s="21"/>
       <c r="AC52" s="21"/>
-      <c r="AD52" s="80"/>
+      <c r="AD52" s="63"/>
       <c r="AE52" s="21"/>
       <c r="AF52" s="21"/>
       <c r="AG52" s="22"/>
     </row>
     <row r="54" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="91" t="s">
+      <c r="B55" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="3" t="s">
         <v>30</v>
       </c>
@@ -4064,10 +4062,10 @@
       </c>
     </row>
     <row r="56" spans="2:33" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="93"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
       <c r="F56" s="5">
         <v>44312</v>
       </c>
@@ -4133,14 +4131,14 @@
       </c>
     </row>
     <row r="57" spans="2:33" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="95" t="s">
+      <c r="B57" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="97" t="s">
+      <c r="C57" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="97"/>
-      <c r="E57" s="97"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="9"/>
@@ -4159,24 +4157,24 @@
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
       <c r="W57" s="10"/>
-      <c r="X57" s="73" t="s">
+      <c r="X57" s="120" t="s">
         <v>63</v>
       </c>
       <c r="Y57" s="42"/>
       <c r="Z57" s="29"/>
     </row>
     <row r="58" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="95"/>
-      <c r="C58" s="70" t="s">
+      <c r="B58" s="78"/>
+      <c r="C58" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="81" t="s">
+      <c r="D58" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="81"/>
+      <c r="E58" s="86"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="70" t="s">
+      <c r="H58" s="61" t="s">
         <v>61</v>
       </c>
       <c r="I58" s="13"/>
@@ -4186,26 +4184,26 @@
       <c r="M58" s="14"/>
       <c r="N58" s="13"/>
       <c r="O58" s="14"/>
-      <c r="P58" s="70" t="s">
+      <c r="P58" s="61" t="s">
         <v>86</v>
       </c>
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
-      <c r="T58" s="70" t="s">
+      <c r="T58" s="61" t="s">
         <v>85</v>
       </c>
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
       <c r="W58" s="16"/>
-      <c r="X58" s="74"/>
+      <c r="X58" s="121"/>
       <c r="Y58" s="43"/>
       <c r="Z58" s="16"/>
     </row>
     <row r="59" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="95"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="82" t="s">
+      <c r="B59" s="78"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="87" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="17" t="s">
@@ -4213,7 +4211,7 @@
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="71"/>
+      <c r="H59" s="62"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
@@ -4221,28 +4219,28 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
-      <c r="P59" s="71"/>
+      <c r="P59" s="62"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
-      <c r="T59" s="71"/>
+      <c r="T59" s="62"/>
       <c r="U59" s="13"/>
       <c r="V59" s="13"/>
       <c r="W59" s="16"/>
-      <c r="X59" s="74"/>
+      <c r="X59" s="121"/>
       <c r="Y59" s="43"/>
       <c r="Z59" s="16"/>
     </row>
     <row r="60" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="95"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="83"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="88"/>
       <c r="E60" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="71"/>
+      <c r="H60" s="62"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -4250,28 +4248,28 @@
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
-      <c r="P60" s="71"/>
+      <c r="P60" s="62"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
-      <c r="T60" s="71"/>
+      <c r="T60" s="62"/>
       <c r="U60" s="13"/>
       <c r="V60" s="13"/>
       <c r="W60" s="16"/>
-      <c r="X60" s="74"/>
+      <c r="X60" s="121"/>
       <c r="Y60" s="43"/>
       <c r="Z60" s="16"/>
     </row>
     <row r="61" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="95"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="83"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="88"/>
       <c r="E61" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="71"/>
+      <c r="H61" s="62"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
@@ -4279,28 +4277,28 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
-      <c r="P61" s="71"/>
+      <c r="P61" s="62"/>
       <c r="Q61" s="13"/>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
-      <c r="T61" s="71"/>
+      <c r="T61" s="62"/>
       <c r="U61" s="13"/>
       <c r="V61" s="13"/>
       <c r="W61" s="16"/>
-      <c r="X61" s="74"/>
+      <c r="X61" s="121"/>
       <c r="Y61" s="43"/>
       <c r="Z61" s="16"/>
     </row>
     <row r="62" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B62" s="95"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="83"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="88"/>
       <c r="E62" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="71"/>
+      <c r="H62" s="62"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
@@ -4308,28 +4306,28 @@
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
-      <c r="P62" s="71"/>
+      <c r="P62" s="62"/>
       <c r="Q62" s="13"/>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
-      <c r="T62" s="71"/>
+      <c r="T62" s="62"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
       <c r="W62" s="16"/>
-      <c r="X62" s="74"/>
+      <c r="X62" s="121"/>
       <c r="Y62" s="43"/>
       <c r="Z62" s="16"/>
     </row>
     <row r="63" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="95"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="83"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="88"/>
       <c r="E63" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="71"/>
+      <c r="H63" s="62"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
@@ -4337,28 +4335,28 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
-      <c r="P63" s="71"/>
+      <c r="P63" s="62"/>
       <c r="Q63" s="13"/>
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
-      <c r="T63" s="71"/>
+      <c r="T63" s="62"/>
       <c r="U63" s="13"/>
       <c r="V63" s="13"/>
       <c r="W63" s="16"/>
-      <c r="X63" s="74"/>
+      <c r="X63" s="121"/>
       <c r="Y63" s="43"/>
       <c r="Z63" s="16"/>
     </row>
     <row r="64" spans="2:33" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B64" s="95"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="83"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="88"/>
       <c r="E64" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="71"/>
+      <c r="H64" s="62"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
@@ -4366,28 +4364,28 @@
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
-      <c r="P64" s="71"/>
+      <c r="P64" s="62"/>
       <c r="Q64" s="13"/>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
-      <c r="T64" s="71"/>
+      <c r="T64" s="62"/>
       <c r="U64" s="13"/>
       <c r="V64" s="13"/>
       <c r="W64" s="16"/>
-      <c r="X64" s="74"/>
+      <c r="X64" s="121"/>
       <c r="Y64" s="43"/>
       <c r="Z64" s="16"/>
     </row>
     <row r="65" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B65" s="95"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="83"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="88"/>
       <c r="E65" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="72"/>
+      <c r="H65" s="67"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
@@ -4395,22 +4393,22 @@
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
-      <c r="P65" s="71"/>
+      <c r="P65" s="62"/>
       <c r="Q65" s="13"/>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
-      <c r="T65" s="71"/>
+      <c r="T65" s="62"/>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
       <c r="W65" s="16"/>
-      <c r="X65" s="74"/>
+      <c r="X65" s="121"/>
       <c r="Y65" s="43"/>
       <c r="Z65" s="16"/>
     </row>
     <row r="66" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B66" s="95"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="83"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="88"/>
       <c r="E66" s="17" t="s">
         <v>10</v>
       </c>
@@ -4424,22 +4422,22 @@
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
-      <c r="P66" s="71"/>
+      <c r="P66" s="62"/>
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
-      <c r="T66" s="71"/>
+      <c r="T66" s="62"/>
       <c r="U66" s="13"/>
       <c r="V66" s="13"/>
       <c r="W66" s="16"/>
-      <c r="X66" s="74"/>
+      <c r="X66" s="121"/>
       <c r="Y66" s="43"/>
       <c r="Z66" s="16"/>
     </row>
     <row r="67" spans="2:26" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="96"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="84"/>
+      <c r="B67" s="79"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="89"/>
       <c r="E67" s="19" t="s">
         <v>11</v>
       </c>
@@ -4453,34 +4451,34 @@
       <c r="M67" s="21"/>
       <c r="N67" s="21"/>
       <c r="O67" s="21"/>
-      <c r="P67" s="80"/>
+      <c r="P67" s="63"/>
       <c r="Q67" s="21"/>
       <c r="R67" s="21"/>
       <c r="S67" s="21"/>
-      <c r="T67" s="80"/>
+      <c r="T67" s="63"/>
       <c r="U67" s="21"/>
       <c r="V67" s="21"/>
       <c r="W67" s="22"/>
-      <c r="X67" s="74"/>
+      <c r="X67" s="121"/>
       <c r="Y67" s="44"/>
       <c r="Z67" s="22"/>
     </row>
     <row r="68" spans="2:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="85" t="s">
+      <c r="B68" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="88" t="s">
+      <c r="C68" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="89"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="67" t="s">
+      <c r="D68" s="114"/>
+      <c r="E68" s="115"/>
+      <c r="F68" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="69"/>
+      <c r="G68" s="112"/>
+      <c r="H68" s="112"/>
+      <c r="I68" s="112"/>
+      <c r="J68" s="98"/>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
       <c r="M68" s="45"/>
@@ -4494,19 +4492,19 @@
       <c r="U68" s="46"/>
       <c r="V68" s="46"/>
       <c r="W68" s="47"/>
-      <c r="X68" s="74"/>
+      <c r="X68" s="121"/>
       <c r="Y68" s="37"/>
       <c r="Z68" s="4"/>
     </row>
     <row r="69" spans="2:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="86"/>
-      <c r="C69" s="70" t="s">
+      <c r="B69" s="95"/>
+      <c r="C69" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="81" t="s">
+      <c r="D69" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="81"/>
+      <c r="E69" s="86"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
@@ -4514,33 +4512,33 @@
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
-      <c r="M69" s="70" t="s">
+      <c r="M69" s="61" t="s">
         <v>84</v>
       </c>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
-      <c r="P69" s="70" t="s">
+      <c r="P69" s="61" t="s">
         <v>86</v>
       </c>
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
-      <c r="T69" s="70" t="s">
+      <c r="T69" s="61" t="s">
         <v>87</v>
       </c>
       <c r="U69" s="13"/>
-      <c r="V69" s="70" t="s">
+      <c r="V69" s="61" t="s">
         <v>84</v>
       </c>
       <c r="W69" s="16"/>
-      <c r="X69" s="74"/>
+      <c r="X69" s="121"/>
       <c r="Y69" s="43"/>
       <c r="Z69" s="16"/>
     </row>
     <row r="70" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B70" s="86"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="82" t="s">
+      <c r="B70" s="95"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="87" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="17" t="s">
@@ -4553,25 +4551,25 @@
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
-      <c r="M70" s="71"/>
+      <c r="M70" s="62"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
-      <c r="P70" s="71"/>
+      <c r="P70" s="62"/>
       <c r="Q70" s="13"/>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
-      <c r="T70" s="71"/>
+      <c r="T70" s="62"/>
       <c r="U70" s="13"/>
-      <c r="V70" s="71"/>
+      <c r="V70" s="62"/>
       <c r="W70" s="16"/>
-      <c r="X70" s="74"/>
+      <c r="X70" s="121"/>
       <c r="Y70" s="43"/>
       <c r="Z70" s="16"/>
     </row>
     <row r="71" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B71" s="86"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="83"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="88"/>
       <c r="E71" s="17" t="s">
         <v>5</v>
       </c>
@@ -4582,25 +4580,25 @@
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
-      <c r="M71" s="71"/>
+      <c r="M71" s="62"/>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
-      <c r="P71" s="71"/>
+      <c r="P71" s="62"/>
       <c r="Q71" s="13"/>
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
-      <c r="T71" s="71"/>
+      <c r="T71" s="62"/>
       <c r="U71" s="13"/>
-      <c r="V71" s="71"/>
+      <c r="V71" s="62"/>
       <c r="W71" s="16"/>
-      <c r="X71" s="74"/>
+      <c r="X71" s="121"/>
       <c r="Y71" s="43"/>
       <c r="Z71" s="16"/>
     </row>
     <row r="72" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B72" s="86"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="83"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="88"/>
       <c r="E72" s="17" t="s">
         <v>6</v>
       </c>
@@ -4611,25 +4609,25 @@
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
-      <c r="M72" s="71"/>
+      <c r="M72" s="62"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
-      <c r="P72" s="71"/>
+      <c r="P72" s="62"/>
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
-      <c r="T72" s="71"/>
+      <c r="T72" s="62"/>
       <c r="U72" s="13"/>
-      <c r="V72" s="71"/>
+      <c r="V72" s="62"/>
       <c r="W72" s="16"/>
-      <c r="X72" s="74"/>
+      <c r="X72" s="121"/>
       <c r="Y72" s="43"/>
       <c r="Z72" s="16"/>
     </row>
     <row r="73" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B73" s="86"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="83"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="88"/>
       <c r="E73" s="17" t="s">
         <v>18</v>
       </c>
@@ -4640,25 +4638,25 @@
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
-      <c r="M73" s="71"/>
+      <c r="M73" s="62"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
-      <c r="P73" s="71"/>
+      <c r="P73" s="62"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
-      <c r="T73" s="71"/>
+      <c r="T73" s="62"/>
       <c r="U73" s="13"/>
-      <c r="V73" s="71"/>
+      <c r="V73" s="62"/>
       <c r="W73" s="16"/>
-      <c r="X73" s="74"/>
+      <c r="X73" s="121"/>
       <c r="Y73" s="43"/>
       <c r="Z73" s="16"/>
     </row>
     <row r="74" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B74" s="86"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="83"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="88"/>
       <c r="E74" s="17" t="s">
         <v>7</v>
       </c>
@@ -4669,25 +4667,25 @@
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
-      <c r="M74" s="71"/>
+      <c r="M74" s="62"/>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
-      <c r="P74" s="71"/>
+      <c r="P74" s="62"/>
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
-      <c r="T74" s="71"/>
+      <c r="T74" s="62"/>
       <c r="U74" s="13"/>
-      <c r="V74" s="71"/>
+      <c r="V74" s="62"/>
       <c r="W74" s="16"/>
-      <c r="X74" s="74"/>
+      <c r="X74" s="121"/>
       <c r="Y74" s="43"/>
       <c r="Z74" s="16"/>
     </row>
     <row r="75" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B75" s="86"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="83"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="88"/>
       <c r="E75" s="17" t="s">
         <v>8</v>
       </c>
@@ -4698,25 +4696,25 @@
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
-      <c r="M75" s="71"/>
+      <c r="M75" s="62"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
-      <c r="P75" s="71"/>
+      <c r="P75" s="62"/>
       <c r="Q75" s="13"/>
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
-      <c r="T75" s="71"/>
+      <c r="T75" s="62"/>
       <c r="U75" s="13"/>
-      <c r="V75" s="71"/>
+      <c r="V75" s="62"/>
       <c r="W75" s="16"/>
-      <c r="X75" s="74"/>
+      <c r="X75" s="121"/>
       <c r="Y75" s="43"/>
       <c r="Z75" s="16"/>
     </row>
     <row r="76" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B76" s="86"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="83"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="88"/>
       <c r="E76" s="17" t="s">
         <v>9</v>
       </c>
@@ -4727,25 +4725,25 @@
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
-      <c r="M76" s="71"/>
+      <c r="M76" s="62"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
-      <c r="P76" s="71"/>
+      <c r="P76" s="62"/>
       <c r="Q76" s="13"/>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
-      <c r="T76" s="71"/>
+      <c r="T76" s="62"/>
       <c r="U76" s="13"/>
-      <c r="V76" s="71"/>
+      <c r="V76" s="62"/>
       <c r="W76" s="16"/>
-      <c r="X76" s="74"/>
+      <c r="X76" s="121"/>
       <c r="Y76" s="43"/>
       <c r="Z76" s="16"/>
     </row>
     <row r="77" spans="2:26" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B77" s="86"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="83"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="88"/>
       <c r="E77" s="17" t="s">
         <v>10</v>
       </c>
@@ -4756,25 +4754,25 @@
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
-      <c r="M77" s="71"/>
+      <c r="M77" s="62"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
-      <c r="P77" s="71"/>
+      <c r="P77" s="62"/>
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
-      <c r="T77" s="71"/>
+      <c r="T77" s="62"/>
       <c r="U77" s="13"/>
-      <c r="V77" s="71"/>
+      <c r="V77" s="62"/>
       <c r="W77" s="16"/>
-      <c r="X77" s="74"/>
+      <c r="X77" s="121"/>
       <c r="Y77" s="43"/>
       <c r="Z77" s="16"/>
     </row>
     <row r="78" spans="2:26" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="87"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="84"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="89"/>
       <c r="E78" s="19" t="s">
         <v>11</v>
       </c>
@@ -4785,68 +4783,47 @@
       <c r="J78" s="21"/>
       <c r="K78" s="21"/>
       <c r="L78" s="21"/>
-      <c r="M78" s="80"/>
+      <c r="M78" s="63"/>
       <c r="N78" s="21"/>
       <c r="O78" s="21"/>
-      <c r="P78" s="80"/>
+      <c r="P78" s="63"/>
       <c r="Q78" s="21"/>
       <c r="R78" s="21"/>
       <c r="S78" s="21"/>
-      <c r="T78" s="80"/>
+      <c r="T78" s="63"/>
       <c r="U78" s="21"/>
-      <c r="V78" s="80"/>
+      <c r="V78" s="63"/>
       <c r="W78" s="22"/>
-      <c r="X78" s="75"/>
+      <c r="X78" s="122"/>
       <c r="Y78" s="44"/>
       <c r="Z78" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="V69:V78"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="H58:H65"/>
-    <mergeCell ref="P58:P67"/>
-    <mergeCell ref="T58:T67"/>
-    <mergeCell ref="M69:M78"/>
-    <mergeCell ref="P69:P78"/>
-    <mergeCell ref="T69:T78"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="V6:V9"/>
-    <mergeCell ref="W6:W9"/>
-    <mergeCell ref="B16:B26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="V22:V26"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="V17:V20"/>
-    <mergeCell ref="W17:W20"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="AC18:AC20"/>
-    <mergeCell ref="AD18:AD20"/>
-    <mergeCell ref="AB22:AB26"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:D41"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="AA42:AG42"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="X57:X78"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="V11:V15"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AD6:AD9"/>
+    <mergeCell ref="AE17:AE26"/>
+    <mergeCell ref="T32:T39"/>
+    <mergeCell ref="T43:T50"/>
+    <mergeCell ref="W43:W52"/>
+    <mergeCell ref="X43:X52"/>
+    <mergeCell ref="AD43:AD52"/>
+    <mergeCell ref="C58:C67"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:D67"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:D78"/>
     <mergeCell ref="B55:E56"/>
     <mergeCell ref="B57:B67"/>
     <mergeCell ref="C57:E57"/>
@@ -4863,30 +4840,51 @@
     <mergeCell ref="J43:J52"/>
     <mergeCell ref="P43:P52"/>
     <mergeCell ref="Q43:Q52"/>
-    <mergeCell ref="C58:C67"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:D67"/>
-    <mergeCell ref="B68:B78"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:C78"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:D78"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="P33:P35"/>
-    <mergeCell ref="AA42:AG42"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="X57:X78"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="V11:V15"/>
-    <mergeCell ref="AC6:AC9"/>
-    <mergeCell ref="AD6:AD9"/>
-    <mergeCell ref="AE17:AE26"/>
-    <mergeCell ref="T32:T39"/>
-    <mergeCell ref="T43:T50"/>
-    <mergeCell ref="W43:W52"/>
-    <mergeCell ref="X43:X52"/>
-    <mergeCell ref="AD43:AD52"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="AC18:AC20"/>
+    <mergeCell ref="AD18:AD20"/>
+    <mergeCell ref="AB22:AB26"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="V6:V9"/>
+    <mergeCell ref="W6:W9"/>
+    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="V22:V26"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="V17:V20"/>
+    <mergeCell ref="W17:W20"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="V69:V78"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="H58:H65"/>
+    <mergeCell ref="P58:P67"/>
+    <mergeCell ref="T58:T67"/>
+    <mergeCell ref="M69:M78"/>
+    <mergeCell ref="P69:P78"/>
+    <mergeCell ref="T69:T78"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="X16:AD16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
